--- a/PROYECTO MR/cuentas_vuce_certi.xlsx
+++ b/PROYECTO MR/cuentas_vuce_certi.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VUCE\DocumentoVuce\PROYECTO MR\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04ABF57B-615C-410F-88B4-4D7AF0551E22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -22,100 +27,100 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="36">
   <si>
-    <t xml:space="preserve">Cuenta Vuce Id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Usuario</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contraseña</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Perfil id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Categoria Perfil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tipo Perfil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tipo Persona</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tipo Persona Principal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rol por defecto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Roles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">backus@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vuce0424.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADMINISTRADO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRINCIPAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JURIDICA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MR.USUARIO.PRINCIPAL</t>
+    <t>Cuenta Vuce Id</t>
+  </si>
+  <si>
+    <t>Usuario</t>
+  </si>
+  <si>
+    <t>Contraseña</t>
+  </si>
+  <si>
+    <t>Perfil id</t>
+  </si>
+  <si>
+    <t>Categoria Perfil</t>
+  </si>
+  <si>
+    <t>Tipo Perfil</t>
+  </si>
+  <si>
+    <t>Tipo Persona</t>
+  </si>
+  <si>
+    <t>Tipo Persona Principal</t>
+  </si>
+  <si>
+    <t>Rol por defecto</t>
+  </si>
+  <si>
+    <t>Roles</t>
+  </si>
+  <si>
+    <t>backus@gmail.com</t>
+  </si>
+  <si>
+    <t>Vuce0424.</t>
+  </si>
+  <si>
+    <t>ADMINISTRADO</t>
+  </si>
+  <si>
+    <t>PRINCIPAL</t>
+  </si>
+  <si>
+    <t>JURIDICA</t>
+  </si>
+  <si>
+    <t>MR.USUARIO.PRINCIPAL</t>
   </si>
   <si>
     <t xml:space="preserve">andres_v13@hotmail.com </t>
   </si>
   <si>
-    <t xml:space="preserve">NATURAL CON RUC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">andres_v1313@hotmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NATURAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rosa_dni@hotmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SECUNDARIO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OPERADOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MR.USUARIO.OPERADOR
+    <t>NATURAL CON RUC</t>
+  </si>
+  <si>
+    <t>andres_v1313@hotmail.com</t>
+  </si>
+  <si>
+    <t>NATURAL</t>
+  </si>
+  <si>
+    <t>rosa_dni@hotmail.com</t>
+  </si>
+  <si>
+    <t>SECUNDARIO</t>
+  </si>
+  <si>
+    <t>OPERADOR</t>
+  </si>
+  <si>
+    <t>MR.USUARIO.OPERADOR
 MR.USUARIO.COORDINADOR
 MR.USUARIO.CONSULTA
 MR.USUARIO.FINANCIERO</t>
   </si>
   <si>
-    <t xml:space="preserve">anllelo.carreazo@hotmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cp@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FUNCIONARIO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FUNC. ENTIDAD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USUARIO EXTA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EVALUADOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MR.ENTIDAD.EVALUADOR
+    <t>anllelo.carreazo@hotmail.com</t>
+  </si>
+  <si>
+    <t>cp@gmail.com</t>
+  </si>
+  <si>
+    <t>FUNCIONARIO</t>
+  </si>
+  <si>
+    <t>FUNC. ENTIDAD</t>
+  </si>
+  <si>
+    <t>USUARIO EXTA</t>
+  </si>
+  <si>
+    <t>EVALUADOR</t>
+  </si>
+  <si>
+    <t>MR.ENTIDAD.EVALUADOR
 MR.ENTIDAD.MESA_PARTES
 MR.ENTIDAD.SUPERVISOR_AREA
 MR.ENTIDAD.DIGITADOR
@@ -126,29 +131,26 @@
 MR.ENTIDAD.ASIGNADOR</t>
   </si>
   <si>
-    <t xml:space="preserve">ali.cuba@hotmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TERCERO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JURIDICA / NATURAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRAMITADOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MR.USUARIO.TRAMITADOR</t>
+    <t>ali.cuba@hotmail.com</t>
+  </si>
+  <si>
+    <t>TERCERO</t>
+  </si>
+  <si>
+    <t>JURIDICA / NATURAL</t>
+  </si>
+  <si>
+    <t>TRAMITADOR</t>
+  </si>
+  <si>
+    <t>MR.USUARIO.TRAMITADOR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -156,22 +158,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -196,8 +183,16 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -210,134 +205,145 @@
         <bgColor rgb="FFCCFFCC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellXfs count="34">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -396,38 +402,346 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMJ15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="29.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="8.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="19.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="18.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="21.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="15.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="38.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
+    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+    <col min="2" max="2" width="29.28515625" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
+    <col min="6" max="6" width="19.85546875" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" customWidth="1"/>
+    <col min="8" max="8" width="21.5703125" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" customWidth="1"/>
+    <col min="10" max="10" width="38.140625" customWidth="1"/>
+    <col min="1024" max="1024" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -459,8 +773,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="n">
+    <row r="2" spans="1:1024" x14ac:dyDescent="0.2">
+      <c r="A2" s="4">
         <v>1066</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -469,7 +783,7 @@
       <c r="C2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="7" t="n">
+      <c r="D2" s="7">
         <v>1088</v>
       </c>
       <c r="E2" s="8" t="s">
@@ -491,17 +805,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="n">
+    <row r="3" spans="1:1024" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
         <v>1063</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="16" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="7" t="n">
+      <c r="D3" s="7">
         <v>1051</v>
       </c>
       <c r="E3" s="8" t="s">
@@ -523,40 +837,40 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="n">
+    <row r="4" spans="1:1024" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="18">
         <v>1064</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="7" t="n">
+      <c r="D4" s="21">
         <v>1085</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="J4" s="20" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="51.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="n">
+    <row r="5" spans="1:1024" ht="51.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
         <v>1070</v>
       </c>
       <c r="B5" s="10" t="s">
@@ -565,7 +879,7 @@
       <c r="C5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="7" t="n">
+      <c r="D5" s="7">
         <v>1092</v>
       </c>
       <c r="E5" s="11" t="s">
@@ -587,82 +901,82 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="48.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="n">
+    <row r="6" spans="1:1024" s="23" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A6" s="18">
         <v>1071</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="7" t="n">
+      <c r="D6" s="21">
         <v>1093</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="H6" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="I6" s="11" t="s">
+      <c r="I6" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="J6" s="14" t="s">
+      <c r="J6" s="33" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" s="15" customFormat="true" ht="114.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="7" t="n">
+    <row r="7" spans="1:1024" s="29" customFormat="1" ht="114.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="24">
         <v>1065</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="7" t="n">
+      <c r="D7" s="24">
         <v>1086</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="G7" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="11" t="s">
+      <c r="H7" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="I7" s="11" t="s">
+      <c r="I7" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="J7" s="12" t="s">
+      <c r="J7" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="AMJ7" s="0"/>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="n">
+      <c r="AMJ7" s="30"/>
+    </row>
+    <row r="8" spans="1:1024" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
         <v>1072</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="7" t="n">
+      <c r="D8" s="7">
         <v>1094</v>
       </c>
       <c r="E8" s="8" t="s">
@@ -680,35 +994,35 @@
       <c r="I8" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="J8" s="14" t="s">
+      <c r="J8" s="13" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="18"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="18"/>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="18"/>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="18"/>
+    <row r="10" spans="1:1024" x14ac:dyDescent="0.2">
+      <c r="A10" s="15"/>
+    </row>
+    <row r="13" spans="1:1024" x14ac:dyDescent="0.2">
+      <c r="A13" s="15"/>
+    </row>
+    <row r="14" spans="1:1024" x14ac:dyDescent="0.2">
+      <c r="A14" s="15"/>
+    </row>
+    <row r="15" spans="1:1024" x14ac:dyDescent="0.2">
+      <c r="A15" s="15"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="backus@gmail.com"/>
-    <hyperlink ref="B4" r:id="rId2" display="andres_v1313@hotmail.com"/>
-    <hyperlink ref="B5" r:id="rId3" display="rosa_dni@hotmail.com"/>
-    <hyperlink ref="B6" r:id="rId4" display="anllelo.carreazo@hotmail.com"/>
-    <hyperlink ref="B7" r:id="rId5" display="cp@gmail.com"/>
-    <hyperlink ref="B8" r:id="rId6" display="ali.cuba@hotmail.com"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B5" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B6" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B7" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="B8" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="B3" r:id="rId7" xr:uid="{995C32DD-DF7D-477B-84BE-31187D57267B}"/>
   </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>

--- a/PROYECTO MR/cuentas_vuce_certi.xlsx
+++ b/PROYECTO MR/cuentas_vuce_certi.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VUCE\DocumentoVuce\PROYECTO MR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VUCE\DocumentoVuce\PROYECTO MR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04ABF57B-615C-410F-88B4-4D7AF0551E22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B47DF3BB-2EEC-4BDB-8201-471ABB69D49F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -150,7 +150,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -167,13 +167,6 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF111111"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -244,9 +237,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -275,7 +268,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -288,17 +280,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -312,7 +304,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -327,8 +319,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -337,6 +328,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -720,10 +712,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMJ15"/>
+  <dimension ref="A1:CSY15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -741,7 +733,7 @@
     <col min="1024" max="1024" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1024" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2547" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -773,7 +765,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:1024" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2547" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>1066</v>
       </c>
@@ -805,11 +797,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:1024" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2547" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>1063</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="15" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="9" t="s">
@@ -837,43 +829,2580 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:1024" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="18">
+    <row r="4" spans="1:2547" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="17">
         <v>1064</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="21">
+      <c r="D4" s="20">
         <v>1085</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="E4" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="22" t="s">
+      <c r="F4" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="22" t="s">
+      <c r="G4" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="22" t="s">
+      <c r="H4" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="22" t="s">
+      <c r="I4" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="20" t="s">
+      <c r="J4" s="19" t="s">
         <v>15</v>
       </c>
+      <c r="K4"/>
+      <c r="L4"/>
+      <c r="M4"/>
+      <c r="N4"/>
+      <c r="O4"/>
+      <c r="P4"/>
+      <c r="Q4"/>
+      <c r="R4"/>
+      <c r="S4"/>
+      <c r="T4"/>
+      <c r="U4"/>
+      <c r="V4"/>
+      <c r="W4"/>
+      <c r="X4"/>
+      <c r="Y4"/>
+      <c r="Z4"/>
+      <c r="AA4"/>
+      <c r="AB4"/>
+      <c r="AC4"/>
+      <c r="AD4"/>
+      <c r="AE4"/>
+      <c r="AF4"/>
+      <c r="AG4"/>
+      <c r="AH4"/>
+      <c r="AI4"/>
+      <c r="AJ4"/>
+      <c r="AK4"/>
+      <c r="AL4"/>
+      <c r="AM4"/>
+      <c r="AN4"/>
+      <c r="AO4"/>
+      <c r="AP4"/>
+      <c r="AQ4"/>
+      <c r="AR4"/>
+      <c r="AS4"/>
+      <c r="AT4"/>
+      <c r="AU4"/>
+      <c r="AV4"/>
+      <c r="AW4"/>
+      <c r="AX4"/>
+      <c r="AY4"/>
+      <c r="AZ4"/>
+      <c r="BA4"/>
+      <c r="BB4"/>
+      <c r="BC4"/>
+      <c r="BD4"/>
+      <c r="BE4"/>
+      <c r="BF4"/>
+      <c r="BG4"/>
+      <c r="BH4"/>
+      <c r="BI4"/>
+      <c r="BJ4"/>
+      <c r="BK4"/>
+      <c r="BL4"/>
+      <c r="BM4"/>
+      <c r="BN4"/>
+      <c r="BO4"/>
+      <c r="BP4"/>
+      <c r="BQ4"/>
+      <c r="BR4"/>
+      <c r="BS4"/>
+      <c r="BT4"/>
+      <c r="BU4"/>
+      <c r="BV4"/>
+      <c r="BW4"/>
+      <c r="BX4"/>
+      <c r="BY4"/>
+      <c r="BZ4"/>
+      <c r="CA4"/>
+      <c r="CB4"/>
+      <c r="CC4"/>
+      <c r="CD4"/>
+      <c r="CE4"/>
+      <c r="CF4"/>
+      <c r="CG4"/>
+      <c r="CH4"/>
+      <c r="CI4"/>
+      <c r="CJ4"/>
+      <c r="CK4"/>
+      <c r="CL4"/>
+      <c r="CM4"/>
+      <c r="CN4"/>
+      <c r="CO4"/>
+      <c r="CP4"/>
+      <c r="CQ4"/>
+      <c r="CR4"/>
+      <c r="CS4"/>
+      <c r="CT4"/>
+      <c r="CU4"/>
+      <c r="CV4"/>
+      <c r="CW4"/>
+      <c r="CX4"/>
+      <c r="CY4"/>
+      <c r="CZ4"/>
+      <c r="DA4"/>
+      <c r="DB4"/>
+      <c r="DC4"/>
+      <c r="DD4"/>
+      <c r="DE4"/>
+      <c r="DF4"/>
+      <c r="DG4"/>
+      <c r="DH4"/>
+      <c r="DI4"/>
+      <c r="DJ4"/>
+      <c r="DK4"/>
+      <c r="DL4"/>
+      <c r="DM4"/>
+      <c r="DN4"/>
+      <c r="DO4"/>
+      <c r="DP4"/>
+      <c r="DQ4"/>
+      <c r="DR4"/>
+      <c r="DS4"/>
+      <c r="DT4"/>
+      <c r="DU4"/>
+      <c r="DV4"/>
+      <c r="DW4"/>
+      <c r="DX4"/>
+      <c r="DY4"/>
+      <c r="DZ4"/>
+      <c r="EA4"/>
+      <c r="EB4"/>
+      <c r="EC4"/>
+      <c r="ED4"/>
+      <c r="EE4"/>
+      <c r="EF4"/>
+      <c r="EG4"/>
+      <c r="EH4"/>
+      <c r="EI4"/>
+      <c r="EJ4"/>
+      <c r="EK4"/>
+      <c r="EL4"/>
+      <c r="EM4"/>
+      <c r="EN4"/>
+      <c r="EO4"/>
+      <c r="EP4"/>
+      <c r="EQ4"/>
+      <c r="ER4"/>
+      <c r="ES4"/>
+      <c r="ET4"/>
+      <c r="EU4"/>
+      <c r="EV4"/>
+      <c r="EW4"/>
+      <c r="EX4"/>
+      <c r="EY4"/>
+      <c r="EZ4"/>
+      <c r="FA4"/>
+      <c r="FB4"/>
+      <c r="FC4"/>
+      <c r="FD4"/>
+      <c r="FE4"/>
+      <c r="FF4"/>
+      <c r="FG4"/>
+      <c r="FH4"/>
+      <c r="FI4"/>
+      <c r="FJ4"/>
+      <c r="FK4"/>
+      <c r="FL4"/>
+      <c r="FM4"/>
+      <c r="FN4"/>
+      <c r="FO4"/>
+      <c r="FP4"/>
+      <c r="FQ4"/>
+      <c r="FR4"/>
+      <c r="FS4"/>
+      <c r="FT4"/>
+      <c r="FU4"/>
+      <c r="FV4"/>
+      <c r="FW4"/>
+      <c r="FX4"/>
+      <c r="FY4"/>
+      <c r="FZ4"/>
+      <c r="GA4"/>
+      <c r="GB4"/>
+      <c r="GC4"/>
+      <c r="GD4"/>
+      <c r="GE4"/>
+      <c r="GF4"/>
+      <c r="GG4"/>
+      <c r="GH4"/>
+      <c r="GI4"/>
+      <c r="GJ4"/>
+      <c r="GK4"/>
+      <c r="GL4"/>
+      <c r="GM4"/>
+      <c r="GN4"/>
+      <c r="GO4"/>
+      <c r="GP4"/>
+      <c r="GQ4"/>
+      <c r="GR4"/>
+      <c r="GS4"/>
+      <c r="GT4"/>
+      <c r="GU4"/>
+      <c r="GV4"/>
+      <c r="GW4"/>
+      <c r="GX4"/>
+      <c r="GY4"/>
+      <c r="GZ4"/>
+      <c r="HA4"/>
+      <c r="HB4"/>
+      <c r="HC4"/>
+      <c r="HD4"/>
+      <c r="HE4"/>
+      <c r="HF4"/>
+      <c r="HG4"/>
+      <c r="HH4"/>
+      <c r="HI4"/>
+      <c r="HJ4"/>
+      <c r="HK4"/>
+      <c r="HL4"/>
+      <c r="HM4"/>
+      <c r="HN4"/>
+      <c r="HO4"/>
+      <c r="HP4"/>
+      <c r="HQ4"/>
+      <c r="HR4"/>
+      <c r="HS4"/>
+      <c r="HT4"/>
+      <c r="HU4"/>
+      <c r="HV4"/>
+      <c r="HW4"/>
+      <c r="HX4"/>
+      <c r="HY4"/>
+      <c r="HZ4"/>
+      <c r="IA4"/>
+      <c r="IB4"/>
+      <c r="IC4"/>
+      <c r="ID4"/>
+      <c r="IE4"/>
+      <c r="IF4"/>
+      <c r="IG4"/>
+      <c r="IH4"/>
+      <c r="II4"/>
+      <c r="IJ4"/>
+      <c r="IK4"/>
+      <c r="IL4"/>
+      <c r="IM4"/>
+      <c r="IN4"/>
+      <c r="IO4"/>
+      <c r="IP4"/>
+      <c r="IQ4"/>
+      <c r="IR4"/>
+      <c r="IS4"/>
+      <c r="IT4"/>
+      <c r="IU4"/>
+      <c r="IV4"/>
+      <c r="IW4"/>
+      <c r="IX4"/>
+      <c r="IY4"/>
+      <c r="IZ4"/>
+      <c r="JA4"/>
+      <c r="JB4"/>
+      <c r="JC4"/>
+      <c r="JD4"/>
+      <c r="JE4"/>
+      <c r="JF4"/>
+      <c r="JG4"/>
+      <c r="JH4"/>
+      <c r="JI4"/>
+      <c r="JJ4"/>
+      <c r="JK4"/>
+      <c r="JL4"/>
+      <c r="JM4"/>
+      <c r="JN4"/>
+      <c r="JO4"/>
+      <c r="JP4"/>
+      <c r="JQ4"/>
+      <c r="JR4"/>
+      <c r="JS4"/>
+      <c r="JT4"/>
+      <c r="JU4"/>
+      <c r="JV4"/>
+      <c r="JW4"/>
+      <c r="JX4"/>
+      <c r="JY4"/>
+      <c r="JZ4"/>
+      <c r="KA4"/>
+      <c r="KB4"/>
+      <c r="KC4"/>
+      <c r="KD4"/>
+      <c r="KE4"/>
+      <c r="KF4"/>
+      <c r="KG4"/>
+      <c r="KH4"/>
+      <c r="KI4"/>
+      <c r="KJ4"/>
+      <c r="KK4"/>
+      <c r="KL4"/>
+      <c r="KM4"/>
+      <c r="KN4"/>
+      <c r="KO4"/>
+      <c r="KP4"/>
+      <c r="KQ4"/>
+      <c r="KR4"/>
+      <c r="KS4"/>
+      <c r="KT4"/>
+      <c r="KU4"/>
+      <c r="KV4"/>
+      <c r="KW4"/>
+      <c r="KX4"/>
+      <c r="KY4"/>
+      <c r="KZ4"/>
+      <c r="LA4"/>
+      <c r="LB4"/>
+      <c r="LC4"/>
+      <c r="LD4"/>
+      <c r="LE4"/>
+      <c r="LF4"/>
+      <c r="LG4"/>
+      <c r="LH4"/>
+      <c r="LI4"/>
+      <c r="LJ4"/>
+      <c r="LK4"/>
+      <c r="LL4"/>
+      <c r="LM4"/>
+      <c r="LN4"/>
+      <c r="LO4"/>
+      <c r="LP4"/>
+      <c r="LQ4"/>
+      <c r="LR4"/>
+      <c r="LS4"/>
+      <c r="LT4"/>
+      <c r="LU4"/>
+      <c r="LV4"/>
+      <c r="LW4"/>
+      <c r="LX4"/>
+      <c r="LY4"/>
+      <c r="LZ4"/>
+      <c r="MA4"/>
+      <c r="MB4"/>
+      <c r="MC4"/>
+      <c r="MD4"/>
+      <c r="ME4"/>
+      <c r="MF4"/>
+      <c r="MG4"/>
+      <c r="MH4"/>
+      <c r="MI4"/>
+      <c r="MJ4"/>
+      <c r="MK4"/>
+      <c r="ML4"/>
+      <c r="MM4"/>
+      <c r="MN4"/>
+      <c r="MO4"/>
+      <c r="MP4"/>
+      <c r="MQ4"/>
+      <c r="MR4"/>
+      <c r="MS4"/>
+      <c r="MT4"/>
+      <c r="MU4"/>
+      <c r="MV4"/>
+      <c r="MW4"/>
+      <c r="MX4"/>
+      <c r="MY4"/>
+      <c r="MZ4"/>
+      <c r="NA4"/>
+      <c r="NB4"/>
+      <c r="NC4"/>
+      <c r="ND4"/>
+      <c r="NE4"/>
+      <c r="NF4"/>
+      <c r="NG4"/>
+      <c r="NH4"/>
+      <c r="NI4"/>
+      <c r="NJ4"/>
+      <c r="NK4"/>
+      <c r="NL4"/>
+      <c r="NM4"/>
+      <c r="NN4"/>
+      <c r="NO4"/>
+      <c r="NP4"/>
+      <c r="NQ4"/>
+      <c r="NR4"/>
+      <c r="NS4"/>
+      <c r="NT4"/>
+      <c r="NU4"/>
+      <c r="NV4"/>
+      <c r="NW4"/>
+      <c r="NX4"/>
+      <c r="NY4"/>
+      <c r="NZ4"/>
+      <c r="OA4"/>
+      <c r="OB4"/>
+      <c r="OC4"/>
+      <c r="OD4"/>
+      <c r="OE4"/>
+      <c r="OF4"/>
+      <c r="OG4"/>
+      <c r="OH4"/>
+      <c r="OI4"/>
+      <c r="OJ4"/>
+      <c r="OK4"/>
+      <c r="OL4"/>
+      <c r="OM4"/>
+      <c r="ON4"/>
+      <c r="OO4"/>
+      <c r="OP4"/>
+      <c r="OQ4"/>
+      <c r="OR4"/>
+      <c r="OS4"/>
+      <c r="OT4"/>
+      <c r="OU4"/>
+      <c r="OV4"/>
+      <c r="OW4"/>
+      <c r="OX4"/>
+      <c r="OY4"/>
+      <c r="OZ4"/>
+      <c r="PA4"/>
+      <c r="PB4"/>
+      <c r="PC4"/>
+      <c r="PD4"/>
+      <c r="PE4"/>
+      <c r="PF4"/>
+      <c r="PG4"/>
+      <c r="PH4"/>
+      <c r="PI4"/>
+      <c r="PJ4"/>
+      <c r="PK4"/>
+      <c r="PL4"/>
+      <c r="PM4"/>
+      <c r="PN4"/>
+      <c r="PO4"/>
+      <c r="PP4"/>
+      <c r="PQ4"/>
+      <c r="PR4"/>
+      <c r="PS4"/>
+      <c r="PT4"/>
+      <c r="PU4"/>
+      <c r="PV4"/>
+      <c r="PW4"/>
+      <c r="PX4"/>
+      <c r="PY4"/>
+      <c r="PZ4"/>
+      <c r="QA4"/>
+      <c r="QB4"/>
+      <c r="QC4"/>
+      <c r="QD4"/>
+      <c r="QE4"/>
+      <c r="QF4"/>
+      <c r="QG4"/>
+      <c r="QH4"/>
+      <c r="QI4"/>
+      <c r="QJ4"/>
+      <c r="QK4"/>
+      <c r="QL4"/>
+      <c r="QM4"/>
+      <c r="QN4"/>
+      <c r="QO4"/>
+      <c r="QP4"/>
+      <c r="QQ4"/>
+      <c r="QR4"/>
+      <c r="QS4"/>
+      <c r="QT4"/>
+      <c r="QU4"/>
+      <c r="QV4"/>
+      <c r="QW4"/>
+      <c r="QX4"/>
+      <c r="QY4"/>
+      <c r="QZ4"/>
+      <c r="RA4"/>
+      <c r="RB4"/>
+      <c r="RC4"/>
+      <c r="RD4"/>
+      <c r="RE4"/>
+      <c r="RF4"/>
+      <c r="RG4"/>
+      <c r="RH4"/>
+      <c r="RI4"/>
+      <c r="RJ4"/>
+      <c r="RK4"/>
+      <c r="RL4"/>
+      <c r="RM4"/>
+      <c r="RN4"/>
+      <c r="RO4"/>
+      <c r="RP4"/>
+      <c r="RQ4"/>
+      <c r="RR4"/>
+      <c r="RS4"/>
+      <c r="RT4"/>
+      <c r="RU4"/>
+      <c r="RV4"/>
+      <c r="RW4"/>
+      <c r="RX4"/>
+      <c r="RY4"/>
+      <c r="RZ4"/>
+      <c r="SA4"/>
+      <c r="SB4"/>
+      <c r="SC4"/>
+      <c r="SD4"/>
+      <c r="SE4"/>
+      <c r="SF4"/>
+      <c r="SG4"/>
+      <c r="SH4"/>
+      <c r="SI4"/>
+      <c r="SJ4"/>
+      <c r="SK4"/>
+      <c r="SL4"/>
+      <c r="SM4"/>
+      <c r="SN4"/>
+      <c r="SO4"/>
+      <c r="SP4"/>
+      <c r="SQ4"/>
+      <c r="SR4"/>
+      <c r="SS4"/>
+      <c r="ST4"/>
+      <c r="SU4"/>
+      <c r="SV4"/>
+      <c r="SW4"/>
+      <c r="SX4"/>
+      <c r="SY4"/>
+      <c r="SZ4"/>
+      <c r="TA4"/>
+      <c r="TB4"/>
+      <c r="TC4"/>
+      <c r="TD4"/>
+      <c r="TE4"/>
+      <c r="TF4"/>
+      <c r="TG4"/>
+      <c r="TH4"/>
+      <c r="TI4"/>
+      <c r="TJ4"/>
+      <c r="TK4"/>
+      <c r="TL4"/>
+      <c r="TM4"/>
+      <c r="TN4"/>
+      <c r="TO4"/>
+      <c r="TP4"/>
+      <c r="TQ4"/>
+      <c r="TR4"/>
+      <c r="TS4"/>
+      <c r="TT4"/>
+      <c r="TU4"/>
+      <c r="TV4"/>
+      <c r="TW4"/>
+      <c r="TX4"/>
+      <c r="TY4"/>
+      <c r="TZ4"/>
+      <c r="UA4"/>
+      <c r="UB4"/>
+      <c r="UC4"/>
+      <c r="UD4"/>
+      <c r="UE4"/>
+      <c r="UF4"/>
+      <c r="UG4"/>
+      <c r="UH4"/>
+      <c r="UI4"/>
+      <c r="UJ4"/>
+      <c r="UK4"/>
+      <c r="UL4"/>
+      <c r="UM4"/>
+      <c r="UN4"/>
+      <c r="UO4"/>
+      <c r="UP4"/>
+      <c r="UQ4"/>
+      <c r="UR4"/>
+      <c r="US4"/>
+      <c r="UT4"/>
+      <c r="UU4"/>
+      <c r="UV4"/>
+      <c r="UW4"/>
+      <c r="UX4"/>
+      <c r="UY4"/>
+      <c r="UZ4"/>
+      <c r="VA4"/>
+      <c r="VB4"/>
+      <c r="VC4"/>
+      <c r="VD4"/>
+      <c r="VE4"/>
+      <c r="VF4"/>
+      <c r="VG4"/>
+      <c r="VH4"/>
+      <c r="VI4"/>
+      <c r="VJ4"/>
+      <c r="VK4"/>
+      <c r="VL4"/>
+      <c r="VM4"/>
+      <c r="VN4"/>
+      <c r="VO4"/>
+      <c r="VP4"/>
+      <c r="VQ4"/>
+      <c r="VR4"/>
+      <c r="VS4"/>
+      <c r="VT4"/>
+      <c r="VU4"/>
+      <c r="VV4"/>
+      <c r="VW4"/>
+      <c r="VX4"/>
+      <c r="VY4"/>
+      <c r="VZ4"/>
+      <c r="WA4"/>
+      <c r="WB4"/>
+      <c r="WC4"/>
+      <c r="WD4"/>
+      <c r="WE4"/>
+      <c r="WF4"/>
+      <c r="WG4"/>
+      <c r="WH4"/>
+      <c r="WI4"/>
+      <c r="WJ4"/>
+      <c r="WK4"/>
+      <c r="WL4"/>
+      <c r="WM4"/>
+      <c r="WN4"/>
+      <c r="WO4"/>
+      <c r="WP4"/>
+      <c r="WQ4"/>
+      <c r="WR4"/>
+      <c r="WS4"/>
+      <c r="WT4"/>
+      <c r="WU4"/>
+      <c r="WV4"/>
+      <c r="WW4"/>
+      <c r="WX4"/>
+      <c r="WY4"/>
+      <c r="WZ4"/>
+      <c r="XA4"/>
+      <c r="XB4"/>
+      <c r="XC4"/>
+      <c r="XD4"/>
+      <c r="XE4"/>
+      <c r="XF4"/>
+      <c r="XG4"/>
+      <c r="XH4"/>
+      <c r="XI4"/>
+      <c r="XJ4"/>
+      <c r="XK4"/>
+      <c r="XL4"/>
+      <c r="XM4"/>
+      <c r="XN4"/>
+      <c r="XO4"/>
+      <c r="XP4"/>
+      <c r="XQ4"/>
+      <c r="XR4"/>
+      <c r="XS4"/>
+      <c r="XT4"/>
+      <c r="XU4"/>
+      <c r="XV4"/>
+      <c r="XW4"/>
+      <c r="XX4"/>
+      <c r="XY4"/>
+      <c r="XZ4"/>
+      <c r="YA4"/>
+      <c r="YB4"/>
+      <c r="YC4"/>
+      <c r="YD4"/>
+      <c r="YE4"/>
+      <c r="YF4"/>
+      <c r="YG4"/>
+      <c r="YH4"/>
+      <c r="YI4"/>
+      <c r="YJ4"/>
+      <c r="YK4"/>
+      <c r="YL4"/>
+      <c r="YM4"/>
+      <c r="YN4"/>
+      <c r="YO4"/>
+      <c r="YP4"/>
+      <c r="YQ4"/>
+      <c r="YR4"/>
+      <c r="YS4"/>
+      <c r="YT4"/>
+      <c r="YU4"/>
+      <c r="YV4"/>
+      <c r="YW4"/>
+      <c r="YX4"/>
+      <c r="YY4"/>
+      <c r="YZ4"/>
+      <c r="ZA4"/>
+      <c r="ZB4"/>
+      <c r="ZC4"/>
+      <c r="ZD4"/>
+      <c r="ZE4"/>
+      <c r="ZF4"/>
+      <c r="ZG4"/>
+      <c r="ZH4"/>
+      <c r="ZI4"/>
+      <c r="ZJ4"/>
+      <c r="ZK4"/>
+      <c r="ZL4"/>
+      <c r="ZM4"/>
+      <c r="ZN4"/>
+      <c r="ZO4"/>
+      <c r="ZP4"/>
+      <c r="ZQ4"/>
+      <c r="ZR4"/>
+      <c r="ZS4"/>
+      <c r="ZT4"/>
+      <c r="ZU4"/>
+      <c r="ZV4"/>
+      <c r="ZW4"/>
+      <c r="ZX4"/>
+      <c r="ZY4"/>
+      <c r="ZZ4"/>
+      <c r="AAA4"/>
+      <c r="AAB4"/>
+      <c r="AAC4"/>
+      <c r="AAD4"/>
+      <c r="AAE4"/>
+      <c r="AAF4"/>
+      <c r="AAG4"/>
+      <c r="AAH4"/>
+      <c r="AAI4"/>
+      <c r="AAJ4"/>
+      <c r="AAK4"/>
+      <c r="AAL4"/>
+      <c r="AAM4"/>
+      <c r="AAN4"/>
+      <c r="AAO4"/>
+      <c r="AAP4"/>
+      <c r="AAQ4"/>
+      <c r="AAR4"/>
+      <c r="AAS4"/>
+      <c r="AAT4"/>
+      <c r="AAU4"/>
+      <c r="AAV4"/>
+      <c r="AAW4"/>
+      <c r="AAX4"/>
+      <c r="AAY4"/>
+      <c r="AAZ4"/>
+      <c r="ABA4"/>
+      <c r="ABB4"/>
+      <c r="ABC4"/>
+      <c r="ABD4"/>
+      <c r="ABE4"/>
+      <c r="ABF4"/>
+      <c r="ABG4"/>
+      <c r="ABH4"/>
+      <c r="ABI4"/>
+      <c r="ABJ4"/>
+      <c r="ABK4"/>
+      <c r="ABL4"/>
+      <c r="ABM4"/>
+      <c r="ABN4"/>
+      <c r="ABO4"/>
+      <c r="ABP4"/>
+      <c r="ABQ4"/>
+      <c r="ABR4"/>
+      <c r="ABS4"/>
+      <c r="ABT4"/>
+      <c r="ABU4"/>
+      <c r="ABV4"/>
+      <c r="ABW4"/>
+      <c r="ABX4"/>
+      <c r="ABY4"/>
+      <c r="ABZ4"/>
+      <c r="ACA4"/>
+      <c r="ACB4"/>
+      <c r="ACC4"/>
+      <c r="ACD4"/>
+      <c r="ACE4"/>
+      <c r="ACF4"/>
+      <c r="ACG4"/>
+      <c r="ACH4"/>
+      <c r="ACI4"/>
+      <c r="ACJ4"/>
+      <c r="ACK4"/>
+      <c r="ACL4"/>
+      <c r="ACM4"/>
+      <c r="ACN4"/>
+      <c r="ACO4"/>
+      <c r="ACP4"/>
+      <c r="ACQ4"/>
+      <c r="ACR4"/>
+      <c r="ACS4"/>
+      <c r="ACT4"/>
+      <c r="ACU4"/>
+      <c r="ACV4"/>
+      <c r="ACW4"/>
+      <c r="ACX4"/>
+      <c r="ACY4"/>
+      <c r="ACZ4"/>
+      <c r="ADA4"/>
+      <c r="ADB4"/>
+      <c r="ADC4"/>
+      <c r="ADD4"/>
+      <c r="ADE4"/>
+      <c r="ADF4"/>
+      <c r="ADG4"/>
+      <c r="ADH4"/>
+      <c r="ADI4"/>
+      <c r="ADJ4"/>
+      <c r="ADK4"/>
+      <c r="ADL4"/>
+      <c r="ADM4"/>
+      <c r="ADN4"/>
+      <c r="ADO4"/>
+      <c r="ADP4"/>
+      <c r="ADQ4"/>
+      <c r="ADR4"/>
+      <c r="ADS4"/>
+      <c r="ADT4"/>
+      <c r="ADU4"/>
+      <c r="ADV4"/>
+      <c r="ADW4"/>
+      <c r="ADX4"/>
+      <c r="ADY4"/>
+      <c r="ADZ4"/>
+      <c r="AEA4"/>
+      <c r="AEB4"/>
+      <c r="AEC4"/>
+      <c r="AED4"/>
+      <c r="AEE4"/>
+      <c r="AEF4"/>
+      <c r="AEG4"/>
+      <c r="AEH4"/>
+      <c r="AEI4"/>
+      <c r="AEJ4"/>
+      <c r="AEK4"/>
+      <c r="AEL4"/>
+      <c r="AEM4"/>
+      <c r="AEN4"/>
+      <c r="AEO4"/>
+      <c r="AEP4"/>
+      <c r="AEQ4"/>
+      <c r="AER4"/>
+      <c r="AES4"/>
+      <c r="AET4"/>
+      <c r="AEU4"/>
+      <c r="AEV4"/>
+      <c r="AEW4"/>
+      <c r="AEX4"/>
+      <c r="AEY4"/>
+      <c r="AEZ4"/>
+      <c r="AFA4"/>
+      <c r="AFB4"/>
+      <c r="AFC4"/>
+      <c r="AFD4"/>
+      <c r="AFE4"/>
+      <c r="AFF4"/>
+      <c r="AFG4"/>
+      <c r="AFH4"/>
+      <c r="AFI4"/>
+      <c r="AFJ4"/>
+      <c r="AFK4"/>
+      <c r="AFL4"/>
+      <c r="AFM4"/>
+      <c r="AFN4"/>
+      <c r="AFO4"/>
+      <c r="AFP4"/>
+      <c r="AFQ4"/>
+      <c r="AFR4"/>
+      <c r="AFS4"/>
+      <c r="AFT4"/>
+      <c r="AFU4"/>
+      <c r="AFV4"/>
+      <c r="AFW4"/>
+      <c r="AFX4"/>
+      <c r="AFY4"/>
+      <c r="AFZ4"/>
+      <c r="AGA4"/>
+      <c r="AGB4"/>
+      <c r="AGC4"/>
+      <c r="AGD4"/>
+      <c r="AGE4"/>
+      <c r="AGF4"/>
+      <c r="AGG4"/>
+      <c r="AGH4"/>
+      <c r="AGI4"/>
+      <c r="AGJ4"/>
+      <c r="AGK4"/>
+      <c r="AGL4"/>
+      <c r="AGM4"/>
+      <c r="AGN4"/>
+      <c r="AGO4"/>
+      <c r="AGP4"/>
+      <c r="AGQ4"/>
+      <c r="AGR4"/>
+      <c r="AGS4"/>
+      <c r="AGT4"/>
+      <c r="AGU4"/>
+      <c r="AGV4"/>
+      <c r="AGW4"/>
+      <c r="AGX4"/>
+      <c r="AGY4"/>
+      <c r="AGZ4"/>
+      <c r="AHA4"/>
+      <c r="AHB4"/>
+      <c r="AHC4"/>
+      <c r="AHD4"/>
+      <c r="AHE4"/>
+      <c r="AHF4"/>
+      <c r="AHG4"/>
+      <c r="AHH4"/>
+      <c r="AHI4"/>
+      <c r="AHJ4"/>
+      <c r="AHK4"/>
+      <c r="AHL4"/>
+      <c r="AHM4"/>
+      <c r="AHN4"/>
+      <c r="AHO4"/>
+      <c r="AHP4"/>
+      <c r="AHQ4"/>
+      <c r="AHR4"/>
+      <c r="AHS4"/>
+      <c r="AHT4"/>
+      <c r="AHU4"/>
+      <c r="AHV4"/>
+      <c r="AHW4"/>
+      <c r="AHX4"/>
+      <c r="AHY4"/>
+      <c r="AHZ4"/>
+      <c r="AIA4"/>
+      <c r="AIB4"/>
+      <c r="AIC4"/>
+      <c r="AID4"/>
+      <c r="AIE4"/>
+      <c r="AIF4"/>
+      <c r="AIG4"/>
+      <c r="AIH4"/>
+      <c r="AII4"/>
+      <c r="AIJ4"/>
+      <c r="AIK4"/>
+      <c r="AIL4"/>
+      <c r="AIM4"/>
+      <c r="AIN4"/>
+      <c r="AIO4"/>
+      <c r="AIP4"/>
+      <c r="AIQ4"/>
+      <c r="AIR4"/>
+      <c r="AIS4"/>
+      <c r="AIT4"/>
+      <c r="AIU4"/>
+      <c r="AIV4"/>
+      <c r="AIW4"/>
+      <c r="AIX4"/>
+      <c r="AIY4"/>
+      <c r="AIZ4"/>
+      <c r="AJA4"/>
+      <c r="AJB4"/>
+      <c r="AJC4"/>
+      <c r="AJD4"/>
+      <c r="AJE4"/>
+      <c r="AJF4"/>
+      <c r="AJG4"/>
+      <c r="AJH4"/>
+      <c r="AJI4"/>
+      <c r="AJJ4"/>
+      <c r="AJK4"/>
+      <c r="AJL4"/>
+      <c r="AJM4"/>
+      <c r="AJN4"/>
+      <c r="AJO4"/>
+      <c r="AJP4"/>
+      <c r="AJQ4"/>
+      <c r="AJR4"/>
+      <c r="AJS4"/>
+      <c r="AJT4"/>
+      <c r="AJU4"/>
+      <c r="AJV4"/>
+      <c r="AJW4"/>
+      <c r="AJX4"/>
+      <c r="AJY4"/>
+      <c r="AJZ4"/>
+      <c r="AKA4"/>
+      <c r="AKB4"/>
+      <c r="AKC4"/>
+      <c r="AKD4"/>
+      <c r="AKE4"/>
+      <c r="AKF4"/>
+      <c r="AKG4"/>
+      <c r="AKH4"/>
+      <c r="AKI4"/>
+      <c r="AKJ4"/>
+      <c r="AKK4"/>
+      <c r="AKL4"/>
+      <c r="AKM4"/>
+      <c r="AKN4"/>
+      <c r="AKO4"/>
+      <c r="AKP4"/>
+      <c r="AKQ4"/>
+      <c r="AKR4"/>
+      <c r="AKS4"/>
+      <c r="AKT4"/>
+      <c r="AKU4"/>
+      <c r="AKV4"/>
+      <c r="AKW4"/>
+      <c r="AKX4"/>
+      <c r="AKY4"/>
+      <c r="AKZ4"/>
+      <c r="ALA4"/>
+      <c r="ALB4"/>
+      <c r="ALC4"/>
+      <c r="ALD4"/>
+      <c r="ALE4"/>
+      <c r="ALF4"/>
+      <c r="ALG4"/>
+      <c r="ALH4"/>
+      <c r="ALI4"/>
+      <c r="ALJ4"/>
+      <c r="ALK4"/>
+      <c r="ALL4"/>
+      <c r="ALM4"/>
+      <c r="ALN4"/>
+      <c r="ALO4"/>
+      <c r="ALP4"/>
+      <c r="ALQ4"/>
+      <c r="ALR4"/>
+      <c r="ALS4"/>
+      <c r="ALT4"/>
+      <c r="ALU4"/>
+      <c r="ALV4"/>
+      <c r="ALW4"/>
+      <c r="ALX4"/>
+      <c r="ALY4"/>
+      <c r="ALZ4"/>
+      <c r="AMA4"/>
+      <c r="AMB4"/>
+      <c r="AMC4"/>
+      <c r="AMD4"/>
+      <c r="AME4"/>
+      <c r="AMF4"/>
+      <c r="AMG4"/>
+      <c r="AMH4"/>
+      <c r="AMI4"/>
+      <c r="AMJ4"/>
+      <c r="AMK4"/>
+      <c r="AML4"/>
+      <c r="AMM4"/>
+      <c r="AMN4"/>
+      <c r="AMO4"/>
+      <c r="AMP4"/>
+      <c r="AMQ4"/>
+      <c r="AMR4"/>
+      <c r="AMS4"/>
+      <c r="AMT4"/>
+      <c r="AMU4"/>
+      <c r="AMV4"/>
+      <c r="AMW4"/>
+      <c r="AMX4"/>
+      <c r="AMY4"/>
+      <c r="AMZ4"/>
+      <c r="ANA4"/>
+      <c r="ANB4"/>
+      <c r="ANC4"/>
+      <c r="AND4"/>
+      <c r="ANE4"/>
+      <c r="ANF4"/>
+      <c r="ANG4"/>
+      <c r="ANH4"/>
+      <c r="ANI4"/>
+      <c r="ANJ4"/>
+      <c r="ANK4"/>
+      <c r="ANL4"/>
+      <c r="ANM4"/>
+      <c r="ANN4"/>
+      <c r="ANO4"/>
+      <c r="ANP4"/>
+      <c r="ANQ4"/>
+      <c r="ANR4"/>
+      <c r="ANS4"/>
+      <c r="ANT4"/>
+      <c r="ANU4"/>
+      <c r="ANV4"/>
+      <c r="ANW4"/>
+      <c r="ANX4"/>
+      <c r="ANY4"/>
+      <c r="ANZ4"/>
+      <c r="AOA4"/>
+      <c r="AOB4"/>
+      <c r="AOC4"/>
+      <c r="AOD4"/>
+      <c r="AOE4"/>
+      <c r="AOF4"/>
+      <c r="AOG4"/>
+      <c r="AOH4"/>
+      <c r="AOI4"/>
+      <c r="AOJ4"/>
+      <c r="AOK4"/>
+      <c r="AOL4"/>
+      <c r="AOM4"/>
+      <c r="AON4"/>
+      <c r="AOO4"/>
+      <c r="AOP4"/>
+      <c r="AOQ4"/>
+      <c r="AOR4"/>
+      <c r="AOS4"/>
+      <c r="AOT4"/>
+      <c r="AOU4"/>
+      <c r="AOV4"/>
+      <c r="AOW4"/>
+      <c r="AOX4"/>
+      <c r="AOY4"/>
+      <c r="AOZ4"/>
+      <c r="APA4"/>
+      <c r="APB4"/>
+      <c r="APC4"/>
+      <c r="APD4"/>
+      <c r="APE4"/>
+      <c r="APF4"/>
+      <c r="APG4"/>
+      <c r="APH4"/>
+      <c r="API4"/>
+      <c r="APJ4"/>
+      <c r="APK4"/>
+      <c r="APL4"/>
+      <c r="APM4"/>
+      <c r="APN4"/>
+      <c r="APO4"/>
+      <c r="APP4"/>
+      <c r="APQ4"/>
+      <c r="APR4"/>
+      <c r="APS4"/>
+      <c r="APT4"/>
+      <c r="APU4"/>
+      <c r="APV4"/>
+      <c r="APW4"/>
+      <c r="APX4"/>
+      <c r="APY4"/>
+      <c r="APZ4"/>
+      <c r="AQA4"/>
+      <c r="AQB4"/>
+      <c r="AQC4"/>
+      <c r="AQD4"/>
+      <c r="AQE4"/>
+      <c r="AQF4"/>
+      <c r="AQG4"/>
+      <c r="AQH4"/>
+      <c r="AQI4"/>
+      <c r="AQJ4"/>
+      <c r="AQK4"/>
+      <c r="AQL4"/>
+      <c r="AQM4"/>
+      <c r="AQN4"/>
+      <c r="AQO4"/>
+      <c r="AQP4"/>
+      <c r="AQQ4"/>
+      <c r="AQR4"/>
+      <c r="AQS4"/>
+      <c r="AQT4"/>
+      <c r="AQU4"/>
+      <c r="AQV4"/>
+      <c r="AQW4"/>
+      <c r="AQX4"/>
+      <c r="AQY4"/>
+      <c r="AQZ4"/>
+      <c r="ARA4"/>
+      <c r="ARB4"/>
+      <c r="ARC4"/>
+      <c r="ARD4"/>
+      <c r="ARE4"/>
+      <c r="ARF4"/>
+      <c r="ARG4"/>
+      <c r="ARH4"/>
+      <c r="ARI4"/>
+      <c r="ARJ4"/>
+      <c r="ARK4"/>
+      <c r="ARL4"/>
+      <c r="ARM4"/>
+      <c r="ARN4"/>
+      <c r="ARO4"/>
+      <c r="ARP4"/>
+      <c r="ARQ4"/>
+      <c r="ARR4"/>
+      <c r="ARS4"/>
+      <c r="ART4"/>
+      <c r="ARU4"/>
+      <c r="ARV4"/>
+      <c r="ARW4"/>
+      <c r="ARX4"/>
+      <c r="ARY4"/>
+      <c r="ARZ4"/>
+      <c r="ASA4"/>
+      <c r="ASB4"/>
+      <c r="ASC4"/>
+      <c r="ASD4"/>
+      <c r="ASE4"/>
+      <c r="ASF4"/>
+      <c r="ASG4"/>
+      <c r="ASH4"/>
+      <c r="ASI4"/>
+      <c r="ASJ4"/>
+      <c r="ASK4"/>
+      <c r="ASL4"/>
+      <c r="ASM4"/>
+      <c r="ASN4"/>
+      <c r="ASO4"/>
+      <c r="ASP4"/>
+      <c r="ASQ4"/>
+      <c r="ASR4"/>
+      <c r="ASS4"/>
+      <c r="AST4"/>
+      <c r="ASU4"/>
+      <c r="ASV4"/>
+      <c r="ASW4"/>
+      <c r="ASX4"/>
+      <c r="ASY4"/>
+      <c r="ASZ4"/>
+      <c r="ATA4"/>
+      <c r="ATB4"/>
+      <c r="ATC4"/>
+      <c r="ATD4"/>
+      <c r="ATE4"/>
+      <c r="ATF4"/>
+      <c r="ATG4"/>
+      <c r="ATH4"/>
+      <c r="ATI4"/>
+      <c r="ATJ4"/>
+      <c r="ATK4"/>
+      <c r="ATL4"/>
+      <c r="ATM4"/>
+      <c r="ATN4"/>
+      <c r="ATO4"/>
+      <c r="ATP4"/>
+      <c r="ATQ4"/>
+      <c r="ATR4"/>
+      <c r="ATS4"/>
+      <c r="ATT4"/>
+      <c r="ATU4"/>
+      <c r="ATV4"/>
+      <c r="ATW4"/>
+      <c r="ATX4"/>
+      <c r="ATY4"/>
+      <c r="ATZ4"/>
+      <c r="AUA4"/>
+      <c r="AUB4"/>
+      <c r="AUC4"/>
+      <c r="AUD4"/>
+      <c r="AUE4"/>
+      <c r="AUF4"/>
+      <c r="AUG4"/>
+      <c r="AUH4"/>
+      <c r="AUI4"/>
+      <c r="AUJ4"/>
+      <c r="AUK4"/>
+      <c r="AUL4"/>
+      <c r="AUM4"/>
+      <c r="AUN4"/>
+      <c r="AUO4"/>
+      <c r="AUP4"/>
+      <c r="AUQ4"/>
+      <c r="AUR4"/>
+      <c r="AUS4"/>
+      <c r="AUT4"/>
+      <c r="AUU4"/>
+      <c r="AUV4"/>
+      <c r="AUW4"/>
+      <c r="AUX4"/>
+      <c r="AUY4"/>
+      <c r="AUZ4"/>
+      <c r="AVA4"/>
+      <c r="AVB4"/>
+      <c r="AVC4"/>
+      <c r="AVD4"/>
+      <c r="AVE4"/>
+      <c r="AVF4"/>
+      <c r="AVG4"/>
+      <c r="AVH4"/>
+      <c r="AVI4"/>
+      <c r="AVJ4"/>
+      <c r="AVK4"/>
+      <c r="AVL4"/>
+      <c r="AVM4"/>
+      <c r="AVN4"/>
+      <c r="AVO4"/>
+      <c r="AVP4"/>
+      <c r="AVQ4"/>
+      <c r="AVR4"/>
+      <c r="AVS4"/>
+      <c r="AVT4"/>
+      <c r="AVU4"/>
+      <c r="AVV4"/>
+      <c r="AVW4"/>
+      <c r="AVX4"/>
+      <c r="AVY4"/>
+      <c r="AVZ4"/>
+      <c r="AWA4"/>
+      <c r="AWB4"/>
+      <c r="AWC4"/>
+      <c r="AWD4"/>
+      <c r="AWE4"/>
+      <c r="AWF4"/>
+      <c r="AWG4"/>
+      <c r="AWH4"/>
+      <c r="AWI4"/>
+      <c r="AWJ4"/>
+      <c r="AWK4"/>
+      <c r="AWL4"/>
+      <c r="AWM4"/>
+      <c r="AWN4"/>
+      <c r="AWO4"/>
+      <c r="AWP4"/>
+      <c r="AWQ4"/>
+      <c r="AWR4"/>
+      <c r="AWS4"/>
+      <c r="AWT4"/>
+      <c r="AWU4"/>
+      <c r="AWV4"/>
+      <c r="AWW4"/>
+      <c r="AWX4"/>
+      <c r="AWY4"/>
+      <c r="AWZ4"/>
+      <c r="AXA4"/>
+      <c r="AXB4"/>
+      <c r="AXC4"/>
+      <c r="AXD4"/>
+      <c r="AXE4"/>
+      <c r="AXF4"/>
+      <c r="AXG4"/>
+      <c r="AXH4"/>
+      <c r="AXI4"/>
+      <c r="AXJ4"/>
+      <c r="AXK4"/>
+      <c r="AXL4"/>
+      <c r="AXM4"/>
+      <c r="AXN4"/>
+      <c r="AXO4"/>
+      <c r="AXP4"/>
+      <c r="AXQ4"/>
+      <c r="AXR4"/>
+      <c r="AXS4"/>
+      <c r="AXT4"/>
+      <c r="AXU4"/>
+      <c r="AXV4"/>
+      <c r="AXW4"/>
+      <c r="AXX4"/>
+      <c r="AXY4"/>
+      <c r="AXZ4"/>
+      <c r="AYA4"/>
+      <c r="AYB4"/>
+      <c r="AYC4"/>
+      <c r="AYD4"/>
+      <c r="AYE4"/>
+      <c r="AYF4"/>
+      <c r="AYG4"/>
+      <c r="AYH4"/>
+      <c r="AYI4"/>
+      <c r="AYJ4"/>
+      <c r="AYK4"/>
+      <c r="AYL4"/>
+      <c r="AYM4"/>
+      <c r="AYN4"/>
+      <c r="AYO4"/>
+      <c r="AYP4"/>
+      <c r="AYQ4"/>
+      <c r="AYR4"/>
+      <c r="AYS4"/>
+      <c r="AYT4"/>
+      <c r="AYU4"/>
+      <c r="AYV4"/>
+      <c r="AYW4"/>
+      <c r="AYX4"/>
+      <c r="AYY4"/>
+      <c r="AYZ4"/>
+      <c r="AZA4"/>
+      <c r="AZB4"/>
+      <c r="AZC4"/>
+      <c r="AZD4"/>
+      <c r="AZE4"/>
+      <c r="AZF4"/>
+      <c r="AZG4"/>
+      <c r="AZH4"/>
+      <c r="AZI4"/>
+      <c r="AZJ4"/>
+      <c r="AZK4"/>
+      <c r="AZL4"/>
+      <c r="AZM4"/>
+      <c r="AZN4"/>
+      <c r="AZO4"/>
+      <c r="AZP4"/>
+      <c r="AZQ4"/>
+      <c r="AZR4"/>
+      <c r="AZS4"/>
+      <c r="AZT4"/>
+      <c r="AZU4"/>
+      <c r="AZV4"/>
+      <c r="AZW4"/>
+      <c r="AZX4"/>
+      <c r="AZY4"/>
+      <c r="AZZ4"/>
+      <c r="BAA4"/>
+      <c r="BAB4"/>
+      <c r="BAC4"/>
+      <c r="BAD4"/>
+      <c r="BAE4"/>
+      <c r="BAF4"/>
+      <c r="BAG4"/>
+      <c r="BAH4"/>
+      <c r="BAI4"/>
+      <c r="BAJ4"/>
+      <c r="BAK4"/>
+      <c r="BAL4"/>
+      <c r="BAM4"/>
+      <c r="BAN4"/>
+      <c r="BAO4"/>
+      <c r="BAP4"/>
+      <c r="BAQ4"/>
+      <c r="BAR4"/>
+      <c r="BAS4"/>
+      <c r="BAT4"/>
+      <c r="BAU4"/>
+      <c r="BAV4"/>
+      <c r="BAW4"/>
+      <c r="BAX4"/>
+      <c r="BAY4"/>
+      <c r="BAZ4"/>
+      <c r="BBA4"/>
+      <c r="BBB4"/>
+      <c r="BBC4"/>
+      <c r="BBD4"/>
+      <c r="BBE4"/>
+      <c r="BBF4"/>
+      <c r="BBG4"/>
+      <c r="BBH4"/>
+      <c r="BBI4"/>
+      <c r="BBJ4"/>
+      <c r="BBK4"/>
+      <c r="BBL4"/>
+      <c r="BBM4"/>
+      <c r="BBN4"/>
+      <c r="BBO4"/>
+      <c r="BBP4"/>
+      <c r="BBQ4"/>
+      <c r="BBR4"/>
+      <c r="BBS4"/>
+      <c r="BBT4"/>
+      <c r="BBU4"/>
+      <c r="BBV4"/>
+      <c r="BBW4"/>
+      <c r="BBX4"/>
+      <c r="BBY4"/>
+      <c r="BBZ4"/>
+      <c r="BCA4"/>
+      <c r="BCB4"/>
+      <c r="BCC4"/>
+      <c r="BCD4"/>
+      <c r="BCE4"/>
+      <c r="BCF4"/>
+      <c r="BCG4"/>
+      <c r="BCH4"/>
+      <c r="BCI4"/>
+      <c r="BCJ4"/>
+      <c r="BCK4"/>
+      <c r="BCL4"/>
+      <c r="BCM4"/>
+      <c r="BCN4"/>
+      <c r="BCO4"/>
+      <c r="BCP4"/>
+      <c r="BCQ4"/>
+      <c r="BCR4"/>
+      <c r="BCS4"/>
+      <c r="BCT4"/>
+      <c r="BCU4"/>
+      <c r="BCV4"/>
+      <c r="BCW4"/>
+      <c r="BCX4"/>
+      <c r="BCY4"/>
+      <c r="BCZ4"/>
+      <c r="BDA4"/>
+      <c r="BDB4"/>
+      <c r="BDC4"/>
+      <c r="BDD4"/>
+      <c r="BDE4"/>
+      <c r="BDF4"/>
+      <c r="BDG4"/>
+      <c r="BDH4"/>
+      <c r="BDI4"/>
+      <c r="BDJ4"/>
+      <c r="BDK4"/>
+      <c r="BDL4"/>
+      <c r="BDM4"/>
+      <c r="BDN4"/>
+      <c r="BDO4"/>
+      <c r="BDP4"/>
+      <c r="BDQ4"/>
+      <c r="BDR4"/>
+      <c r="BDS4"/>
+      <c r="BDT4"/>
+      <c r="BDU4"/>
+      <c r="BDV4"/>
+      <c r="BDW4"/>
+      <c r="BDX4"/>
+      <c r="BDY4"/>
+      <c r="BDZ4"/>
+      <c r="BEA4"/>
+      <c r="BEB4"/>
+      <c r="BEC4"/>
+      <c r="BED4"/>
+      <c r="BEE4"/>
+      <c r="BEF4"/>
+      <c r="BEG4"/>
+      <c r="BEH4"/>
+      <c r="BEI4"/>
+      <c r="BEJ4"/>
+      <c r="BEK4"/>
+      <c r="BEL4"/>
+      <c r="BEM4"/>
+      <c r="BEN4"/>
+      <c r="BEO4"/>
+      <c r="BEP4"/>
+      <c r="BEQ4"/>
+      <c r="BER4"/>
+      <c r="BES4"/>
+      <c r="BET4"/>
+      <c r="BEU4"/>
+      <c r="BEV4"/>
+      <c r="BEW4"/>
+      <c r="BEX4"/>
+      <c r="BEY4"/>
+      <c r="BEZ4"/>
+      <c r="BFA4"/>
+      <c r="BFB4"/>
+      <c r="BFC4"/>
+      <c r="BFD4"/>
+      <c r="BFE4"/>
+      <c r="BFF4"/>
+      <c r="BFG4"/>
+      <c r="BFH4"/>
+      <c r="BFI4"/>
+      <c r="BFJ4"/>
+      <c r="BFK4"/>
+      <c r="BFL4"/>
+      <c r="BFM4"/>
+      <c r="BFN4"/>
+      <c r="BFO4"/>
+      <c r="BFP4"/>
+      <c r="BFQ4"/>
+      <c r="BFR4"/>
+      <c r="BFS4"/>
+      <c r="BFT4"/>
+      <c r="BFU4"/>
+      <c r="BFV4"/>
+      <c r="BFW4"/>
+      <c r="BFX4"/>
+      <c r="BFY4"/>
+      <c r="BFZ4"/>
+      <c r="BGA4"/>
+      <c r="BGB4"/>
+      <c r="BGC4"/>
+      <c r="BGD4"/>
+      <c r="BGE4"/>
+      <c r="BGF4"/>
+      <c r="BGG4"/>
+      <c r="BGH4"/>
+      <c r="BGI4"/>
+      <c r="BGJ4"/>
+      <c r="BGK4"/>
+      <c r="BGL4"/>
+      <c r="BGM4"/>
+      <c r="BGN4"/>
+      <c r="BGO4"/>
+      <c r="BGP4"/>
+      <c r="BGQ4"/>
+      <c r="BGR4"/>
+      <c r="BGS4"/>
+      <c r="BGT4"/>
+      <c r="BGU4"/>
+      <c r="BGV4"/>
+      <c r="BGW4"/>
+      <c r="BGX4"/>
+      <c r="BGY4"/>
+      <c r="BGZ4"/>
+      <c r="BHA4"/>
+      <c r="BHB4"/>
+      <c r="BHC4"/>
+      <c r="BHD4"/>
+      <c r="BHE4"/>
+      <c r="BHF4"/>
+      <c r="BHG4"/>
+      <c r="BHH4"/>
+      <c r="BHI4"/>
+      <c r="BHJ4"/>
+      <c r="BHK4"/>
+      <c r="BHL4"/>
+      <c r="BHM4"/>
+      <c r="BHN4"/>
+      <c r="BHO4"/>
+      <c r="BHP4"/>
+      <c r="BHQ4"/>
+      <c r="BHR4"/>
+      <c r="BHS4"/>
+      <c r="BHT4"/>
+      <c r="BHU4"/>
+      <c r="BHV4"/>
+      <c r="BHW4"/>
+      <c r="BHX4"/>
+      <c r="BHY4"/>
+      <c r="BHZ4"/>
+      <c r="BIA4"/>
+      <c r="BIB4"/>
+      <c r="BIC4"/>
+      <c r="BID4"/>
+      <c r="BIE4"/>
+      <c r="BIF4"/>
+      <c r="BIG4"/>
+      <c r="BIH4"/>
+      <c r="BII4"/>
+      <c r="BIJ4"/>
+      <c r="BIK4"/>
+      <c r="BIL4"/>
+      <c r="BIM4"/>
+      <c r="BIN4"/>
+      <c r="BIO4"/>
+      <c r="BIP4"/>
+      <c r="BIQ4"/>
+      <c r="BIR4"/>
+      <c r="BIS4"/>
+      <c r="BIT4"/>
+      <c r="BIU4"/>
+      <c r="BIV4"/>
+      <c r="BIW4"/>
+      <c r="BIX4"/>
+      <c r="BIY4"/>
+      <c r="BIZ4"/>
+      <c r="BJA4"/>
+      <c r="BJB4"/>
+      <c r="BJC4"/>
+      <c r="BJD4"/>
+      <c r="BJE4"/>
+      <c r="BJF4"/>
+      <c r="BJG4"/>
+      <c r="BJH4"/>
+      <c r="BJI4"/>
+      <c r="BJJ4"/>
+      <c r="BJK4"/>
+      <c r="BJL4"/>
+      <c r="BJM4"/>
+      <c r="BJN4"/>
+      <c r="BJO4"/>
+      <c r="BJP4"/>
+      <c r="BJQ4"/>
+      <c r="BJR4"/>
+      <c r="BJS4"/>
+      <c r="BJT4"/>
+      <c r="BJU4"/>
+      <c r="BJV4"/>
+      <c r="BJW4"/>
+      <c r="BJX4"/>
+      <c r="BJY4"/>
+      <c r="BJZ4"/>
+      <c r="BKA4"/>
+      <c r="BKB4"/>
+      <c r="BKC4"/>
+      <c r="BKD4"/>
+      <c r="BKE4"/>
+      <c r="BKF4"/>
+      <c r="BKG4"/>
+      <c r="BKH4"/>
+      <c r="BKI4"/>
+      <c r="BKJ4"/>
+      <c r="BKK4"/>
+      <c r="BKL4"/>
+      <c r="BKM4"/>
+      <c r="BKN4"/>
+      <c r="BKO4"/>
+      <c r="BKP4"/>
+      <c r="BKQ4"/>
+      <c r="BKR4"/>
+      <c r="BKS4"/>
+      <c r="BKT4"/>
+      <c r="BKU4"/>
+      <c r="BKV4"/>
+      <c r="BKW4"/>
+      <c r="BKX4"/>
+      <c r="BKY4"/>
+      <c r="BKZ4"/>
+      <c r="BLA4"/>
+      <c r="BLB4"/>
+      <c r="BLC4"/>
+      <c r="BLD4"/>
+      <c r="BLE4"/>
+      <c r="BLF4"/>
+      <c r="BLG4"/>
+      <c r="BLH4"/>
+      <c r="BLI4"/>
+      <c r="BLJ4"/>
+      <c r="BLK4"/>
+      <c r="BLL4"/>
+      <c r="BLM4"/>
+      <c r="BLN4"/>
+      <c r="BLO4"/>
+      <c r="BLP4"/>
+      <c r="BLQ4"/>
+      <c r="BLR4"/>
+      <c r="BLS4"/>
+      <c r="BLT4"/>
+      <c r="BLU4"/>
+      <c r="BLV4"/>
+      <c r="BLW4"/>
+      <c r="BLX4"/>
+      <c r="BLY4"/>
+      <c r="BLZ4"/>
+      <c r="BMA4"/>
+      <c r="BMB4"/>
+      <c r="BMC4"/>
+      <c r="BMD4"/>
+      <c r="BME4"/>
+      <c r="BMF4"/>
+      <c r="BMG4"/>
+      <c r="BMH4"/>
+      <c r="BMI4"/>
+      <c r="BMJ4"/>
+      <c r="BMK4"/>
+      <c r="BML4"/>
+      <c r="BMM4"/>
+      <c r="BMN4"/>
+      <c r="BMO4"/>
+      <c r="BMP4"/>
+      <c r="BMQ4"/>
+      <c r="BMR4"/>
+      <c r="BMS4"/>
+      <c r="BMT4"/>
+      <c r="BMU4"/>
+      <c r="BMV4"/>
+      <c r="BMW4"/>
+      <c r="BMX4"/>
+      <c r="BMY4"/>
+      <c r="BMZ4"/>
+      <c r="BNA4"/>
+      <c r="BNB4"/>
+      <c r="BNC4"/>
+      <c r="BND4"/>
+      <c r="BNE4"/>
+      <c r="BNF4"/>
+      <c r="BNG4"/>
+      <c r="BNH4"/>
+      <c r="BNI4"/>
+      <c r="BNJ4"/>
+      <c r="BNK4"/>
+      <c r="BNL4"/>
+      <c r="BNM4"/>
+      <c r="BNN4"/>
+      <c r="BNO4"/>
+      <c r="BNP4"/>
+      <c r="BNQ4"/>
+      <c r="BNR4"/>
+      <c r="BNS4"/>
+      <c r="BNT4"/>
+      <c r="BNU4"/>
+      <c r="BNV4"/>
+      <c r="BNW4"/>
+      <c r="BNX4"/>
+      <c r="BNY4"/>
+      <c r="BNZ4"/>
+      <c r="BOA4"/>
+      <c r="BOB4"/>
+      <c r="BOC4"/>
+      <c r="BOD4"/>
+      <c r="BOE4"/>
+      <c r="BOF4"/>
+      <c r="BOG4"/>
+      <c r="BOH4"/>
+      <c r="BOI4"/>
+      <c r="BOJ4"/>
+      <c r="BOK4"/>
+      <c r="BOL4"/>
+      <c r="BOM4"/>
+      <c r="BON4"/>
+      <c r="BOO4"/>
+      <c r="BOP4"/>
+      <c r="BOQ4"/>
+      <c r="BOR4"/>
+      <c r="BOS4"/>
+      <c r="BOT4"/>
+      <c r="BOU4"/>
+      <c r="BOV4"/>
+      <c r="BOW4"/>
+      <c r="BOX4"/>
+      <c r="BOY4"/>
+      <c r="BOZ4"/>
+      <c r="BPA4"/>
+      <c r="BPB4"/>
+      <c r="BPC4"/>
+      <c r="BPD4"/>
+      <c r="BPE4"/>
+      <c r="BPF4"/>
+      <c r="BPG4"/>
+      <c r="BPH4"/>
+      <c r="BPI4"/>
+      <c r="BPJ4"/>
+      <c r="BPK4"/>
+      <c r="BPL4"/>
+      <c r="BPM4"/>
+      <c r="BPN4"/>
+      <c r="BPO4"/>
+      <c r="BPP4"/>
+      <c r="BPQ4"/>
+      <c r="BPR4"/>
+      <c r="BPS4"/>
+      <c r="BPT4"/>
+      <c r="BPU4"/>
+      <c r="BPV4"/>
+      <c r="BPW4"/>
+      <c r="BPX4"/>
+      <c r="BPY4"/>
+      <c r="BPZ4"/>
+      <c r="BQA4"/>
+      <c r="BQB4"/>
+      <c r="BQC4"/>
+      <c r="BQD4"/>
+      <c r="BQE4"/>
+      <c r="BQF4"/>
+      <c r="BQG4"/>
+      <c r="BQH4"/>
+      <c r="BQI4"/>
+      <c r="BQJ4"/>
+      <c r="BQK4"/>
+      <c r="BQL4"/>
+      <c r="BQM4"/>
+      <c r="BQN4"/>
+      <c r="BQO4"/>
+      <c r="BQP4"/>
+      <c r="BQQ4"/>
+      <c r="BQR4"/>
+      <c r="BQS4"/>
+      <c r="BQT4"/>
+      <c r="BQU4"/>
+      <c r="BQV4"/>
+      <c r="BQW4"/>
+      <c r="BQX4"/>
+      <c r="BQY4"/>
+      <c r="BQZ4"/>
+      <c r="BRA4"/>
+      <c r="BRB4"/>
+      <c r="BRC4"/>
+      <c r="BRD4"/>
+      <c r="BRE4"/>
+      <c r="BRF4"/>
+      <c r="BRG4"/>
+      <c r="BRH4"/>
+      <c r="BRI4"/>
+      <c r="BRJ4"/>
+      <c r="BRK4"/>
+      <c r="BRL4"/>
+      <c r="BRM4"/>
+      <c r="BRN4"/>
+      <c r="BRO4"/>
+      <c r="BRP4"/>
+      <c r="BRQ4"/>
+      <c r="BRR4"/>
+      <c r="BRS4"/>
+      <c r="BRT4"/>
+      <c r="BRU4"/>
+      <c r="BRV4"/>
+      <c r="BRW4"/>
+      <c r="BRX4"/>
+      <c r="BRY4"/>
+      <c r="BRZ4"/>
+      <c r="BSA4"/>
+      <c r="BSB4"/>
+      <c r="BSC4"/>
+      <c r="BSD4"/>
+      <c r="BSE4"/>
+      <c r="BSF4"/>
+      <c r="BSG4"/>
+      <c r="BSH4"/>
+      <c r="BSI4"/>
+      <c r="BSJ4"/>
+      <c r="BSK4"/>
+      <c r="BSL4"/>
+      <c r="BSM4"/>
+      <c r="BSN4"/>
+      <c r="BSO4"/>
+      <c r="BSP4"/>
+      <c r="BSQ4"/>
+      <c r="BSR4"/>
+      <c r="BSS4"/>
+      <c r="BST4"/>
+      <c r="BSU4"/>
+      <c r="BSV4"/>
+      <c r="BSW4"/>
+      <c r="BSX4"/>
+      <c r="BSY4"/>
+      <c r="BSZ4"/>
+      <c r="BTA4"/>
+      <c r="BTB4"/>
+      <c r="BTC4"/>
+      <c r="BTD4"/>
+      <c r="BTE4"/>
+      <c r="BTF4"/>
+      <c r="BTG4"/>
+      <c r="BTH4"/>
+      <c r="BTI4"/>
+      <c r="BTJ4"/>
+      <c r="BTK4"/>
+      <c r="BTL4"/>
+      <c r="BTM4"/>
+      <c r="BTN4"/>
+      <c r="BTO4"/>
+      <c r="BTP4"/>
+      <c r="BTQ4"/>
+      <c r="BTR4"/>
+      <c r="BTS4"/>
+      <c r="BTT4"/>
+      <c r="BTU4"/>
+      <c r="BTV4"/>
+      <c r="BTW4"/>
+      <c r="BTX4"/>
+      <c r="BTY4"/>
+      <c r="BTZ4"/>
+      <c r="BUA4"/>
+      <c r="BUB4"/>
+      <c r="BUC4"/>
+      <c r="BUD4"/>
+      <c r="BUE4"/>
+      <c r="BUF4"/>
+      <c r="BUG4"/>
+      <c r="BUH4"/>
+      <c r="BUI4"/>
+      <c r="BUJ4"/>
+      <c r="BUK4"/>
+      <c r="BUL4"/>
+      <c r="BUM4"/>
+      <c r="BUN4"/>
+      <c r="BUO4"/>
+      <c r="BUP4"/>
+      <c r="BUQ4"/>
+      <c r="BUR4"/>
+      <c r="BUS4"/>
+      <c r="BUT4"/>
+      <c r="BUU4"/>
+      <c r="BUV4"/>
+      <c r="BUW4"/>
+      <c r="BUX4"/>
+      <c r="BUY4"/>
+      <c r="BUZ4"/>
+      <c r="BVA4"/>
+      <c r="BVB4"/>
+      <c r="BVC4"/>
+      <c r="BVD4"/>
+      <c r="BVE4"/>
+      <c r="BVF4"/>
+      <c r="BVG4"/>
+      <c r="BVH4"/>
+      <c r="BVI4"/>
+      <c r="BVJ4"/>
+      <c r="BVK4"/>
+      <c r="BVL4"/>
+      <c r="BVM4"/>
+      <c r="BVN4"/>
+      <c r="BVO4"/>
+      <c r="BVP4"/>
+      <c r="BVQ4"/>
+      <c r="BVR4"/>
+      <c r="BVS4"/>
+      <c r="BVT4"/>
+      <c r="BVU4"/>
+      <c r="BVV4"/>
+      <c r="BVW4"/>
+      <c r="BVX4"/>
+      <c r="BVY4"/>
+      <c r="BVZ4"/>
+      <c r="BWA4"/>
+      <c r="BWB4"/>
+      <c r="BWC4"/>
+      <c r="BWD4"/>
+      <c r="BWE4"/>
+      <c r="BWF4"/>
+      <c r="BWG4"/>
+      <c r="BWH4"/>
+      <c r="BWI4"/>
+      <c r="BWJ4"/>
+      <c r="BWK4"/>
+      <c r="BWL4"/>
+      <c r="BWM4"/>
+      <c r="BWN4"/>
+      <c r="BWO4"/>
+      <c r="BWP4"/>
+      <c r="BWQ4"/>
+      <c r="BWR4"/>
+      <c r="BWS4"/>
+      <c r="BWT4"/>
+      <c r="BWU4"/>
+      <c r="BWV4"/>
+      <c r="BWW4"/>
+      <c r="BWX4"/>
+      <c r="BWY4"/>
+      <c r="BWZ4"/>
+      <c r="BXA4"/>
+      <c r="BXB4"/>
+      <c r="BXC4"/>
+      <c r="BXD4"/>
+      <c r="BXE4"/>
+      <c r="BXF4"/>
+      <c r="BXG4"/>
+      <c r="BXH4"/>
+      <c r="BXI4"/>
+      <c r="BXJ4"/>
+      <c r="BXK4"/>
+      <c r="BXL4"/>
+      <c r="BXM4"/>
+      <c r="BXN4"/>
+      <c r="BXO4"/>
+      <c r="BXP4"/>
+      <c r="BXQ4"/>
+      <c r="BXR4"/>
+      <c r="BXS4"/>
+      <c r="BXT4"/>
+      <c r="BXU4"/>
+      <c r="BXV4"/>
+      <c r="BXW4"/>
+      <c r="BXX4"/>
+      <c r="BXY4"/>
+      <c r="BXZ4"/>
+      <c r="BYA4"/>
+      <c r="BYB4"/>
+      <c r="BYC4"/>
+      <c r="BYD4"/>
+      <c r="BYE4"/>
+      <c r="BYF4"/>
+      <c r="BYG4"/>
+      <c r="BYH4"/>
+      <c r="BYI4"/>
+      <c r="BYJ4"/>
+      <c r="BYK4"/>
+      <c r="BYL4"/>
+      <c r="BYM4"/>
+      <c r="BYN4"/>
+      <c r="BYO4"/>
+      <c r="BYP4"/>
+      <c r="BYQ4"/>
+      <c r="BYR4"/>
+      <c r="BYS4"/>
+      <c r="BYT4"/>
+      <c r="BYU4"/>
+      <c r="BYV4"/>
+      <c r="BYW4"/>
+      <c r="BYX4"/>
+      <c r="BYY4"/>
+      <c r="BYZ4"/>
+      <c r="BZA4"/>
+      <c r="BZB4"/>
+      <c r="BZC4"/>
+      <c r="BZD4"/>
+      <c r="BZE4"/>
+      <c r="BZF4"/>
+      <c r="BZG4"/>
+      <c r="BZH4"/>
+      <c r="BZI4"/>
+      <c r="BZJ4"/>
+      <c r="BZK4"/>
+      <c r="BZL4"/>
+      <c r="BZM4"/>
+      <c r="BZN4"/>
+      <c r="BZO4"/>
+      <c r="BZP4"/>
+      <c r="BZQ4"/>
+      <c r="BZR4"/>
+      <c r="BZS4"/>
+      <c r="BZT4"/>
+      <c r="BZU4"/>
+      <c r="BZV4"/>
+      <c r="BZW4"/>
+      <c r="BZX4"/>
+      <c r="BZY4"/>
+      <c r="BZZ4"/>
+      <c r="CAA4"/>
+      <c r="CAB4"/>
+      <c r="CAC4"/>
+      <c r="CAD4"/>
+      <c r="CAE4"/>
+      <c r="CAF4"/>
+      <c r="CAG4"/>
+      <c r="CAH4"/>
+      <c r="CAI4"/>
+      <c r="CAJ4"/>
+      <c r="CAK4"/>
+      <c r="CAL4"/>
+      <c r="CAM4"/>
+      <c r="CAN4"/>
+      <c r="CAO4"/>
+      <c r="CAP4"/>
+      <c r="CAQ4"/>
+      <c r="CAR4"/>
+      <c r="CAS4"/>
+      <c r="CAT4"/>
+      <c r="CAU4"/>
+      <c r="CAV4"/>
+      <c r="CAW4"/>
+      <c r="CAX4"/>
+      <c r="CAY4"/>
+      <c r="CAZ4"/>
+      <c r="CBA4"/>
+      <c r="CBB4"/>
+      <c r="CBC4"/>
+      <c r="CBD4"/>
+      <c r="CBE4"/>
+      <c r="CBF4"/>
+      <c r="CBG4"/>
+      <c r="CBH4"/>
+      <c r="CBI4"/>
+      <c r="CBJ4"/>
+      <c r="CBK4"/>
+      <c r="CBL4"/>
+      <c r="CBM4"/>
+      <c r="CBN4"/>
+      <c r="CBO4"/>
+      <c r="CBP4"/>
+      <c r="CBQ4"/>
+      <c r="CBR4"/>
+      <c r="CBS4"/>
+      <c r="CBT4"/>
+      <c r="CBU4"/>
+      <c r="CBV4"/>
+      <c r="CBW4"/>
+      <c r="CBX4"/>
+      <c r="CBY4"/>
+      <c r="CBZ4"/>
+      <c r="CCA4"/>
+      <c r="CCB4"/>
+      <c r="CCC4"/>
+      <c r="CCD4"/>
+      <c r="CCE4"/>
+      <c r="CCF4"/>
+      <c r="CCG4"/>
+      <c r="CCH4"/>
+      <c r="CCI4"/>
+      <c r="CCJ4"/>
+      <c r="CCK4"/>
+      <c r="CCL4"/>
+      <c r="CCM4"/>
+      <c r="CCN4"/>
+      <c r="CCO4"/>
+      <c r="CCP4"/>
+      <c r="CCQ4"/>
+      <c r="CCR4"/>
+      <c r="CCS4"/>
+      <c r="CCT4"/>
+      <c r="CCU4"/>
+      <c r="CCV4"/>
+      <c r="CCW4"/>
+      <c r="CCX4"/>
+      <c r="CCY4"/>
+      <c r="CCZ4"/>
+      <c r="CDA4"/>
+      <c r="CDB4"/>
+      <c r="CDC4"/>
+      <c r="CDD4"/>
+      <c r="CDE4"/>
+      <c r="CDF4"/>
+      <c r="CDG4"/>
+      <c r="CDH4"/>
+      <c r="CDI4"/>
+      <c r="CDJ4"/>
+      <c r="CDK4"/>
+      <c r="CDL4"/>
+      <c r="CDM4"/>
+      <c r="CDN4"/>
+      <c r="CDO4"/>
+      <c r="CDP4"/>
+      <c r="CDQ4"/>
+      <c r="CDR4"/>
+      <c r="CDS4"/>
+      <c r="CDT4"/>
+      <c r="CDU4"/>
+      <c r="CDV4"/>
+      <c r="CDW4"/>
+      <c r="CDX4"/>
+      <c r="CDY4"/>
+      <c r="CDZ4"/>
+      <c r="CEA4"/>
+      <c r="CEB4"/>
+      <c r="CEC4"/>
+      <c r="CED4"/>
+      <c r="CEE4"/>
+      <c r="CEF4"/>
+      <c r="CEG4"/>
+      <c r="CEH4"/>
+      <c r="CEI4"/>
+      <c r="CEJ4"/>
+      <c r="CEK4"/>
+      <c r="CEL4"/>
+      <c r="CEM4"/>
+      <c r="CEN4"/>
+      <c r="CEO4"/>
+      <c r="CEP4"/>
+      <c r="CEQ4"/>
+      <c r="CER4"/>
+      <c r="CES4"/>
+      <c r="CET4"/>
+      <c r="CEU4"/>
+      <c r="CEV4"/>
+      <c r="CEW4"/>
+      <c r="CEX4"/>
+      <c r="CEY4"/>
+      <c r="CEZ4"/>
+      <c r="CFA4"/>
+      <c r="CFB4"/>
+      <c r="CFC4"/>
+      <c r="CFD4"/>
+      <c r="CFE4"/>
+      <c r="CFF4"/>
+      <c r="CFG4"/>
+      <c r="CFH4"/>
+      <c r="CFI4"/>
+      <c r="CFJ4"/>
+      <c r="CFK4"/>
+      <c r="CFL4"/>
+      <c r="CFM4"/>
+      <c r="CFN4"/>
+      <c r="CFO4"/>
+      <c r="CFP4"/>
+      <c r="CFQ4"/>
+      <c r="CFR4"/>
+      <c r="CFS4"/>
+      <c r="CFT4"/>
+      <c r="CFU4"/>
+      <c r="CFV4"/>
+      <c r="CFW4"/>
+      <c r="CFX4"/>
+      <c r="CFY4"/>
+      <c r="CFZ4"/>
+      <c r="CGA4"/>
+      <c r="CGB4"/>
+      <c r="CGC4"/>
+      <c r="CGD4"/>
+      <c r="CGE4"/>
+      <c r="CGF4"/>
+      <c r="CGG4"/>
+      <c r="CGH4"/>
+      <c r="CGI4"/>
+      <c r="CGJ4"/>
+      <c r="CGK4"/>
+      <c r="CGL4"/>
+      <c r="CGM4"/>
+      <c r="CGN4"/>
+      <c r="CGO4"/>
+      <c r="CGP4"/>
+      <c r="CGQ4"/>
+      <c r="CGR4"/>
+      <c r="CGS4"/>
+      <c r="CGT4"/>
+      <c r="CGU4"/>
+      <c r="CGV4"/>
+      <c r="CGW4"/>
+      <c r="CGX4"/>
+      <c r="CGY4"/>
+      <c r="CGZ4"/>
+      <c r="CHA4"/>
+      <c r="CHB4"/>
+      <c r="CHC4"/>
+      <c r="CHD4"/>
+      <c r="CHE4"/>
+      <c r="CHF4"/>
+      <c r="CHG4"/>
+      <c r="CHH4"/>
+      <c r="CHI4"/>
+      <c r="CHJ4"/>
+      <c r="CHK4"/>
+      <c r="CHL4"/>
+      <c r="CHM4"/>
+      <c r="CHN4"/>
+      <c r="CHO4"/>
+      <c r="CHP4"/>
+      <c r="CHQ4"/>
+      <c r="CHR4"/>
+      <c r="CHS4"/>
+      <c r="CHT4"/>
+      <c r="CHU4"/>
+      <c r="CHV4"/>
+      <c r="CHW4"/>
+      <c r="CHX4"/>
+      <c r="CHY4"/>
+      <c r="CHZ4"/>
+      <c r="CIA4"/>
+      <c r="CIB4"/>
+      <c r="CIC4"/>
+      <c r="CID4"/>
+      <c r="CIE4"/>
+      <c r="CIF4"/>
+      <c r="CIG4"/>
+      <c r="CIH4"/>
+      <c r="CII4"/>
+      <c r="CIJ4"/>
+      <c r="CIK4"/>
+      <c r="CIL4"/>
+      <c r="CIM4"/>
+      <c r="CIN4"/>
+      <c r="CIO4"/>
+      <c r="CIP4"/>
+      <c r="CIQ4"/>
+      <c r="CIR4"/>
+      <c r="CIS4"/>
+      <c r="CIT4"/>
+      <c r="CIU4"/>
+      <c r="CIV4"/>
+      <c r="CIW4"/>
+      <c r="CIX4"/>
+      <c r="CIY4"/>
+      <c r="CIZ4"/>
+      <c r="CJA4"/>
+      <c r="CJB4"/>
+      <c r="CJC4"/>
+      <c r="CJD4"/>
+      <c r="CJE4"/>
+      <c r="CJF4"/>
+      <c r="CJG4"/>
+      <c r="CJH4"/>
+      <c r="CJI4"/>
+      <c r="CJJ4"/>
+      <c r="CJK4"/>
+      <c r="CJL4"/>
+      <c r="CJM4"/>
+      <c r="CJN4"/>
+      <c r="CJO4"/>
+      <c r="CJP4"/>
+      <c r="CJQ4"/>
+      <c r="CJR4"/>
+      <c r="CJS4"/>
+      <c r="CJT4"/>
+      <c r="CJU4"/>
+      <c r="CJV4"/>
+      <c r="CJW4"/>
+      <c r="CJX4"/>
+      <c r="CJY4"/>
+      <c r="CJZ4"/>
+      <c r="CKA4"/>
+      <c r="CKB4"/>
+      <c r="CKC4"/>
+      <c r="CKD4"/>
+      <c r="CKE4"/>
+      <c r="CKF4"/>
+      <c r="CKG4"/>
+      <c r="CKH4"/>
+      <c r="CKI4"/>
+      <c r="CKJ4"/>
+      <c r="CKK4"/>
+      <c r="CKL4"/>
+      <c r="CKM4"/>
+      <c r="CKN4"/>
+      <c r="CKO4"/>
+      <c r="CKP4"/>
+      <c r="CKQ4"/>
+      <c r="CKR4"/>
+      <c r="CKS4"/>
+      <c r="CKT4"/>
+      <c r="CKU4"/>
+      <c r="CKV4"/>
+      <c r="CKW4"/>
+      <c r="CKX4"/>
+      <c r="CKY4"/>
+      <c r="CKZ4"/>
+      <c r="CLA4"/>
+      <c r="CLB4"/>
+      <c r="CLC4"/>
+      <c r="CLD4"/>
+      <c r="CLE4"/>
+      <c r="CLF4"/>
+      <c r="CLG4"/>
+      <c r="CLH4"/>
+      <c r="CLI4"/>
+      <c r="CLJ4"/>
+      <c r="CLK4"/>
+      <c r="CLL4"/>
+      <c r="CLM4"/>
+      <c r="CLN4"/>
+      <c r="CLO4"/>
+      <c r="CLP4"/>
+      <c r="CLQ4"/>
+      <c r="CLR4"/>
+      <c r="CLS4"/>
+      <c r="CLT4"/>
+      <c r="CLU4"/>
+      <c r="CLV4"/>
+      <c r="CLW4"/>
+      <c r="CLX4"/>
+      <c r="CLY4"/>
+      <c r="CLZ4"/>
+      <c r="CMA4"/>
+      <c r="CMB4"/>
+      <c r="CMC4"/>
+      <c r="CMD4"/>
+      <c r="CME4"/>
+      <c r="CMF4"/>
+      <c r="CMG4"/>
+      <c r="CMH4"/>
+      <c r="CMI4"/>
+      <c r="CMJ4"/>
+      <c r="CMK4"/>
+      <c r="CML4"/>
+      <c r="CMM4"/>
+      <c r="CMN4"/>
+      <c r="CMO4"/>
+      <c r="CMP4"/>
+      <c r="CMQ4"/>
+      <c r="CMR4"/>
+      <c r="CMS4"/>
+      <c r="CMT4"/>
+      <c r="CMU4"/>
+      <c r="CMV4"/>
+      <c r="CMW4"/>
+      <c r="CMX4"/>
+      <c r="CMY4"/>
+      <c r="CMZ4"/>
+      <c r="CNA4"/>
+      <c r="CNB4"/>
+      <c r="CNC4"/>
+      <c r="CND4"/>
+      <c r="CNE4"/>
+      <c r="CNF4"/>
+      <c r="CNG4"/>
+      <c r="CNH4"/>
+      <c r="CNI4"/>
+      <c r="CNJ4"/>
+      <c r="CNK4"/>
+      <c r="CNL4"/>
+      <c r="CNM4"/>
+      <c r="CNN4"/>
+      <c r="CNO4"/>
+      <c r="CNP4"/>
+      <c r="CNQ4"/>
+      <c r="CNR4"/>
+      <c r="CNS4"/>
+      <c r="CNT4"/>
+      <c r="CNU4"/>
+      <c r="CNV4"/>
+      <c r="CNW4"/>
+      <c r="CNX4"/>
+      <c r="CNY4"/>
+      <c r="CNZ4"/>
+      <c r="COA4"/>
+      <c r="COB4"/>
+      <c r="COC4"/>
+      <c r="COD4"/>
+      <c r="COE4"/>
+      <c r="COF4"/>
+      <c r="COG4"/>
+      <c r="COH4"/>
+      <c r="COI4"/>
+      <c r="COJ4"/>
+      <c r="COK4"/>
+      <c r="COL4"/>
+      <c r="COM4"/>
+      <c r="CON4"/>
+      <c r="COO4"/>
+      <c r="COP4"/>
+      <c r="COQ4"/>
+      <c r="COR4"/>
+      <c r="COS4"/>
+      <c r="COT4"/>
+      <c r="COU4"/>
+      <c r="COV4"/>
+      <c r="COW4"/>
+      <c r="COX4"/>
+      <c r="COY4"/>
+      <c r="COZ4"/>
+      <c r="CPA4"/>
+      <c r="CPB4"/>
+      <c r="CPC4"/>
+      <c r="CPD4"/>
+      <c r="CPE4"/>
+      <c r="CPF4"/>
+      <c r="CPG4"/>
+      <c r="CPH4"/>
+      <c r="CPI4"/>
+      <c r="CPJ4"/>
+      <c r="CPK4"/>
+      <c r="CPL4"/>
+      <c r="CPM4"/>
+      <c r="CPN4"/>
+      <c r="CPO4"/>
+      <c r="CPP4"/>
+      <c r="CPQ4"/>
+      <c r="CPR4"/>
+      <c r="CPS4"/>
+      <c r="CPT4"/>
+      <c r="CPU4"/>
+      <c r="CPV4"/>
+      <c r="CPW4"/>
+      <c r="CPX4"/>
+      <c r="CPY4"/>
+      <c r="CPZ4"/>
+      <c r="CQA4"/>
+      <c r="CQB4"/>
+      <c r="CQC4"/>
+      <c r="CQD4"/>
+      <c r="CQE4"/>
+      <c r="CQF4"/>
+      <c r="CQG4"/>
+      <c r="CQH4"/>
+      <c r="CQI4"/>
+      <c r="CQJ4"/>
+      <c r="CQK4"/>
+      <c r="CQL4"/>
+      <c r="CQM4"/>
+      <c r="CQN4"/>
+      <c r="CQO4"/>
+      <c r="CQP4"/>
+      <c r="CQQ4"/>
+      <c r="CQR4"/>
+      <c r="CQS4"/>
+      <c r="CQT4"/>
+      <c r="CQU4"/>
+      <c r="CQV4"/>
+      <c r="CQW4"/>
+      <c r="CQX4"/>
+      <c r="CQY4"/>
+      <c r="CQZ4"/>
+      <c r="CRA4"/>
+      <c r="CRB4"/>
+      <c r="CRC4"/>
+      <c r="CRD4"/>
+      <c r="CRE4"/>
+      <c r="CRF4"/>
+      <c r="CRG4"/>
+      <c r="CRH4"/>
+      <c r="CRI4"/>
+      <c r="CRJ4"/>
+      <c r="CRK4"/>
+      <c r="CRL4"/>
+      <c r="CRM4"/>
+      <c r="CRN4"/>
+      <c r="CRO4"/>
+      <c r="CRP4"/>
+      <c r="CRQ4"/>
+      <c r="CRR4"/>
+      <c r="CRS4"/>
+      <c r="CRT4"/>
+      <c r="CRU4"/>
+      <c r="CRV4"/>
+      <c r="CRW4"/>
+      <c r="CRX4"/>
+      <c r="CRY4"/>
+      <c r="CRZ4"/>
+      <c r="CSA4"/>
+      <c r="CSB4"/>
+      <c r="CSC4"/>
+      <c r="CSD4"/>
+      <c r="CSE4"/>
+      <c r="CSF4"/>
+      <c r="CSG4"/>
+      <c r="CSH4"/>
+      <c r="CSI4"/>
+      <c r="CSJ4"/>
+      <c r="CSK4"/>
+      <c r="CSL4"/>
+      <c r="CSM4"/>
+      <c r="CSN4"/>
+      <c r="CSO4"/>
+      <c r="CSP4"/>
+      <c r="CSQ4"/>
+      <c r="CSR4"/>
+      <c r="CSS4"/>
+      <c r="CST4"/>
+      <c r="CSU4"/>
+      <c r="CSV4"/>
+      <c r="CSW4"/>
+      <c r="CSX4"/>
+      <c r="CSY4"/>
     </row>
-    <row r="5" spans="1:1024" ht="51.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2547" ht="51.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>1070</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="32" t="s">
         <v>20</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -882,98 +3411,5171 @@
       <c r="D5" s="7">
         <v>1092</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="H5" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="I5" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="J5" s="12" t="s">
+      <c r="J5" s="11" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:1024" s="23" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A6" s="18">
+    <row r="6" spans="1:2547" s="22" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A6" s="17">
         <v>1071</v>
       </c>
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="21">
+      <c r="D6" s="20">
         <v>1093</v>
       </c>
-      <c r="E6" s="22" t="s">
+      <c r="E6" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="22" t="s">
+      <c r="F6" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="22" t="s">
+      <c r="G6" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="22" t="s">
+      <c r="H6" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="I6" s="32" t="s">
+      <c r="I6" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="J6" s="33" t="s">
+      <c r="J6" s="31" t="s">
         <v>23</v>
       </c>
+      <c r="K6"/>
+      <c r="L6"/>
+      <c r="M6"/>
+      <c r="N6"/>
+      <c r="O6"/>
+      <c r="P6"/>
+      <c r="Q6"/>
+      <c r="R6"/>
+      <c r="S6"/>
+      <c r="T6"/>
+      <c r="U6"/>
+      <c r="V6"/>
+      <c r="W6"/>
+      <c r="X6"/>
+      <c r="Y6"/>
+      <c r="Z6"/>
+      <c r="AA6"/>
+      <c r="AB6"/>
+      <c r="AC6"/>
+      <c r="AD6"/>
+      <c r="AE6"/>
+      <c r="AF6"/>
+      <c r="AG6"/>
+      <c r="AH6"/>
+      <c r="AI6"/>
+      <c r="AJ6"/>
+      <c r="AK6"/>
+      <c r="AL6"/>
+      <c r="AM6"/>
+      <c r="AN6"/>
+      <c r="AO6"/>
+      <c r="AP6"/>
+      <c r="AQ6"/>
+      <c r="AR6"/>
+      <c r="AS6"/>
+      <c r="AT6"/>
+      <c r="AU6"/>
+      <c r="AV6"/>
+      <c r="AW6"/>
+      <c r="AX6"/>
+      <c r="AY6"/>
+      <c r="AZ6"/>
+      <c r="BA6"/>
+      <c r="BB6"/>
+      <c r="BC6"/>
+      <c r="BD6"/>
+      <c r="BE6"/>
+      <c r="BF6"/>
+      <c r="BG6"/>
+      <c r="BH6"/>
+      <c r="BI6"/>
+      <c r="BJ6"/>
+      <c r="BK6"/>
+      <c r="BL6"/>
+      <c r="BM6"/>
+      <c r="BN6"/>
+      <c r="BO6"/>
+      <c r="BP6"/>
+      <c r="BQ6"/>
+      <c r="BR6"/>
+      <c r="BS6"/>
+      <c r="BT6"/>
+      <c r="BU6"/>
+      <c r="BV6"/>
+      <c r="BW6"/>
+      <c r="BX6"/>
+      <c r="BY6"/>
+      <c r="BZ6"/>
+      <c r="CA6"/>
+      <c r="CB6"/>
+      <c r="CC6"/>
+      <c r="CD6"/>
+      <c r="CE6"/>
+      <c r="CF6"/>
+      <c r="CG6"/>
+      <c r="CH6"/>
+      <c r="CI6"/>
+      <c r="CJ6"/>
+      <c r="CK6"/>
+      <c r="CL6"/>
+      <c r="CM6"/>
+      <c r="CN6"/>
+      <c r="CO6"/>
+      <c r="CP6"/>
+      <c r="CQ6"/>
+      <c r="CR6"/>
+      <c r="CS6"/>
+      <c r="CT6"/>
+      <c r="CU6"/>
+      <c r="CV6"/>
+      <c r="CW6"/>
+      <c r="CX6"/>
+      <c r="CY6"/>
+      <c r="CZ6"/>
+      <c r="DA6"/>
+      <c r="DB6"/>
+      <c r="DC6"/>
+      <c r="DD6"/>
+      <c r="DE6"/>
+      <c r="DF6"/>
+      <c r="DG6"/>
+      <c r="DH6"/>
+      <c r="DI6"/>
+      <c r="DJ6"/>
+      <c r="DK6"/>
+      <c r="DL6"/>
+      <c r="DM6"/>
+      <c r="DN6"/>
+      <c r="DO6"/>
+      <c r="DP6"/>
+      <c r="DQ6"/>
+      <c r="DR6"/>
+      <c r="DS6"/>
+      <c r="DT6"/>
+      <c r="DU6"/>
+      <c r="DV6"/>
+      <c r="DW6"/>
+      <c r="DX6"/>
+      <c r="DY6"/>
+      <c r="DZ6"/>
+      <c r="EA6"/>
+      <c r="EB6"/>
+      <c r="EC6"/>
+      <c r="ED6"/>
+      <c r="EE6"/>
+      <c r="EF6"/>
+      <c r="EG6"/>
+      <c r="EH6"/>
+      <c r="EI6"/>
+      <c r="EJ6"/>
+      <c r="EK6"/>
+      <c r="EL6"/>
+      <c r="EM6"/>
+      <c r="EN6"/>
+      <c r="EO6"/>
+      <c r="EP6"/>
+      <c r="EQ6"/>
+      <c r="ER6"/>
+      <c r="ES6"/>
+      <c r="ET6"/>
+      <c r="EU6"/>
+      <c r="EV6"/>
+      <c r="EW6"/>
+      <c r="EX6"/>
+      <c r="EY6"/>
+      <c r="EZ6"/>
+      <c r="FA6"/>
+      <c r="FB6"/>
+      <c r="FC6"/>
+      <c r="FD6"/>
+      <c r="FE6"/>
+      <c r="FF6"/>
+      <c r="FG6"/>
+      <c r="FH6"/>
+      <c r="FI6"/>
+      <c r="FJ6"/>
+      <c r="FK6"/>
+      <c r="FL6"/>
+      <c r="FM6"/>
+      <c r="FN6"/>
+      <c r="FO6"/>
+      <c r="FP6"/>
+      <c r="FQ6"/>
+      <c r="FR6"/>
+      <c r="FS6"/>
+      <c r="FT6"/>
+      <c r="FU6"/>
+      <c r="FV6"/>
+      <c r="FW6"/>
+      <c r="FX6"/>
+      <c r="FY6"/>
+      <c r="FZ6"/>
+      <c r="GA6"/>
+      <c r="GB6"/>
+      <c r="GC6"/>
+      <c r="GD6"/>
+      <c r="GE6"/>
+      <c r="GF6"/>
+      <c r="GG6"/>
+      <c r="GH6"/>
+      <c r="GI6"/>
+      <c r="GJ6"/>
+      <c r="GK6"/>
+      <c r="GL6"/>
+      <c r="GM6"/>
+      <c r="GN6"/>
+      <c r="GO6"/>
+      <c r="GP6"/>
+      <c r="GQ6"/>
+      <c r="GR6"/>
+      <c r="GS6"/>
+      <c r="GT6"/>
+      <c r="GU6"/>
+      <c r="GV6"/>
+      <c r="GW6"/>
+      <c r="GX6"/>
+      <c r="GY6"/>
+      <c r="GZ6"/>
+      <c r="HA6"/>
+      <c r="HB6"/>
+      <c r="HC6"/>
+      <c r="HD6"/>
+      <c r="HE6"/>
+      <c r="HF6"/>
+      <c r="HG6"/>
+      <c r="HH6"/>
+      <c r="HI6"/>
+      <c r="HJ6"/>
+      <c r="HK6"/>
+      <c r="HL6"/>
+      <c r="HM6"/>
+      <c r="HN6"/>
+      <c r="HO6"/>
+      <c r="HP6"/>
+      <c r="HQ6"/>
+      <c r="HR6"/>
+      <c r="HS6"/>
+      <c r="HT6"/>
+      <c r="HU6"/>
+      <c r="HV6"/>
+      <c r="HW6"/>
+      <c r="HX6"/>
+      <c r="HY6"/>
+      <c r="HZ6"/>
+      <c r="IA6"/>
+      <c r="IB6"/>
+      <c r="IC6"/>
+      <c r="ID6"/>
+      <c r="IE6"/>
+      <c r="IF6"/>
+      <c r="IG6"/>
+      <c r="IH6"/>
+      <c r="II6"/>
+      <c r="IJ6"/>
+      <c r="IK6"/>
+      <c r="IL6"/>
+      <c r="IM6"/>
+      <c r="IN6"/>
+      <c r="IO6"/>
+      <c r="IP6"/>
+      <c r="IQ6"/>
+      <c r="IR6"/>
+      <c r="IS6"/>
+      <c r="IT6"/>
+      <c r="IU6"/>
+      <c r="IV6"/>
+      <c r="IW6"/>
+      <c r="IX6"/>
+      <c r="IY6"/>
+      <c r="IZ6"/>
+      <c r="JA6"/>
+      <c r="JB6"/>
+      <c r="JC6"/>
+      <c r="JD6"/>
+      <c r="JE6"/>
+      <c r="JF6"/>
+      <c r="JG6"/>
+      <c r="JH6"/>
+      <c r="JI6"/>
+      <c r="JJ6"/>
+      <c r="JK6"/>
+      <c r="JL6"/>
+      <c r="JM6"/>
+      <c r="JN6"/>
+      <c r="JO6"/>
+      <c r="JP6"/>
+      <c r="JQ6"/>
+      <c r="JR6"/>
+      <c r="JS6"/>
+      <c r="JT6"/>
+      <c r="JU6"/>
+      <c r="JV6"/>
+      <c r="JW6"/>
+      <c r="JX6"/>
+      <c r="JY6"/>
+      <c r="JZ6"/>
+      <c r="KA6"/>
+      <c r="KB6"/>
+      <c r="KC6"/>
+      <c r="KD6"/>
+      <c r="KE6"/>
+      <c r="KF6"/>
+      <c r="KG6"/>
+      <c r="KH6"/>
+      <c r="KI6"/>
+      <c r="KJ6"/>
+      <c r="KK6"/>
+      <c r="KL6"/>
+      <c r="KM6"/>
+      <c r="KN6"/>
+      <c r="KO6"/>
+      <c r="KP6"/>
+      <c r="KQ6"/>
+      <c r="KR6"/>
+      <c r="KS6"/>
+      <c r="KT6"/>
+      <c r="KU6"/>
+      <c r="KV6"/>
+      <c r="KW6"/>
+      <c r="KX6"/>
+      <c r="KY6"/>
+      <c r="KZ6"/>
+      <c r="LA6"/>
+      <c r="LB6"/>
+      <c r="LC6"/>
+      <c r="LD6"/>
+      <c r="LE6"/>
+      <c r="LF6"/>
+      <c r="LG6"/>
+      <c r="LH6"/>
+      <c r="LI6"/>
+      <c r="LJ6"/>
+      <c r="LK6"/>
+      <c r="LL6"/>
+      <c r="LM6"/>
+      <c r="LN6"/>
+      <c r="LO6"/>
+      <c r="LP6"/>
+      <c r="LQ6"/>
+      <c r="LR6"/>
+      <c r="LS6"/>
+      <c r="LT6"/>
+      <c r="LU6"/>
+      <c r="LV6"/>
+      <c r="LW6"/>
+      <c r="LX6"/>
+      <c r="LY6"/>
+      <c r="LZ6"/>
+      <c r="MA6"/>
+      <c r="MB6"/>
+      <c r="MC6"/>
+      <c r="MD6"/>
+      <c r="ME6"/>
+      <c r="MF6"/>
+      <c r="MG6"/>
+      <c r="MH6"/>
+      <c r="MI6"/>
+      <c r="MJ6"/>
+      <c r="MK6"/>
+      <c r="ML6"/>
+      <c r="MM6"/>
+      <c r="MN6"/>
+      <c r="MO6"/>
+      <c r="MP6"/>
+      <c r="MQ6"/>
+      <c r="MR6"/>
+      <c r="MS6"/>
+      <c r="MT6"/>
+      <c r="MU6"/>
+      <c r="MV6"/>
+      <c r="MW6"/>
+      <c r="MX6"/>
+      <c r="MY6"/>
+      <c r="MZ6"/>
+      <c r="NA6"/>
+      <c r="NB6"/>
+      <c r="NC6"/>
+      <c r="ND6"/>
+      <c r="NE6"/>
+      <c r="NF6"/>
+      <c r="NG6"/>
+      <c r="NH6"/>
+      <c r="NI6"/>
+      <c r="NJ6"/>
+      <c r="NK6"/>
+      <c r="NL6"/>
+      <c r="NM6"/>
+      <c r="NN6"/>
+      <c r="NO6"/>
+      <c r="NP6"/>
+      <c r="NQ6"/>
+      <c r="NR6"/>
+      <c r="NS6"/>
+      <c r="NT6"/>
+      <c r="NU6"/>
+      <c r="NV6"/>
+      <c r="NW6"/>
+      <c r="NX6"/>
+      <c r="NY6"/>
+      <c r="NZ6"/>
+      <c r="OA6"/>
+      <c r="OB6"/>
+      <c r="OC6"/>
+      <c r="OD6"/>
+      <c r="OE6"/>
+      <c r="OF6"/>
+      <c r="OG6"/>
+      <c r="OH6"/>
+      <c r="OI6"/>
+      <c r="OJ6"/>
+      <c r="OK6"/>
+      <c r="OL6"/>
+      <c r="OM6"/>
+      <c r="ON6"/>
+      <c r="OO6"/>
+      <c r="OP6"/>
+      <c r="OQ6"/>
+      <c r="OR6"/>
+      <c r="OS6"/>
+      <c r="OT6"/>
+      <c r="OU6"/>
+      <c r="OV6"/>
+      <c r="OW6"/>
+      <c r="OX6"/>
+      <c r="OY6"/>
+      <c r="OZ6"/>
+      <c r="PA6"/>
+      <c r="PB6"/>
+      <c r="PC6"/>
+      <c r="PD6"/>
+      <c r="PE6"/>
+      <c r="PF6"/>
+      <c r="PG6"/>
+      <c r="PH6"/>
+      <c r="PI6"/>
+      <c r="PJ6"/>
+      <c r="PK6"/>
+      <c r="PL6"/>
+      <c r="PM6"/>
+      <c r="PN6"/>
+      <c r="PO6"/>
+      <c r="PP6"/>
+      <c r="PQ6"/>
+      <c r="PR6"/>
+      <c r="PS6"/>
+      <c r="PT6"/>
+      <c r="PU6"/>
+      <c r="PV6"/>
+      <c r="PW6"/>
+      <c r="PX6"/>
+      <c r="PY6"/>
+      <c r="PZ6"/>
+      <c r="QA6"/>
+      <c r="QB6"/>
+      <c r="QC6"/>
+      <c r="QD6"/>
+      <c r="QE6"/>
+      <c r="QF6"/>
+      <c r="QG6"/>
+      <c r="QH6"/>
+      <c r="QI6"/>
+      <c r="QJ6"/>
+      <c r="QK6"/>
+      <c r="QL6"/>
+      <c r="QM6"/>
+      <c r="QN6"/>
+      <c r="QO6"/>
+      <c r="QP6"/>
+      <c r="QQ6"/>
+      <c r="QR6"/>
+      <c r="QS6"/>
+      <c r="QT6"/>
+      <c r="QU6"/>
+      <c r="QV6"/>
+      <c r="QW6"/>
+      <c r="QX6"/>
+      <c r="QY6"/>
+      <c r="QZ6"/>
+      <c r="RA6"/>
+      <c r="RB6"/>
+      <c r="RC6"/>
+      <c r="RD6"/>
+      <c r="RE6"/>
+      <c r="RF6"/>
+      <c r="RG6"/>
+      <c r="RH6"/>
+      <c r="RI6"/>
+      <c r="RJ6"/>
+      <c r="RK6"/>
+      <c r="RL6"/>
+      <c r="RM6"/>
+      <c r="RN6"/>
+      <c r="RO6"/>
+      <c r="RP6"/>
+      <c r="RQ6"/>
+      <c r="RR6"/>
+      <c r="RS6"/>
+      <c r="RT6"/>
+      <c r="RU6"/>
+      <c r="RV6"/>
+      <c r="RW6"/>
+      <c r="RX6"/>
+      <c r="RY6"/>
+      <c r="RZ6"/>
+      <c r="SA6"/>
+      <c r="SB6"/>
+      <c r="SC6"/>
+      <c r="SD6"/>
+      <c r="SE6"/>
+      <c r="SF6"/>
+      <c r="SG6"/>
+      <c r="SH6"/>
+      <c r="SI6"/>
+      <c r="SJ6"/>
+      <c r="SK6"/>
+      <c r="SL6"/>
+      <c r="SM6"/>
+      <c r="SN6"/>
+      <c r="SO6"/>
+      <c r="SP6"/>
+      <c r="SQ6"/>
+      <c r="SR6"/>
+      <c r="SS6"/>
+      <c r="ST6"/>
+      <c r="SU6"/>
+      <c r="SV6"/>
+      <c r="SW6"/>
+      <c r="SX6"/>
+      <c r="SY6"/>
+      <c r="SZ6"/>
+      <c r="TA6"/>
+      <c r="TB6"/>
+      <c r="TC6"/>
+      <c r="TD6"/>
+      <c r="TE6"/>
+      <c r="TF6"/>
+      <c r="TG6"/>
+      <c r="TH6"/>
+      <c r="TI6"/>
+      <c r="TJ6"/>
+      <c r="TK6"/>
+      <c r="TL6"/>
+      <c r="TM6"/>
+      <c r="TN6"/>
+      <c r="TO6"/>
+      <c r="TP6"/>
+      <c r="TQ6"/>
+      <c r="TR6"/>
+      <c r="TS6"/>
+      <c r="TT6"/>
+      <c r="TU6"/>
+      <c r="TV6"/>
+      <c r="TW6"/>
+      <c r="TX6"/>
+      <c r="TY6"/>
+      <c r="TZ6"/>
+      <c r="UA6"/>
+      <c r="UB6"/>
+      <c r="UC6"/>
+      <c r="UD6"/>
+      <c r="UE6"/>
+      <c r="UF6"/>
+      <c r="UG6"/>
+      <c r="UH6"/>
+      <c r="UI6"/>
+      <c r="UJ6"/>
+      <c r="UK6"/>
+      <c r="UL6"/>
+      <c r="UM6"/>
+      <c r="UN6"/>
+      <c r="UO6"/>
+      <c r="UP6"/>
+      <c r="UQ6"/>
+      <c r="UR6"/>
+      <c r="US6"/>
+      <c r="UT6"/>
+      <c r="UU6"/>
+      <c r="UV6"/>
+      <c r="UW6"/>
+      <c r="UX6"/>
+      <c r="UY6"/>
+      <c r="UZ6"/>
+      <c r="VA6"/>
+      <c r="VB6"/>
+      <c r="VC6"/>
+      <c r="VD6"/>
+      <c r="VE6"/>
+      <c r="VF6"/>
+      <c r="VG6"/>
+      <c r="VH6"/>
+      <c r="VI6"/>
+      <c r="VJ6"/>
+      <c r="VK6"/>
+      <c r="VL6"/>
+      <c r="VM6"/>
+      <c r="VN6"/>
+      <c r="VO6"/>
+      <c r="VP6"/>
+      <c r="VQ6"/>
+      <c r="VR6"/>
+      <c r="VS6"/>
+      <c r="VT6"/>
+      <c r="VU6"/>
+      <c r="VV6"/>
+      <c r="VW6"/>
+      <c r="VX6"/>
+      <c r="VY6"/>
+      <c r="VZ6"/>
+      <c r="WA6"/>
+      <c r="WB6"/>
+      <c r="WC6"/>
+      <c r="WD6"/>
+      <c r="WE6"/>
+      <c r="WF6"/>
+      <c r="WG6"/>
+      <c r="WH6"/>
+      <c r="WI6"/>
+      <c r="WJ6"/>
+      <c r="WK6"/>
+      <c r="WL6"/>
+      <c r="WM6"/>
+      <c r="WN6"/>
+      <c r="WO6"/>
+      <c r="WP6"/>
+      <c r="WQ6"/>
+      <c r="WR6"/>
+      <c r="WS6"/>
+      <c r="WT6"/>
+      <c r="WU6"/>
+      <c r="WV6"/>
+      <c r="WW6"/>
+      <c r="WX6"/>
+      <c r="WY6"/>
+      <c r="WZ6"/>
+      <c r="XA6"/>
+      <c r="XB6"/>
+      <c r="XC6"/>
+      <c r="XD6"/>
+      <c r="XE6"/>
+      <c r="XF6"/>
+      <c r="XG6"/>
+      <c r="XH6"/>
+      <c r="XI6"/>
+      <c r="XJ6"/>
+      <c r="XK6"/>
+      <c r="XL6"/>
+      <c r="XM6"/>
+      <c r="XN6"/>
+      <c r="XO6"/>
+      <c r="XP6"/>
+      <c r="XQ6"/>
+      <c r="XR6"/>
+      <c r="XS6"/>
+      <c r="XT6"/>
+      <c r="XU6"/>
+      <c r="XV6"/>
+      <c r="XW6"/>
+      <c r="XX6"/>
+      <c r="XY6"/>
+      <c r="XZ6"/>
+      <c r="YA6"/>
+      <c r="YB6"/>
+      <c r="YC6"/>
+      <c r="YD6"/>
+      <c r="YE6"/>
+      <c r="YF6"/>
+      <c r="YG6"/>
+      <c r="YH6"/>
+      <c r="YI6"/>
+      <c r="YJ6"/>
+      <c r="YK6"/>
+      <c r="YL6"/>
+      <c r="YM6"/>
+      <c r="YN6"/>
+      <c r="YO6"/>
+      <c r="YP6"/>
+      <c r="YQ6"/>
+      <c r="YR6"/>
+      <c r="YS6"/>
+      <c r="YT6"/>
+      <c r="YU6"/>
+      <c r="YV6"/>
+      <c r="YW6"/>
+      <c r="YX6"/>
+      <c r="YY6"/>
+      <c r="YZ6"/>
+      <c r="ZA6"/>
+      <c r="ZB6"/>
+      <c r="ZC6"/>
+      <c r="ZD6"/>
+      <c r="ZE6"/>
+      <c r="ZF6"/>
+      <c r="ZG6"/>
+      <c r="ZH6"/>
+      <c r="ZI6"/>
+      <c r="ZJ6"/>
+      <c r="ZK6"/>
+      <c r="ZL6"/>
+      <c r="ZM6"/>
+      <c r="ZN6"/>
+      <c r="ZO6"/>
+      <c r="ZP6"/>
+      <c r="ZQ6"/>
+      <c r="ZR6"/>
+      <c r="ZS6"/>
+      <c r="ZT6"/>
+      <c r="ZU6"/>
+      <c r="ZV6"/>
+      <c r="ZW6"/>
+      <c r="ZX6"/>
+      <c r="ZY6"/>
+      <c r="ZZ6"/>
+      <c r="AAA6"/>
+      <c r="AAB6"/>
+      <c r="AAC6"/>
+      <c r="AAD6"/>
+      <c r="AAE6"/>
+      <c r="AAF6"/>
+      <c r="AAG6"/>
+      <c r="AAH6"/>
+      <c r="AAI6"/>
+      <c r="AAJ6"/>
+      <c r="AAK6"/>
+      <c r="AAL6"/>
+      <c r="AAM6"/>
+      <c r="AAN6"/>
+      <c r="AAO6"/>
+      <c r="AAP6"/>
+      <c r="AAQ6"/>
+      <c r="AAR6"/>
+      <c r="AAS6"/>
+      <c r="AAT6"/>
+      <c r="AAU6"/>
+      <c r="AAV6"/>
+      <c r="AAW6"/>
+      <c r="AAX6"/>
+      <c r="AAY6"/>
+      <c r="AAZ6"/>
+      <c r="ABA6"/>
+      <c r="ABB6"/>
+      <c r="ABC6"/>
+      <c r="ABD6"/>
+      <c r="ABE6"/>
+      <c r="ABF6"/>
+      <c r="ABG6"/>
+      <c r="ABH6"/>
+      <c r="ABI6"/>
+      <c r="ABJ6"/>
+      <c r="ABK6"/>
+      <c r="ABL6"/>
+      <c r="ABM6"/>
+      <c r="ABN6"/>
+      <c r="ABO6"/>
+      <c r="ABP6"/>
+      <c r="ABQ6"/>
+      <c r="ABR6"/>
+      <c r="ABS6"/>
+      <c r="ABT6"/>
+      <c r="ABU6"/>
+      <c r="ABV6"/>
+      <c r="ABW6"/>
+      <c r="ABX6"/>
+      <c r="ABY6"/>
+      <c r="ABZ6"/>
+      <c r="ACA6"/>
+      <c r="ACB6"/>
+      <c r="ACC6"/>
+      <c r="ACD6"/>
+      <c r="ACE6"/>
+      <c r="ACF6"/>
+      <c r="ACG6"/>
+      <c r="ACH6"/>
+      <c r="ACI6"/>
+      <c r="ACJ6"/>
+      <c r="ACK6"/>
+      <c r="ACL6"/>
+      <c r="ACM6"/>
+      <c r="ACN6"/>
+      <c r="ACO6"/>
+      <c r="ACP6"/>
+      <c r="ACQ6"/>
+      <c r="ACR6"/>
+      <c r="ACS6"/>
+      <c r="ACT6"/>
+      <c r="ACU6"/>
+      <c r="ACV6"/>
+      <c r="ACW6"/>
+      <c r="ACX6"/>
+      <c r="ACY6"/>
+      <c r="ACZ6"/>
+      <c r="ADA6"/>
+      <c r="ADB6"/>
+      <c r="ADC6"/>
+      <c r="ADD6"/>
+      <c r="ADE6"/>
+      <c r="ADF6"/>
+      <c r="ADG6"/>
+      <c r="ADH6"/>
+      <c r="ADI6"/>
+      <c r="ADJ6"/>
+      <c r="ADK6"/>
+      <c r="ADL6"/>
+      <c r="ADM6"/>
+      <c r="ADN6"/>
+      <c r="ADO6"/>
+      <c r="ADP6"/>
+      <c r="ADQ6"/>
+      <c r="ADR6"/>
+      <c r="ADS6"/>
+      <c r="ADT6"/>
+      <c r="ADU6"/>
+      <c r="ADV6"/>
+      <c r="ADW6"/>
+      <c r="ADX6"/>
+      <c r="ADY6"/>
+      <c r="ADZ6"/>
+      <c r="AEA6"/>
+      <c r="AEB6"/>
+      <c r="AEC6"/>
+      <c r="AED6"/>
+      <c r="AEE6"/>
+      <c r="AEF6"/>
+      <c r="AEG6"/>
+      <c r="AEH6"/>
+      <c r="AEI6"/>
+      <c r="AEJ6"/>
+      <c r="AEK6"/>
+      <c r="AEL6"/>
+      <c r="AEM6"/>
+      <c r="AEN6"/>
+      <c r="AEO6"/>
+      <c r="AEP6"/>
+      <c r="AEQ6"/>
+      <c r="AER6"/>
+      <c r="AES6"/>
+      <c r="AET6"/>
+      <c r="AEU6"/>
+      <c r="AEV6"/>
+      <c r="AEW6"/>
+      <c r="AEX6"/>
+      <c r="AEY6"/>
+      <c r="AEZ6"/>
+      <c r="AFA6"/>
+      <c r="AFB6"/>
+      <c r="AFC6"/>
+      <c r="AFD6"/>
+      <c r="AFE6"/>
+      <c r="AFF6"/>
+      <c r="AFG6"/>
+      <c r="AFH6"/>
+      <c r="AFI6"/>
+      <c r="AFJ6"/>
+      <c r="AFK6"/>
+      <c r="AFL6"/>
+      <c r="AFM6"/>
+      <c r="AFN6"/>
+      <c r="AFO6"/>
+      <c r="AFP6"/>
+      <c r="AFQ6"/>
+      <c r="AFR6"/>
+      <c r="AFS6"/>
+      <c r="AFT6"/>
+      <c r="AFU6"/>
+      <c r="AFV6"/>
+      <c r="AFW6"/>
+      <c r="AFX6"/>
+      <c r="AFY6"/>
+      <c r="AFZ6"/>
+      <c r="AGA6"/>
+      <c r="AGB6"/>
+      <c r="AGC6"/>
+      <c r="AGD6"/>
+      <c r="AGE6"/>
+      <c r="AGF6"/>
+      <c r="AGG6"/>
+      <c r="AGH6"/>
+      <c r="AGI6"/>
+      <c r="AGJ6"/>
+      <c r="AGK6"/>
+      <c r="AGL6"/>
+      <c r="AGM6"/>
+      <c r="AGN6"/>
+      <c r="AGO6"/>
+      <c r="AGP6"/>
+      <c r="AGQ6"/>
+      <c r="AGR6"/>
+      <c r="AGS6"/>
+      <c r="AGT6"/>
+      <c r="AGU6"/>
+      <c r="AGV6"/>
+      <c r="AGW6"/>
+      <c r="AGX6"/>
+      <c r="AGY6"/>
+      <c r="AGZ6"/>
+      <c r="AHA6"/>
+      <c r="AHB6"/>
+      <c r="AHC6"/>
+      <c r="AHD6"/>
+      <c r="AHE6"/>
+      <c r="AHF6"/>
+      <c r="AHG6"/>
+      <c r="AHH6"/>
+      <c r="AHI6"/>
+      <c r="AHJ6"/>
+      <c r="AHK6"/>
+      <c r="AHL6"/>
+      <c r="AHM6"/>
+      <c r="AHN6"/>
+      <c r="AHO6"/>
+      <c r="AHP6"/>
+      <c r="AHQ6"/>
+      <c r="AHR6"/>
+      <c r="AHS6"/>
+      <c r="AHT6"/>
+      <c r="AHU6"/>
+      <c r="AHV6"/>
+      <c r="AHW6"/>
+      <c r="AHX6"/>
+      <c r="AHY6"/>
+      <c r="AHZ6"/>
+      <c r="AIA6"/>
+      <c r="AIB6"/>
+      <c r="AIC6"/>
+      <c r="AID6"/>
+      <c r="AIE6"/>
+      <c r="AIF6"/>
+      <c r="AIG6"/>
+      <c r="AIH6"/>
+      <c r="AII6"/>
+      <c r="AIJ6"/>
+      <c r="AIK6"/>
+      <c r="AIL6"/>
+      <c r="AIM6"/>
+      <c r="AIN6"/>
+      <c r="AIO6"/>
+      <c r="AIP6"/>
+      <c r="AIQ6"/>
+      <c r="AIR6"/>
+      <c r="AIS6"/>
+      <c r="AIT6"/>
+      <c r="AIU6"/>
+      <c r="AIV6"/>
+      <c r="AIW6"/>
+      <c r="AIX6"/>
+      <c r="AIY6"/>
+      <c r="AIZ6"/>
+      <c r="AJA6"/>
+      <c r="AJB6"/>
+      <c r="AJC6"/>
+      <c r="AJD6"/>
+      <c r="AJE6"/>
+      <c r="AJF6"/>
+      <c r="AJG6"/>
+      <c r="AJH6"/>
+      <c r="AJI6"/>
+      <c r="AJJ6"/>
+      <c r="AJK6"/>
+      <c r="AJL6"/>
+      <c r="AJM6"/>
+      <c r="AJN6"/>
+      <c r="AJO6"/>
+      <c r="AJP6"/>
+      <c r="AJQ6"/>
+      <c r="AJR6"/>
+      <c r="AJS6"/>
+      <c r="AJT6"/>
+      <c r="AJU6"/>
+      <c r="AJV6"/>
+      <c r="AJW6"/>
+      <c r="AJX6"/>
+      <c r="AJY6"/>
+      <c r="AJZ6"/>
+      <c r="AKA6"/>
+      <c r="AKB6"/>
+      <c r="AKC6"/>
+      <c r="AKD6"/>
+      <c r="AKE6"/>
+      <c r="AKF6"/>
+      <c r="AKG6"/>
+      <c r="AKH6"/>
+      <c r="AKI6"/>
+      <c r="AKJ6"/>
+      <c r="AKK6"/>
+      <c r="AKL6"/>
+      <c r="AKM6"/>
+      <c r="AKN6"/>
+      <c r="AKO6"/>
+      <c r="AKP6"/>
+      <c r="AKQ6"/>
+      <c r="AKR6"/>
+      <c r="AKS6"/>
+      <c r="AKT6"/>
+      <c r="AKU6"/>
+      <c r="AKV6"/>
+      <c r="AKW6"/>
+      <c r="AKX6"/>
+      <c r="AKY6"/>
+      <c r="AKZ6"/>
+      <c r="ALA6"/>
+      <c r="ALB6"/>
+      <c r="ALC6"/>
+      <c r="ALD6"/>
+      <c r="ALE6"/>
+      <c r="ALF6"/>
+      <c r="ALG6"/>
+      <c r="ALH6"/>
+      <c r="ALI6"/>
+      <c r="ALJ6"/>
+      <c r="ALK6"/>
+      <c r="ALL6"/>
+      <c r="ALM6"/>
+      <c r="ALN6"/>
+      <c r="ALO6"/>
+      <c r="ALP6"/>
+      <c r="ALQ6"/>
+      <c r="ALR6"/>
+      <c r="ALS6"/>
+      <c r="ALT6"/>
+      <c r="ALU6"/>
+      <c r="ALV6"/>
+      <c r="ALW6"/>
+      <c r="ALX6"/>
+      <c r="ALY6"/>
+      <c r="ALZ6"/>
+      <c r="AMA6"/>
+      <c r="AMB6"/>
+      <c r="AMC6"/>
+      <c r="AMD6"/>
+      <c r="AME6"/>
+      <c r="AMF6"/>
+      <c r="AMG6"/>
+      <c r="AMH6"/>
+      <c r="AMI6"/>
+      <c r="AMJ6"/>
+      <c r="AMK6"/>
+      <c r="AML6"/>
+      <c r="AMM6"/>
+      <c r="AMN6"/>
+      <c r="AMO6"/>
+      <c r="AMP6"/>
+      <c r="AMQ6"/>
+      <c r="AMR6"/>
+      <c r="AMS6"/>
+      <c r="AMT6"/>
+      <c r="AMU6"/>
+      <c r="AMV6"/>
+      <c r="AMW6"/>
+      <c r="AMX6"/>
+      <c r="AMY6"/>
+      <c r="AMZ6"/>
+      <c r="ANA6"/>
+      <c r="ANB6"/>
+      <c r="ANC6"/>
+      <c r="AND6"/>
+      <c r="ANE6"/>
+      <c r="ANF6"/>
+      <c r="ANG6"/>
+      <c r="ANH6"/>
+      <c r="ANI6"/>
+      <c r="ANJ6"/>
+      <c r="ANK6"/>
+      <c r="ANL6"/>
+      <c r="ANM6"/>
+      <c r="ANN6"/>
+      <c r="ANO6"/>
+      <c r="ANP6"/>
+      <c r="ANQ6"/>
+      <c r="ANR6"/>
+      <c r="ANS6"/>
+      <c r="ANT6"/>
+      <c r="ANU6"/>
+      <c r="ANV6"/>
+      <c r="ANW6"/>
+      <c r="ANX6"/>
+      <c r="ANY6"/>
+      <c r="ANZ6"/>
+      <c r="AOA6"/>
+      <c r="AOB6"/>
+      <c r="AOC6"/>
+      <c r="AOD6"/>
+      <c r="AOE6"/>
+      <c r="AOF6"/>
+      <c r="AOG6"/>
+      <c r="AOH6"/>
+      <c r="AOI6"/>
+      <c r="AOJ6"/>
+      <c r="AOK6"/>
+      <c r="AOL6"/>
+      <c r="AOM6"/>
+      <c r="AON6"/>
+      <c r="AOO6"/>
+      <c r="AOP6"/>
+      <c r="AOQ6"/>
+      <c r="AOR6"/>
+      <c r="AOS6"/>
+      <c r="AOT6"/>
+      <c r="AOU6"/>
+      <c r="AOV6"/>
+      <c r="AOW6"/>
+      <c r="AOX6"/>
+      <c r="AOY6"/>
+      <c r="AOZ6"/>
+      <c r="APA6"/>
+      <c r="APB6"/>
+      <c r="APC6"/>
+      <c r="APD6"/>
+      <c r="APE6"/>
+      <c r="APF6"/>
+      <c r="APG6"/>
+      <c r="APH6"/>
+      <c r="API6"/>
+      <c r="APJ6"/>
+      <c r="APK6"/>
+      <c r="APL6"/>
+      <c r="APM6"/>
+      <c r="APN6"/>
+      <c r="APO6"/>
+      <c r="APP6"/>
+      <c r="APQ6"/>
+      <c r="APR6"/>
+      <c r="APS6"/>
+      <c r="APT6"/>
+      <c r="APU6"/>
+      <c r="APV6"/>
+      <c r="APW6"/>
+      <c r="APX6"/>
+      <c r="APY6"/>
+      <c r="APZ6"/>
+      <c r="AQA6"/>
+      <c r="AQB6"/>
+      <c r="AQC6"/>
+      <c r="AQD6"/>
+      <c r="AQE6"/>
+      <c r="AQF6"/>
+      <c r="AQG6"/>
+      <c r="AQH6"/>
+      <c r="AQI6"/>
+      <c r="AQJ6"/>
+      <c r="AQK6"/>
+      <c r="AQL6"/>
+      <c r="AQM6"/>
+      <c r="AQN6"/>
+      <c r="AQO6"/>
+      <c r="AQP6"/>
+      <c r="AQQ6"/>
+      <c r="AQR6"/>
+      <c r="AQS6"/>
+      <c r="AQT6"/>
+      <c r="AQU6"/>
+      <c r="AQV6"/>
+      <c r="AQW6"/>
+      <c r="AQX6"/>
+      <c r="AQY6"/>
+      <c r="AQZ6"/>
+      <c r="ARA6"/>
+      <c r="ARB6"/>
+      <c r="ARC6"/>
+      <c r="ARD6"/>
+      <c r="ARE6"/>
+      <c r="ARF6"/>
+      <c r="ARG6"/>
+      <c r="ARH6"/>
+      <c r="ARI6"/>
+      <c r="ARJ6"/>
+      <c r="ARK6"/>
+      <c r="ARL6"/>
+      <c r="ARM6"/>
+      <c r="ARN6"/>
+      <c r="ARO6"/>
+      <c r="ARP6"/>
+      <c r="ARQ6"/>
+      <c r="ARR6"/>
+      <c r="ARS6"/>
+      <c r="ART6"/>
+      <c r="ARU6"/>
+      <c r="ARV6"/>
+      <c r="ARW6"/>
+      <c r="ARX6"/>
+      <c r="ARY6"/>
+      <c r="ARZ6"/>
+      <c r="ASA6"/>
+      <c r="ASB6"/>
+      <c r="ASC6"/>
+      <c r="ASD6"/>
+      <c r="ASE6"/>
+      <c r="ASF6"/>
+      <c r="ASG6"/>
+      <c r="ASH6"/>
+      <c r="ASI6"/>
+      <c r="ASJ6"/>
+      <c r="ASK6"/>
+      <c r="ASL6"/>
+      <c r="ASM6"/>
+      <c r="ASN6"/>
+      <c r="ASO6"/>
+      <c r="ASP6"/>
+      <c r="ASQ6"/>
+      <c r="ASR6"/>
+      <c r="ASS6"/>
+      <c r="AST6"/>
+      <c r="ASU6"/>
+      <c r="ASV6"/>
+      <c r="ASW6"/>
+      <c r="ASX6"/>
+      <c r="ASY6"/>
+      <c r="ASZ6"/>
+      <c r="ATA6"/>
+      <c r="ATB6"/>
+      <c r="ATC6"/>
+      <c r="ATD6"/>
+      <c r="ATE6"/>
+      <c r="ATF6"/>
+      <c r="ATG6"/>
+      <c r="ATH6"/>
+      <c r="ATI6"/>
+      <c r="ATJ6"/>
+      <c r="ATK6"/>
+      <c r="ATL6"/>
+      <c r="ATM6"/>
+      <c r="ATN6"/>
+      <c r="ATO6"/>
+      <c r="ATP6"/>
+      <c r="ATQ6"/>
+      <c r="ATR6"/>
+      <c r="ATS6"/>
+      <c r="ATT6"/>
+      <c r="ATU6"/>
+      <c r="ATV6"/>
+      <c r="ATW6"/>
+      <c r="ATX6"/>
+      <c r="ATY6"/>
+      <c r="ATZ6"/>
+      <c r="AUA6"/>
+      <c r="AUB6"/>
+      <c r="AUC6"/>
+      <c r="AUD6"/>
+      <c r="AUE6"/>
+      <c r="AUF6"/>
+      <c r="AUG6"/>
+      <c r="AUH6"/>
+      <c r="AUI6"/>
+      <c r="AUJ6"/>
+      <c r="AUK6"/>
+      <c r="AUL6"/>
+      <c r="AUM6"/>
+      <c r="AUN6"/>
+      <c r="AUO6"/>
+      <c r="AUP6"/>
+      <c r="AUQ6"/>
+      <c r="AUR6"/>
+      <c r="AUS6"/>
+      <c r="AUT6"/>
+      <c r="AUU6"/>
+      <c r="AUV6"/>
+      <c r="AUW6"/>
+      <c r="AUX6"/>
+      <c r="AUY6"/>
+      <c r="AUZ6"/>
+      <c r="AVA6"/>
+      <c r="AVB6"/>
+      <c r="AVC6"/>
+      <c r="AVD6"/>
+      <c r="AVE6"/>
+      <c r="AVF6"/>
+      <c r="AVG6"/>
+      <c r="AVH6"/>
+      <c r="AVI6"/>
+      <c r="AVJ6"/>
+      <c r="AVK6"/>
+      <c r="AVL6"/>
+      <c r="AVM6"/>
+      <c r="AVN6"/>
+      <c r="AVO6"/>
+      <c r="AVP6"/>
+      <c r="AVQ6"/>
+      <c r="AVR6"/>
+      <c r="AVS6"/>
+      <c r="AVT6"/>
+      <c r="AVU6"/>
+      <c r="AVV6"/>
+      <c r="AVW6"/>
+      <c r="AVX6"/>
+      <c r="AVY6"/>
+      <c r="AVZ6"/>
+      <c r="AWA6"/>
+      <c r="AWB6"/>
+      <c r="AWC6"/>
+      <c r="AWD6"/>
+      <c r="AWE6"/>
+      <c r="AWF6"/>
+      <c r="AWG6"/>
+      <c r="AWH6"/>
+      <c r="AWI6"/>
+      <c r="AWJ6"/>
+      <c r="AWK6"/>
+      <c r="AWL6"/>
+      <c r="AWM6"/>
+      <c r="AWN6"/>
+      <c r="AWO6"/>
+      <c r="AWP6"/>
+      <c r="AWQ6"/>
+      <c r="AWR6"/>
+      <c r="AWS6"/>
+      <c r="AWT6"/>
+      <c r="AWU6"/>
+      <c r="AWV6"/>
+      <c r="AWW6"/>
+      <c r="AWX6"/>
+      <c r="AWY6"/>
+      <c r="AWZ6"/>
+      <c r="AXA6"/>
+      <c r="AXB6"/>
+      <c r="AXC6"/>
+      <c r="AXD6"/>
+      <c r="AXE6"/>
+      <c r="AXF6"/>
+      <c r="AXG6"/>
+      <c r="AXH6"/>
+      <c r="AXI6"/>
+      <c r="AXJ6"/>
+      <c r="AXK6"/>
+      <c r="AXL6"/>
+      <c r="AXM6"/>
+      <c r="AXN6"/>
+      <c r="AXO6"/>
+      <c r="AXP6"/>
+      <c r="AXQ6"/>
+      <c r="AXR6"/>
+      <c r="AXS6"/>
+      <c r="AXT6"/>
+      <c r="AXU6"/>
+      <c r="AXV6"/>
+      <c r="AXW6"/>
+      <c r="AXX6"/>
+      <c r="AXY6"/>
+      <c r="AXZ6"/>
+      <c r="AYA6"/>
+      <c r="AYB6"/>
+      <c r="AYC6"/>
+      <c r="AYD6"/>
+      <c r="AYE6"/>
+      <c r="AYF6"/>
+      <c r="AYG6"/>
+      <c r="AYH6"/>
+      <c r="AYI6"/>
+      <c r="AYJ6"/>
+      <c r="AYK6"/>
+      <c r="AYL6"/>
+      <c r="AYM6"/>
+      <c r="AYN6"/>
+      <c r="AYO6"/>
+      <c r="AYP6"/>
+      <c r="AYQ6"/>
+      <c r="AYR6"/>
+      <c r="AYS6"/>
+      <c r="AYT6"/>
+      <c r="AYU6"/>
+      <c r="AYV6"/>
+      <c r="AYW6"/>
+      <c r="AYX6"/>
+      <c r="AYY6"/>
+      <c r="AYZ6"/>
+      <c r="AZA6"/>
+      <c r="AZB6"/>
+      <c r="AZC6"/>
+      <c r="AZD6"/>
+      <c r="AZE6"/>
+      <c r="AZF6"/>
+      <c r="AZG6"/>
+      <c r="AZH6"/>
+      <c r="AZI6"/>
+      <c r="AZJ6"/>
+      <c r="AZK6"/>
+      <c r="AZL6"/>
+      <c r="AZM6"/>
+      <c r="AZN6"/>
+      <c r="AZO6"/>
+      <c r="AZP6"/>
+      <c r="AZQ6"/>
+      <c r="AZR6"/>
+      <c r="AZS6"/>
+      <c r="AZT6"/>
+      <c r="AZU6"/>
+      <c r="AZV6"/>
+      <c r="AZW6"/>
+      <c r="AZX6"/>
+      <c r="AZY6"/>
+      <c r="AZZ6"/>
+      <c r="BAA6"/>
+      <c r="BAB6"/>
+      <c r="BAC6"/>
+      <c r="BAD6"/>
+      <c r="BAE6"/>
+      <c r="BAF6"/>
+      <c r="BAG6"/>
+      <c r="BAH6"/>
+      <c r="BAI6"/>
+      <c r="BAJ6"/>
+      <c r="BAK6"/>
+      <c r="BAL6"/>
+      <c r="BAM6"/>
+      <c r="BAN6"/>
+      <c r="BAO6"/>
+      <c r="BAP6"/>
+      <c r="BAQ6"/>
+      <c r="BAR6"/>
+      <c r="BAS6"/>
+      <c r="BAT6"/>
+      <c r="BAU6"/>
+      <c r="BAV6"/>
+      <c r="BAW6"/>
+      <c r="BAX6"/>
+      <c r="BAY6"/>
+      <c r="BAZ6"/>
+      <c r="BBA6"/>
+      <c r="BBB6"/>
+      <c r="BBC6"/>
+      <c r="BBD6"/>
+      <c r="BBE6"/>
+      <c r="BBF6"/>
+      <c r="BBG6"/>
+      <c r="BBH6"/>
+      <c r="BBI6"/>
+      <c r="BBJ6"/>
+      <c r="BBK6"/>
+      <c r="BBL6"/>
+      <c r="BBM6"/>
+      <c r="BBN6"/>
+      <c r="BBO6"/>
+      <c r="BBP6"/>
+      <c r="BBQ6"/>
+      <c r="BBR6"/>
+      <c r="BBS6"/>
+      <c r="BBT6"/>
+      <c r="BBU6"/>
+      <c r="BBV6"/>
+      <c r="BBW6"/>
+      <c r="BBX6"/>
+      <c r="BBY6"/>
+      <c r="BBZ6"/>
+      <c r="BCA6"/>
+      <c r="BCB6"/>
+      <c r="BCC6"/>
+      <c r="BCD6"/>
+      <c r="BCE6"/>
+      <c r="BCF6"/>
+      <c r="BCG6"/>
+      <c r="BCH6"/>
+      <c r="BCI6"/>
+      <c r="BCJ6"/>
+      <c r="BCK6"/>
+      <c r="BCL6"/>
+      <c r="BCM6"/>
+      <c r="BCN6"/>
+      <c r="BCO6"/>
+      <c r="BCP6"/>
+      <c r="BCQ6"/>
+      <c r="BCR6"/>
+      <c r="BCS6"/>
+      <c r="BCT6"/>
+      <c r="BCU6"/>
+      <c r="BCV6"/>
+      <c r="BCW6"/>
+      <c r="BCX6"/>
+      <c r="BCY6"/>
+      <c r="BCZ6"/>
+      <c r="BDA6"/>
+      <c r="BDB6"/>
+      <c r="BDC6"/>
+      <c r="BDD6"/>
+      <c r="BDE6"/>
+      <c r="BDF6"/>
+      <c r="BDG6"/>
+      <c r="BDH6"/>
+      <c r="BDI6"/>
+      <c r="BDJ6"/>
+      <c r="BDK6"/>
+      <c r="BDL6"/>
+      <c r="BDM6"/>
+      <c r="BDN6"/>
+      <c r="BDO6"/>
+      <c r="BDP6"/>
+      <c r="BDQ6"/>
+      <c r="BDR6"/>
+      <c r="BDS6"/>
+      <c r="BDT6"/>
+      <c r="BDU6"/>
+      <c r="BDV6"/>
+      <c r="BDW6"/>
+      <c r="BDX6"/>
+      <c r="BDY6"/>
+      <c r="BDZ6"/>
+      <c r="BEA6"/>
+      <c r="BEB6"/>
+      <c r="BEC6"/>
+      <c r="BED6"/>
+      <c r="BEE6"/>
+      <c r="BEF6"/>
+      <c r="BEG6"/>
+      <c r="BEH6"/>
+      <c r="BEI6"/>
+      <c r="BEJ6"/>
+      <c r="BEK6"/>
+      <c r="BEL6"/>
+      <c r="BEM6"/>
+      <c r="BEN6"/>
+      <c r="BEO6"/>
+      <c r="BEP6"/>
+      <c r="BEQ6"/>
+      <c r="BER6"/>
+      <c r="BES6"/>
+      <c r="BET6"/>
+      <c r="BEU6"/>
+      <c r="BEV6"/>
+      <c r="BEW6"/>
+      <c r="BEX6"/>
+      <c r="BEY6"/>
+      <c r="BEZ6"/>
+      <c r="BFA6"/>
+      <c r="BFB6"/>
+      <c r="BFC6"/>
+      <c r="BFD6"/>
+      <c r="BFE6"/>
+      <c r="BFF6"/>
+      <c r="BFG6"/>
+      <c r="BFH6"/>
+      <c r="BFI6"/>
+      <c r="BFJ6"/>
+      <c r="BFK6"/>
+      <c r="BFL6"/>
+      <c r="BFM6"/>
+      <c r="BFN6"/>
+      <c r="BFO6"/>
+      <c r="BFP6"/>
+      <c r="BFQ6"/>
+      <c r="BFR6"/>
+      <c r="BFS6"/>
+      <c r="BFT6"/>
+      <c r="BFU6"/>
+      <c r="BFV6"/>
+      <c r="BFW6"/>
+      <c r="BFX6"/>
+      <c r="BFY6"/>
+      <c r="BFZ6"/>
+      <c r="BGA6"/>
+      <c r="BGB6"/>
+      <c r="BGC6"/>
+      <c r="BGD6"/>
+      <c r="BGE6"/>
+      <c r="BGF6"/>
+      <c r="BGG6"/>
+      <c r="BGH6"/>
+      <c r="BGI6"/>
+      <c r="BGJ6"/>
+      <c r="BGK6"/>
+      <c r="BGL6"/>
+      <c r="BGM6"/>
+      <c r="BGN6"/>
+      <c r="BGO6"/>
+      <c r="BGP6"/>
+      <c r="BGQ6"/>
+      <c r="BGR6"/>
+      <c r="BGS6"/>
+      <c r="BGT6"/>
+      <c r="BGU6"/>
+      <c r="BGV6"/>
+      <c r="BGW6"/>
+      <c r="BGX6"/>
+      <c r="BGY6"/>
+      <c r="BGZ6"/>
+      <c r="BHA6"/>
+      <c r="BHB6"/>
+      <c r="BHC6"/>
+      <c r="BHD6"/>
+      <c r="BHE6"/>
+      <c r="BHF6"/>
+      <c r="BHG6"/>
+      <c r="BHH6"/>
+      <c r="BHI6"/>
+      <c r="BHJ6"/>
+      <c r="BHK6"/>
+      <c r="BHL6"/>
+      <c r="BHM6"/>
+      <c r="BHN6"/>
+      <c r="BHO6"/>
+      <c r="BHP6"/>
+      <c r="BHQ6"/>
+      <c r="BHR6"/>
+      <c r="BHS6"/>
+      <c r="BHT6"/>
+      <c r="BHU6"/>
+      <c r="BHV6"/>
+      <c r="BHW6"/>
+      <c r="BHX6"/>
+      <c r="BHY6"/>
+      <c r="BHZ6"/>
+      <c r="BIA6"/>
+      <c r="BIB6"/>
+      <c r="BIC6"/>
+      <c r="BID6"/>
+      <c r="BIE6"/>
+      <c r="BIF6"/>
+      <c r="BIG6"/>
+      <c r="BIH6"/>
+      <c r="BII6"/>
+      <c r="BIJ6"/>
+      <c r="BIK6"/>
+      <c r="BIL6"/>
+      <c r="BIM6"/>
+      <c r="BIN6"/>
+      <c r="BIO6"/>
+      <c r="BIP6"/>
+      <c r="BIQ6"/>
+      <c r="BIR6"/>
+      <c r="BIS6"/>
+      <c r="BIT6"/>
+      <c r="BIU6"/>
+      <c r="BIV6"/>
+      <c r="BIW6"/>
+      <c r="BIX6"/>
+      <c r="BIY6"/>
+      <c r="BIZ6"/>
+      <c r="BJA6"/>
+      <c r="BJB6"/>
+      <c r="BJC6"/>
+      <c r="BJD6"/>
+      <c r="BJE6"/>
+      <c r="BJF6"/>
+      <c r="BJG6"/>
+      <c r="BJH6"/>
+      <c r="BJI6"/>
+      <c r="BJJ6"/>
+      <c r="BJK6"/>
+      <c r="BJL6"/>
+      <c r="BJM6"/>
+      <c r="BJN6"/>
+      <c r="BJO6"/>
+      <c r="BJP6"/>
+      <c r="BJQ6"/>
+      <c r="BJR6"/>
+      <c r="BJS6"/>
+      <c r="BJT6"/>
+      <c r="BJU6"/>
+      <c r="BJV6"/>
+      <c r="BJW6"/>
+      <c r="BJX6"/>
+      <c r="BJY6"/>
+      <c r="BJZ6"/>
+      <c r="BKA6"/>
+      <c r="BKB6"/>
+      <c r="BKC6"/>
+      <c r="BKD6"/>
+      <c r="BKE6"/>
+      <c r="BKF6"/>
+      <c r="BKG6"/>
+      <c r="BKH6"/>
+      <c r="BKI6"/>
+      <c r="BKJ6"/>
+      <c r="BKK6"/>
+      <c r="BKL6"/>
+      <c r="BKM6"/>
+      <c r="BKN6"/>
+      <c r="BKO6"/>
+      <c r="BKP6"/>
+      <c r="BKQ6"/>
+      <c r="BKR6"/>
+      <c r="BKS6"/>
+      <c r="BKT6"/>
+      <c r="BKU6"/>
+      <c r="BKV6"/>
+      <c r="BKW6"/>
+      <c r="BKX6"/>
+      <c r="BKY6"/>
+      <c r="BKZ6"/>
+      <c r="BLA6"/>
+      <c r="BLB6"/>
+      <c r="BLC6"/>
+      <c r="BLD6"/>
+      <c r="BLE6"/>
+      <c r="BLF6"/>
+      <c r="BLG6"/>
+      <c r="BLH6"/>
+      <c r="BLI6"/>
+      <c r="BLJ6"/>
+      <c r="BLK6"/>
+      <c r="BLL6"/>
+      <c r="BLM6"/>
+      <c r="BLN6"/>
+      <c r="BLO6"/>
+      <c r="BLP6"/>
+      <c r="BLQ6"/>
+      <c r="BLR6"/>
+      <c r="BLS6"/>
+      <c r="BLT6"/>
+      <c r="BLU6"/>
+      <c r="BLV6"/>
+      <c r="BLW6"/>
+      <c r="BLX6"/>
+      <c r="BLY6"/>
+      <c r="BLZ6"/>
+      <c r="BMA6"/>
+      <c r="BMB6"/>
+      <c r="BMC6"/>
+      <c r="BMD6"/>
+      <c r="BME6"/>
+      <c r="BMF6"/>
+      <c r="BMG6"/>
+      <c r="BMH6"/>
+      <c r="BMI6"/>
+      <c r="BMJ6"/>
+      <c r="BMK6"/>
+      <c r="BML6"/>
+      <c r="BMM6"/>
+      <c r="BMN6"/>
+      <c r="BMO6"/>
+      <c r="BMP6"/>
+      <c r="BMQ6"/>
+      <c r="BMR6"/>
+      <c r="BMS6"/>
+      <c r="BMT6"/>
+      <c r="BMU6"/>
+      <c r="BMV6"/>
+      <c r="BMW6"/>
+      <c r="BMX6"/>
+      <c r="BMY6"/>
+      <c r="BMZ6"/>
+      <c r="BNA6"/>
+      <c r="BNB6"/>
+      <c r="BNC6"/>
+      <c r="BND6"/>
+      <c r="BNE6"/>
+      <c r="BNF6"/>
+      <c r="BNG6"/>
+      <c r="BNH6"/>
+      <c r="BNI6"/>
+      <c r="BNJ6"/>
+      <c r="BNK6"/>
+      <c r="BNL6"/>
+      <c r="BNM6"/>
+      <c r="BNN6"/>
+      <c r="BNO6"/>
+      <c r="BNP6"/>
+      <c r="BNQ6"/>
+      <c r="BNR6"/>
+      <c r="BNS6"/>
+      <c r="BNT6"/>
+      <c r="BNU6"/>
+      <c r="BNV6"/>
+      <c r="BNW6"/>
+      <c r="BNX6"/>
+      <c r="BNY6"/>
+      <c r="BNZ6"/>
+      <c r="BOA6"/>
+      <c r="BOB6"/>
+      <c r="BOC6"/>
+      <c r="BOD6"/>
+      <c r="BOE6"/>
+      <c r="BOF6"/>
+      <c r="BOG6"/>
+      <c r="BOH6"/>
+      <c r="BOI6"/>
+      <c r="BOJ6"/>
+      <c r="BOK6"/>
+      <c r="BOL6"/>
+      <c r="BOM6"/>
+      <c r="BON6"/>
+      <c r="BOO6"/>
+      <c r="BOP6"/>
+      <c r="BOQ6"/>
+      <c r="BOR6"/>
+      <c r="BOS6"/>
+      <c r="BOT6"/>
+      <c r="BOU6"/>
+      <c r="BOV6"/>
+      <c r="BOW6"/>
+      <c r="BOX6"/>
+      <c r="BOY6"/>
+      <c r="BOZ6"/>
+      <c r="BPA6"/>
+      <c r="BPB6"/>
+      <c r="BPC6"/>
+      <c r="BPD6"/>
+      <c r="BPE6"/>
+      <c r="BPF6"/>
+      <c r="BPG6"/>
+      <c r="BPH6"/>
+      <c r="BPI6"/>
+      <c r="BPJ6"/>
+      <c r="BPK6"/>
+      <c r="BPL6"/>
+      <c r="BPM6"/>
+      <c r="BPN6"/>
+      <c r="BPO6"/>
+      <c r="BPP6"/>
+      <c r="BPQ6"/>
+      <c r="BPR6"/>
+      <c r="BPS6"/>
+      <c r="BPT6"/>
+      <c r="BPU6"/>
+      <c r="BPV6"/>
+      <c r="BPW6"/>
+      <c r="BPX6"/>
+      <c r="BPY6"/>
+      <c r="BPZ6"/>
+      <c r="BQA6"/>
+      <c r="BQB6"/>
+      <c r="BQC6"/>
+      <c r="BQD6"/>
+      <c r="BQE6"/>
+      <c r="BQF6"/>
+      <c r="BQG6"/>
+      <c r="BQH6"/>
+      <c r="BQI6"/>
+      <c r="BQJ6"/>
+      <c r="BQK6"/>
+      <c r="BQL6"/>
+      <c r="BQM6"/>
+      <c r="BQN6"/>
+      <c r="BQO6"/>
+      <c r="BQP6"/>
+      <c r="BQQ6"/>
+      <c r="BQR6"/>
+      <c r="BQS6"/>
+      <c r="BQT6"/>
+      <c r="BQU6"/>
+      <c r="BQV6"/>
+      <c r="BQW6"/>
+      <c r="BQX6"/>
+      <c r="BQY6"/>
+      <c r="BQZ6"/>
+      <c r="BRA6"/>
+      <c r="BRB6"/>
+      <c r="BRC6"/>
+      <c r="BRD6"/>
+      <c r="BRE6"/>
+      <c r="BRF6"/>
+      <c r="BRG6"/>
+      <c r="BRH6"/>
+      <c r="BRI6"/>
+      <c r="BRJ6"/>
+      <c r="BRK6"/>
+      <c r="BRL6"/>
+      <c r="BRM6"/>
+      <c r="BRN6"/>
+      <c r="BRO6"/>
+      <c r="BRP6"/>
+      <c r="BRQ6"/>
+      <c r="BRR6"/>
+      <c r="BRS6"/>
+      <c r="BRT6"/>
+      <c r="BRU6"/>
+      <c r="BRV6"/>
+      <c r="BRW6"/>
+      <c r="BRX6"/>
+      <c r="BRY6"/>
+      <c r="BRZ6"/>
+      <c r="BSA6"/>
+      <c r="BSB6"/>
+      <c r="BSC6"/>
+      <c r="BSD6"/>
+      <c r="BSE6"/>
+      <c r="BSF6"/>
+      <c r="BSG6"/>
+      <c r="BSH6"/>
+      <c r="BSI6"/>
+      <c r="BSJ6"/>
+      <c r="BSK6"/>
+      <c r="BSL6"/>
+      <c r="BSM6"/>
+      <c r="BSN6"/>
+      <c r="BSO6"/>
+      <c r="BSP6"/>
+      <c r="BSQ6"/>
+      <c r="BSR6"/>
+      <c r="BSS6"/>
+      <c r="BST6"/>
+      <c r="BSU6"/>
+      <c r="BSV6"/>
+      <c r="BSW6"/>
+      <c r="BSX6"/>
+      <c r="BSY6"/>
+      <c r="BSZ6"/>
+      <c r="BTA6"/>
+      <c r="BTB6"/>
+      <c r="BTC6"/>
+      <c r="BTD6"/>
+      <c r="BTE6"/>
+      <c r="BTF6"/>
+      <c r="BTG6"/>
+      <c r="BTH6"/>
+      <c r="BTI6"/>
+      <c r="BTJ6"/>
+      <c r="BTK6"/>
+      <c r="BTL6"/>
+      <c r="BTM6"/>
+      <c r="BTN6"/>
+      <c r="BTO6"/>
+      <c r="BTP6"/>
+      <c r="BTQ6"/>
+      <c r="BTR6"/>
+      <c r="BTS6"/>
+      <c r="BTT6"/>
+      <c r="BTU6"/>
+      <c r="BTV6"/>
+      <c r="BTW6"/>
+      <c r="BTX6"/>
+      <c r="BTY6"/>
+      <c r="BTZ6"/>
+      <c r="BUA6"/>
+      <c r="BUB6"/>
+      <c r="BUC6"/>
+      <c r="BUD6"/>
+      <c r="BUE6"/>
+      <c r="BUF6"/>
+      <c r="BUG6"/>
+      <c r="BUH6"/>
+      <c r="BUI6"/>
+      <c r="BUJ6"/>
+      <c r="BUK6"/>
+      <c r="BUL6"/>
+      <c r="BUM6"/>
+      <c r="BUN6"/>
+      <c r="BUO6"/>
+      <c r="BUP6"/>
+      <c r="BUQ6"/>
+      <c r="BUR6"/>
+      <c r="BUS6"/>
+      <c r="BUT6"/>
+      <c r="BUU6"/>
+      <c r="BUV6"/>
+      <c r="BUW6"/>
+      <c r="BUX6"/>
+      <c r="BUY6"/>
+      <c r="BUZ6"/>
+      <c r="BVA6"/>
+      <c r="BVB6"/>
+      <c r="BVC6"/>
+      <c r="BVD6"/>
+      <c r="BVE6"/>
+      <c r="BVF6"/>
+      <c r="BVG6"/>
+      <c r="BVH6"/>
+      <c r="BVI6"/>
+      <c r="BVJ6"/>
+      <c r="BVK6"/>
+      <c r="BVL6"/>
+      <c r="BVM6"/>
+      <c r="BVN6"/>
+      <c r="BVO6"/>
+      <c r="BVP6"/>
+      <c r="BVQ6"/>
+      <c r="BVR6"/>
+      <c r="BVS6"/>
+      <c r="BVT6"/>
+      <c r="BVU6"/>
+      <c r="BVV6"/>
+      <c r="BVW6"/>
+      <c r="BVX6"/>
+      <c r="BVY6"/>
+      <c r="BVZ6"/>
+      <c r="BWA6"/>
+      <c r="BWB6"/>
+      <c r="BWC6"/>
+      <c r="BWD6"/>
+      <c r="BWE6"/>
+      <c r="BWF6"/>
+      <c r="BWG6"/>
+      <c r="BWH6"/>
+      <c r="BWI6"/>
+      <c r="BWJ6"/>
+      <c r="BWK6"/>
+      <c r="BWL6"/>
+      <c r="BWM6"/>
+      <c r="BWN6"/>
+      <c r="BWO6"/>
+      <c r="BWP6"/>
+      <c r="BWQ6"/>
+      <c r="BWR6"/>
+      <c r="BWS6"/>
+      <c r="BWT6"/>
+      <c r="BWU6"/>
+      <c r="BWV6"/>
+      <c r="BWW6"/>
+      <c r="BWX6"/>
+      <c r="BWY6"/>
+      <c r="BWZ6"/>
+      <c r="BXA6"/>
+      <c r="BXB6"/>
+      <c r="BXC6"/>
+      <c r="BXD6"/>
+      <c r="BXE6"/>
+      <c r="BXF6"/>
+      <c r="BXG6"/>
+      <c r="BXH6"/>
+      <c r="BXI6"/>
+      <c r="BXJ6"/>
+      <c r="BXK6"/>
+      <c r="BXL6"/>
+      <c r="BXM6"/>
+      <c r="BXN6"/>
+      <c r="BXO6"/>
+      <c r="BXP6"/>
+      <c r="BXQ6"/>
+      <c r="BXR6"/>
+      <c r="BXS6"/>
+      <c r="BXT6"/>
+      <c r="BXU6"/>
+      <c r="BXV6"/>
+      <c r="BXW6"/>
+      <c r="BXX6"/>
+      <c r="BXY6"/>
+      <c r="BXZ6"/>
+      <c r="BYA6"/>
+      <c r="BYB6"/>
+      <c r="BYC6"/>
+      <c r="BYD6"/>
+      <c r="BYE6"/>
+      <c r="BYF6"/>
+      <c r="BYG6"/>
+      <c r="BYH6"/>
+      <c r="BYI6"/>
+      <c r="BYJ6"/>
+      <c r="BYK6"/>
+      <c r="BYL6"/>
+      <c r="BYM6"/>
+      <c r="BYN6"/>
+      <c r="BYO6"/>
+      <c r="BYP6"/>
+      <c r="BYQ6"/>
+      <c r="BYR6"/>
+      <c r="BYS6"/>
+      <c r="BYT6"/>
+      <c r="BYU6"/>
+      <c r="BYV6"/>
+      <c r="BYW6"/>
+      <c r="BYX6"/>
+      <c r="BYY6"/>
+      <c r="BYZ6"/>
+      <c r="BZA6"/>
+      <c r="BZB6"/>
+      <c r="BZC6"/>
+      <c r="BZD6"/>
+      <c r="BZE6"/>
+      <c r="BZF6"/>
+      <c r="BZG6"/>
+      <c r="BZH6"/>
+      <c r="BZI6"/>
+      <c r="BZJ6"/>
+      <c r="BZK6"/>
+      <c r="BZL6"/>
+      <c r="BZM6"/>
+      <c r="BZN6"/>
+      <c r="BZO6"/>
+      <c r="BZP6"/>
+      <c r="BZQ6"/>
+      <c r="BZR6"/>
+      <c r="BZS6"/>
+      <c r="BZT6"/>
+      <c r="BZU6"/>
+      <c r="BZV6"/>
+      <c r="BZW6"/>
+      <c r="BZX6"/>
+      <c r="BZY6"/>
+      <c r="BZZ6"/>
+      <c r="CAA6"/>
+      <c r="CAB6"/>
+      <c r="CAC6"/>
+      <c r="CAD6"/>
+      <c r="CAE6"/>
+      <c r="CAF6"/>
+      <c r="CAG6"/>
+      <c r="CAH6"/>
+      <c r="CAI6"/>
+      <c r="CAJ6"/>
+      <c r="CAK6"/>
+      <c r="CAL6"/>
+      <c r="CAM6"/>
+      <c r="CAN6"/>
+      <c r="CAO6"/>
+      <c r="CAP6"/>
+      <c r="CAQ6"/>
+      <c r="CAR6"/>
+      <c r="CAS6"/>
+      <c r="CAT6"/>
+      <c r="CAU6"/>
+      <c r="CAV6"/>
+      <c r="CAW6"/>
+      <c r="CAX6"/>
+      <c r="CAY6"/>
+      <c r="CAZ6"/>
+      <c r="CBA6"/>
+      <c r="CBB6"/>
+      <c r="CBC6"/>
+      <c r="CBD6"/>
+      <c r="CBE6"/>
+      <c r="CBF6"/>
+      <c r="CBG6"/>
+      <c r="CBH6"/>
+      <c r="CBI6"/>
+      <c r="CBJ6"/>
+      <c r="CBK6"/>
+      <c r="CBL6"/>
+      <c r="CBM6"/>
+      <c r="CBN6"/>
+      <c r="CBO6"/>
+      <c r="CBP6"/>
+      <c r="CBQ6"/>
+      <c r="CBR6"/>
+      <c r="CBS6"/>
+      <c r="CBT6"/>
+      <c r="CBU6"/>
+      <c r="CBV6"/>
+      <c r="CBW6"/>
+      <c r="CBX6"/>
+      <c r="CBY6"/>
+      <c r="CBZ6"/>
+      <c r="CCA6"/>
+      <c r="CCB6"/>
+      <c r="CCC6"/>
+      <c r="CCD6"/>
+      <c r="CCE6"/>
+      <c r="CCF6"/>
+      <c r="CCG6"/>
+      <c r="CCH6"/>
+      <c r="CCI6"/>
+      <c r="CCJ6"/>
+      <c r="CCK6"/>
+      <c r="CCL6"/>
+      <c r="CCM6"/>
+      <c r="CCN6"/>
+      <c r="CCO6"/>
+      <c r="CCP6"/>
+      <c r="CCQ6"/>
+      <c r="CCR6"/>
+      <c r="CCS6"/>
+      <c r="CCT6"/>
+      <c r="CCU6"/>
+      <c r="CCV6"/>
+      <c r="CCW6"/>
+      <c r="CCX6"/>
+      <c r="CCY6"/>
+      <c r="CCZ6"/>
+      <c r="CDA6"/>
+      <c r="CDB6"/>
+      <c r="CDC6"/>
+      <c r="CDD6"/>
+      <c r="CDE6"/>
+      <c r="CDF6"/>
+      <c r="CDG6"/>
+      <c r="CDH6"/>
+      <c r="CDI6"/>
+      <c r="CDJ6"/>
+      <c r="CDK6"/>
+      <c r="CDL6"/>
+      <c r="CDM6"/>
+      <c r="CDN6"/>
+      <c r="CDO6"/>
+      <c r="CDP6"/>
+      <c r="CDQ6"/>
+      <c r="CDR6"/>
+      <c r="CDS6"/>
+      <c r="CDT6"/>
+      <c r="CDU6"/>
+      <c r="CDV6"/>
+      <c r="CDW6"/>
+      <c r="CDX6"/>
+      <c r="CDY6"/>
+      <c r="CDZ6"/>
+      <c r="CEA6"/>
+      <c r="CEB6"/>
+      <c r="CEC6"/>
+      <c r="CED6"/>
+      <c r="CEE6"/>
+      <c r="CEF6"/>
+      <c r="CEG6"/>
+      <c r="CEH6"/>
+      <c r="CEI6"/>
+      <c r="CEJ6"/>
+      <c r="CEK6"/>
+      <c r="CEL6"/>
+      <c r="CEM6"/>
+      <c r="CEN6"/>
+      <c r="CEO6"/>
+      <c r="CEP6"/>
+      <c r="CEQ6"/>
+      <c r="CER6"/>
+      <c r="CES6"/>
+      <c r="CET6"/>
+      <c r="CEU6"/>
+      <c r="CEV6"/>
+      <c r="CEW6"/>
+      <c r="CEX6"/>
+      <c r="CEY6"/>
+      <c r="CEZ6"/>
+      <c r="CFA6"/>
+      <c r="CFB6"/>
+      <c r="CFC6"/>
+      <c r="CFD6"/>
+      <c r="CFE6"/>
+      <c r="CFF6"/>
+      <c r="CFG6"/>
+      <c r="CFH6"/>
+      <c r="CFI6"/>
+      <c r="CFJ6"/>
+      <c r="CFK6"/>
+      <c r="CFL6"/>
+      <c r="CFM6"/>
+      <c r="CFN6"/>
+      <c r="CFO6"/>
+      <c r="CFP6"/>
+      <c r="CFQ6"/>
+      <c r="CFR6"/>
+      <c r="CFS6"/>
+      <c r="CFT6"/>
+      <c r="CFU6"/>
+      <c r="CFV6"/>
+      <c r="CFW6"/>
+      <c r="CFX6"/>
+      <c r="CFY6"/>
+      <c r="CFZ6"/>
+      <c r="CGA6"/>
+      <c r="CGB6"/>
+      <c r="CGC6"/>
+      <c r="CGD6"/>
+      <c r="CGE6"/>
+      <c r="CGF6"/>
+      <c r="CGG6"/>
+      <c r="CGH6"/>
+      <c r="CGI6"/>
+      <c r="CGJ6"/>
+      <c r="CGK6"/>
+      <c r="CGL6"/>
+      <c r="CGM6"/>
+      <c r="CGN6"/>
+      <c r="CGO6"/>
+      <c r="CGP6"/>
+      <c r="CGQ6"/>
+      <c r="CGR6"/>
+      <c r="CGS6"/>
+      <c r="CGT6"/>
+      <c r="CGU6"/>
+      <c r="CGV6"/>
+      <c r="CGW6"/>
+      <c r="CGX6"/>
+      <c r="CGY6"/>
+      <c r="CGZ6"/>
+      <c r="CHA6"/>
+      <c r="CHB6"/>
+      <c r="CHC6"/>
+      <c r="CHD6"/>
+      <c r="CHE6"/>
+      <c r="CHF6"/>
+      <c r="CHG6"/>
+      <c r="CHH6"/>
+      <c r="CHI6"/>
+      <c r="CHJ6"/>
+      <c r="CHK6"/>
+      <c r="CHL6"/>
+      <c r="CHM6"/>
+      <c r="CHN6"/>
+      <c r="CHO6"/>
+      <c r="CHP6"/>
+      <c r="CHQ6"/>
+      <c r="CHR6"/>
+      <c r="CHS6"/>
+      <c r="CHT6"/>
+      <c r="CHU6"/>
+      <c r="CHV6"/>
+      <c r="CHW6"/>
+      <c r="CHX6"/>
+      <c r="CHY6"/>
+      <c r="CHZ6"/>
+      <c r="CIA6"/>
+      <c r="CIB6"/>
+      <c r="CIC6"/>
+      <c r="CID6"/>
+      <c r="CIE6"/>
+      <c r="CIF6"/>
+      <c r="CIG6"/>
+      <c r="CIH6"/>
+      <c r="CII6"/>
+      <c r="CIJ6"/>
+      <c r="CIK6"/>
+      <c r="CIL6"/>
+      <c r="CIM6"/>
+      <c r="CIN6"/>
+      <c r="CIO6"/>
+      <c r="CIP6"/>
+      <c r="CIQ6"/>
+      <c r="CIR6"/>
+      <c r="CIS6"/>
+      <c r="CIT6"/>
+      <c r="CIU6"/>
+      <c r="CIV6"/>
+      <c r="CIW6"/>
+      <c r="CIX6"/>
+      <c r="CIY6"/>
+      <c r="CIZ6"/>
+      <c r="CJA6"/>
+      <c r="CJB6"/>
+      <c r="CJC6"/>
+      <c r="CJD6"/>
+      <c r="CJE6"/>
+      <c r="CJF6"/>
+      <c r="CJG6"/>
+      <c r="CJH6"/>
+      <c r="CJI6"/>
+      <c r="CJJ6"/>
+      <c r="CJK6"/>
+      <c r="CJL6"/>
+      <c r="CJM6"/>
+      <c r="CJN6"/>
+      <c r="CJO6"/>
+      <c r="CJP6"/>
+      <c r="CJQ6"/>
+      <c r="CJR6"/>
+      <c r="CJS6"/>
+      <c r="CJT6"/>
+      <c r="CJU6"/>
+      <c r="CJV6"/>
+      <c r="CJW6"/>
+      <c r="CJX6"/>
+      <c r="CJY6"/>
+      <c r="CJZ6"/>
+      <c r="CKA6"/>
+      <c r="CKB6"/>
+      <c r="CKC6"/>
+      <c r="CKD6"/>
+      <c r="CKE6"/>
+      <c r="CKF6"/>
+      <c r="CKG6"/>
+      <c r="CKH6"/>
+      <c r="CKI6"/>
+      <c r="CKJ6"/>
+      <c r="CKK6"/>
+      <c r="CKL6"/>
+      <c r="CKM6"/>
+      <c r="CKN6"/>
+      <c r="CKO6"/>
+      <c r="CKP6"/>
+      <c r="CKQ6"/>
+      <c r="CKR6"/>
+      <c r="CKS6"/>
+      <c r="CKT6"/>
+      <c r="CKU6"/>
+      <c r="CKV6"/>
+      <c r="CKW6"/>
+      <c r="CKX6"/>
+      <c r="CKY6"/>
+      <c r="CKZ6"/>
+      <c r="CLA6"/>
+      <c r="CLB6"/>
+      <c r="CLC6"/>
+      <c r="CLD6"/>
+      <c r="CLE6"/>
+      <c r="CLF6"/>
+      <c r="CLG6"/>
+      <c r="CLH6"/>
+      <c r="CLI6"/>
+      <c r="CLJ6"/>
+      <c r="CLK6"/>
+      <c r="CLL6"/>
+      <c r="CLM6"/>
+      <c r="CLN6"/>
+      <c r="CLO6"/>
+      <c r="CLP6"/>
+      <c r="CLQ6"/>
+      <c r="CLR6"/>
+      <c r="CLS6"/>
+      <c r="CLT6"/>
+      <c r="CLU6"/>
+      <c r="CLV6"/>
+      <c r="CLW6"/>
+      <c r="CLX6"/>
+      <c r="CLY6"/>
+      <c r="CLZ6"/>
+      <c r="CMA6"/>
+      <c r="CMB6"/>
+      <c r="CMC6"/>
+      <c r="CMD6"/>
+      <c r="CME6"/>
+      <c r="CMF6"/>
+      <c r="CMG6"/>
+      <c r="CMH6"/>
+      <c r="CMI6"/>
+      <c r="CMJ6"/>
+      <c r="CMK6"/>
+      <c r="CML6"/>
+      <c r="CMM6"/>
+      <c r="CMN6"/>
+      <c r="CMO6"/>
+      <c r="CMP6"/>
+      <c r="CMQ6"/>
+      <c r="CMR6"/>
+      <c r="CMS6"/>
+      <c r="CMT6"/>
+      <c r="CMU6"/>
+      <c r="CMV6"/>
+      <c r="CMW6"/>
+      <c r="CMX6"/>
+      <c r="CMY6"/>
+      <c r="CMZ6"/>
+      <c r="CNA6"/>
+      <c r="CNB6"/>
+      <c r="CNC6"/>
+      <c r="CND6"/>
+      <c r="CNE6"/>
+      <c r="CNF6"/>
+      <c r="CNG6"/>
+      <c r="CNH6"/>
+      <c r="CNI6"/>
+      <c r="CNJ6"/>
+      <c r="CNK6"/>
+      <c r="CNL6"/>
+      <c r="CNM6"/>
+      <c r="CNN6"/>
+      <c r="CNO6"/>
+      <c r="CNP6"/>
+      <c r="CNQ6"/>
+      <c r="CNR6"/>
+      <c r="CNS6"/>
+      <c r="CNT6"/>
+      <c r="CNU6"/>
+      <c r="CNV6"/>
+      <c r="CNW6"/>
+      <c r="CNX6"/>
+      <c r="CNY6"/>
+      <c r="CNZ6"/>
+      <c r="COA6"/>
+      <c r="COB6"/>
+      <c r="COC6"/>
+      <c r="COD6"/>
+      <c r="COE6"/>
+      <c r="COF6"/>
+      <c r="COG6"/>
+      <c r="COH6"/>
+      <c r="COI6"/>
+      <c r="COJ6"/>
+      <c r="COK6"/>
+      <c r="COL6"/>
+      <c r="COM6"/>
+      <c r="CON6"/>
+      <c r="COO6"/>
+      <c r="COP6"/>
+      <c r="COQ6"/>
+      <c r="COR6"/>
+      <c r="COS6"/>
+      <c r="COT6"/>
+      <c r="COU6"/>
+      <c r="COV6"/>
+      <c r="COW6"/>
+      <c r="COX6"/>
+      <c r="COY6"/>
+      <c r="COZ6"/>
+      <c r="CPA6"/>
+      <c r="CPB6"/>
+      <c r="CPC6"/>
+      <c r="CPD6"/>
+      <c r="CPE6"/>
+      <c r="CPF6"/>
+      <c r="CPG6"/>
+      <c r="CPH6"/>
+      <c r="CPI6"/>
+      <c r="CPJ6"/>
+      <c r="CPK6"/>
+      <c r="CPL6"/>
+      <c r="CPM6"/>
+      <c r="CPN6"/>
+      <c r="CPO6"/>
+      <c r="CPP6"/>
+      <c r="CPQ6"/>
+      <c r="CPR6"/>
+      <c r="CPS6"/>
+      <c r="CPT6"/>
+      <c r="CPU6"/>
+      <c r="CPV6"/>
+      <c r="CPW6"/>
+      <c r="CPX6"/>
+      <c r="CPY6"/>
+      <c r="CPZ6"/>
+      <c r="CQA6"/>
+      <c r="CQB6"/>
+      <c r="CQC6"/>
+      <c r="CQD6"/>
+      <c r="CQE6"/>
+      <c r="CQF6"/>
+      <c r="CQG6"/>
+      <c r="CQH6"/>
+      <c r="CQI6"/>
+      <c r="CQJ6"/>
+      <c r="CQK6"/>
+      <c r="CQL6"/>
+      <c r="CQM6"/>
+      <c r="CQN6"/>
+      <c r="CQO6"/>
+      <c r="CQP6"/>
+      <c r="CQQ6"/>
+      <c r="CQR6"/>
+      <c r="CQS6"/>
+      <c r="CQT6"/>
+      <c r="CQU6"/>
+      <c r="CQV6"/>
+      <c r="CQW6"/>
+      <c r="CQX6"/>
+      <c r="CQY6"/>
+      <c r="CQZ6"/>
+      <c r="CRA6"/>
+      <c r="CRB6"/>
+      <c r="CRC6"/>
+      <c r="CRD6"/>
+      <c r="CRE6"/>
+      <c r="CRF6"/>
+      <c r="CRG6"/>
+      <c r="CRH6"/>
+      <c r="CRI6"/>
+      <c r="CRJ6"/>
+      <c r="CRK6"/>
+      <c r="CRL6"/>
+      <c r="CRM6"/>
+      <c r="CRN6"/>
+      <c r="CRO6"/>
+      <c r="CRP6"/>
+      <c r="CRQ6"/>
+      <c r="CRR6"/>
+      <c r="CRS6"/>
+      <c r="CRT6"/>
+      <c r="CRU6"/>
+      <c r="CRV6"/>
+      <c r="CRW6"/>
+      <c r="CRX6"/>
+      <c r="CRY6"/>
+      <c r="CRZ6"/>
+      <c r="CSA6"/>
+      <c r="CSB6"/>
+      <c r="CSC6"/>
+      <c r="CSD6"/>
+      <c r="CSE6"/>
+      <c r="CSF6"/>
+      <c r="CSG6"/>
+      <c r="CSH6"/>
+      <c r="CSI6"/>
+      <c r="CSJ6"/>
+      <c r="CSK6"/>
+      <c r="CSL6"/>
+      <c r="CSM6"/>
+      <c r="CSN6"/>
+      <c r="CSO6"/>
+      <c r="CSP6"/>
+      <c r="CSQ6"/>
+      <c r="CSR6"/>
+      <c r="CSS6"/>
+      <c r="CST6"/>
+      <c r="CSU6"/>
+      <c r="CSV6"/>
+      <c r="CSW6"/>
+      <c r="CSX6"/>
+      <c r="CSY6"/>
     </row>
-    <row r="7" spans="1:1024" s="29" customFormat="1" ht="114.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="24">
+    <row r="7" spans="1:2547" s="28" customFormat="1" ht="114.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="23">
         <v>1065</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="24">
+      <c r="D7" s="23">
         <v>1086</v>
       </c>
-      <c r="E7" s="27" t="s">
+      <c r="E7" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="27" t="s">
+      <c r="F7" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="27" t="s">
+      <c r="G7" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="27" t="s">
+      <c r="H7" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="I7" s="27" t="s">
+      <c r="I7" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="J7" s="28" t="s">
+      <c r="J7" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="AMJ7" s="30"/>
+      <c r="K7"/>
+      <c r="L7"/>
+      <c r="M7"/>
+      <c r="N7"/>
+      <c r="O7"/>
+      <c r="P7"/>
+      <c r="Q7"/>
+      <c r="R7"/>
+      <c r="S7"/>
+      <c r="T7"/>
+      <c r="U7"/>
+      <c r="V7"/>
+      <c r="W7"/>
+      <c r="X7"/>
+      <c r="Y7"/>
+      <c r="Z7"/>
+      <c r="AA7"/>
+      <c r="AB7"/>
+      <c r="AC7"/>
+      <c r="AD7"/>
+      <c r="AE7"/>
+      <c r="AF7"/>
+      <c r="AG7"/>
+      <c r="AH7"/>
+      <c r="AI7"/>
+      <c r="AJ7"/>
+      <c r="AK7"/>
+      <c r="AL7"/>
+      <c r="AM7"/>
+      <c r="AN7"/>
+      <c r="AO7"/>
+      <c r="AP7"/>
+      <c r="AQ7"/>
+      <c r="AR7"/>
+      <c r="AS7"/>
+      <c r="AT7"/>
+      <c r="AU7"/>
+      <c r="AV7"/>
+      <c r="AW7"/>
+      <c r="AX7"/>
+      <c r="AY7"/>
+      <c r="AZ7"/>
+      <c r="BA7"/>
+      <c r="BB7"/>
+      <c r="BC7"/>
+      <c r="BD7"/>
+      <c r="BE7"/>
+      <c r="BF7"/>
+      <c r="BG7"/>
+      <c r="BH7"/>
+      <c r="BI7"/>
+      <c r="BJ7"/>
+      <c r="BK7"/>
+      <c r="BL7"/>
+      <c r="BM7"/>
+      <c r="BN7"/>
+      <c r="BO7"/>
+      <c r="BP7"/>
+      <c r="BQ7"/>
+      <c r="BR7"/>
+      <c r="BS7"/>
+      <c r="BT7"/>
+      <c r="BU7"/>
+      <c r="BV7"/>
+      <c r="BW7"/>
+      <c r="BX7"/>
+      <c r="BY7"/>
+      <c r="BZ7"/>
+      <c r="CA7"/>
+      <c r="CB7"/>
+      <c r="CC7"/>
+      <c r="CD7"/>
+      <c r="CE7"/>
+      <c r="CF7"/>
+      <c r="CG7"/>
+      <c r="CH7"/>
+      <c r="CI7"/>
+      <c r="CJ7"/>
+      <c r="CK7"/>
+      <c r="CL7"/>
+      <c r="CM7"/>
+      <c r="CN7"/>
+      <c r="CO7"/>
+      <c r="CP7"/>
+      <c r="CQ7"/>
+      <c r="CR7"/>
+      <c r="CS7"/>
+      <c r="CT7"/>
+      <c r="CU7"/>
+      <c r="CV7"/>
+      <c r="CW7"/>
+      <c r="CX7"/>
+      <c r="CY7"/>
+      <c r="CZ7"/>
+      <c r="DA7"/>
+      <c r="DB7"/>
+      <c r="DC7"/>
+      <c r="DD7"/>
+      <c r="DE7"/>
+      <c r="DF7"/>
+      <c r="DG7"/>
+      <c r="DH7"/>
+      <c r="DI7"/>
+      <c r="DJ7"/>
+      <c r="DK7"/>
+      <c r="DL7"/>
+      <c r="DM7"/>
+      <c r="DN7"/>
+      <c r="DO7"/>
+      <c r="DP7"/>
+      <c r="DQ7"/>
+      <c r="DR7"/>
+      <c r="DS7"/>
+      <c r="DT7"/>
+      <c r="DU7"/>
+      <c r="DV7"/>
+      <c r="DW7"/>
+      <c r="DX7"/>
+      <c r="DY7"/>
+      <c r="DZ7"/>
+      <c r="EA7"/>
+      <c r="EB7"/>
+      <c r="EC7"/>
+      <c r="ED7"/>
+      <c r="EE7"/>
+      <c r="EF7"/>
+      <c r="EG7"/>
+      <c r="EH7"/>
+      <c r="EI7"/>
+      <c r="EJ7"/>
+      <c r="EK7"/>
+      <c r="EL7"/>
+      <c r="EM7"/>
+      <c r="EN7"/>
+      <c r="EO7"/>
+      <c r="EP7"/>
+      <c r="EQ7"/>
+      <c r="ER7"/>
+      <c r="ES7"/>
+      <c r="ET7"/>
+      <c r="EU7"/>
+      <c r="EV7"/>
+      <c r="EW7"/>
+      <c r="EX7"/>
+      <c r="EY7"/>
+      <c r="EZ7"/>
+      <c r="FA7"/>
+      <c r="FB7"/>
+      <c r="FC7"/>
+      <c r="FD7"/>
+      <c r="FE7"/>
+      <c r="FF7"/>
+      <c r="FG7"/>
+      <c r="FH7"/>
+      <c r="FI7"/>
+      <c r="FJ7"/>
+      <c r="FK7"/>
+      <c r="FL7"/>
+      <c r="FM7"/>
+      <c r="FN7"/>
+      <c r="FO7"/>
+      <c r="FP7"/>
+      <c r="FQ7"/>
+      <c r="FR7"/>
+      <c r="FS7"/>
+      <c r="FT7"/>
+      <c r="FU7"/>
+      <c r="FV7"/>
+      <c r="FW7"/>
+      <c r="FX7"/>
+      <c r="FY7"/>
+      <c r="FZ7"/>
+      <c r="GA7"/>
+      <c r="GB7"/>
+      <c r="GC7"/>
+      <c r="GD7"/>
+      <c r="GE7"/>
+      <c r="GF7"/>
+      <c r="GG7"/>
+      <c r="GH7"/>
+      <c r="GI7"/>
+      <c r="GJ7"/>
+      <c r="GK7"/>
+      <c r="GL7"/>
+      <c r="GM7"/>
+      <c r="GN7"/>
+      <c r="GO7"/>
+      <c r="GP7"/>
+      <c r="GQ7"/>
+      <c r="GR7"/>
+      <c r="GS7"/>
+      <c r="GT7"/>
+      <c r="GU7"/>
+      <c r="GV7"/>
+      <c r="GW7"/>
+      <c r="GX7"/>
+      <c r="GY7"/>
+      <c r="GZ7"/>
+      <c r="HA7"/>
+      <c r="HB7"/>
+      <c r="HC7"/>
+      <c r="HD7"/>
+      <c r="HE7"/>
+      <c r="HF7"/>
+      <c r="HG7"/>
+      <c r="HH7"/>
+      <c r="HI7"/>
+      <c r="HJ7"/>
+      <c r="HK7"/>
+      <c r="HL7"/>
+      <c r="HM7"/>
+      <c r="HN7"/>
+      <c r="HO7"/>
+      <c r="HP7"/>
+      <c r="HQ7"/>
+      <c r="HR7"/>
+      <c r="HS7"/>
+      <c r="HT7"/>
+      <c r="HU7"/>
+      <c r="HV7"/>
+      <c r="HW7"/>
+      <c r="HX7"/>
+      <c r="HY7"/>
+      <c r="HZ7"/>
+      <c r="IA7"/>
+      <c r="IB7"/>
+      <c r="IC7"/>
+      <c r="ID7"/>
+      <c r="IE7"/>
+      <c r="IF7"/>
+      <c r="IG7"/>
+      <c r="IH7"/>
+      <c r="II7"/>
+      <c r="IJ7"/>
+      <c r="IK7"/>
+      <c r="IL7"/>
+      <c r="IM7"/>
+      <c r="IN7"/>
+      <c r="IO7"/>
+      <c r="IP7"/>
+      <c r="IQ7"/>
+      <c r="IR7"/>
+      <c r="IS7"/>
+      <c r="IT7"/>
+      <c r="IU7"/>
+      <c r="IV7"/>
+      <c r="IW7"/>
+      <c r="IX7"/>
+      <c r="IY7"/>
+      <c r="IZ7"/>
+      <c r="JA7"/>
+      <c r="JB7"/>
+      <c r="JC7"/>
+      <c r="JD7"/>
+      <c r="JE7"/>
+      <c r="JF7"/>
+      <c r="JG7"/>
+      <c r="JH7"/>
+      <c r="JI7"/>
+      <c r="JJ7"/>
+      <c r="JK7"/>
+      <c r="JL7"/>
+      <c r="JM7"/>
+      <c r="JN7"/>
+      <c r="JO7"/>
+      <c r="JP7"/>
+      <c r="JQ7"/>
+      <c r="JR7"/>
+      <c r="JS7"/>
+      <c r="JT7"/>
+      <c r="JU7"/>
+      <c r="JV7"/>
+      <c r="JW7"/>
+      <c r="JX7"/>
+      <c r="JY7"/>
+      <c r="JZ7"/>
+      <c r="KA7"/>
+      <c r="KB7"/>
+      <c r="KC7"/>
+      <c r="KD7"/>
+      <c r="KE7"/>
+      <c r="KF7"/>
+      <c r="KG7"/>
+      <c r="KH7"/>
+      <c r="KI7"/>
+      <c r="KJ7"/>
+      <c r="KK7"/>
+      <c r="KL7"/>
+      <c r="KM7"/>
+      <c r="KN7"/>
+      <c r="KO7"/>
+      <c r="KP7"/>
+      <c r="KQ7"/>
+      <c r="KR7"/>
+      <c r="KS7"/>
+      <c r="KT7"/>
+      <c r="KU7"/>
+      <c r="KV7"/>
+      <c r="KW7"/>
+      <c r="KX7"/>
+      <c r="KY7"/>
+      <c r="KZ7"/>
+      <c r="LA7"/>
+      <c r="LB7"/>
+      <c r="LC7"/>
+      <c r="LD7"/>
+      <c r="LE7"/>
+      <c r="LF7"/>
+      <c r="LG7"/>
+      <c r="LH7"/>
+      <c r="LI7"/>
+      <c r="LJ7"/>
+      <c r="LK7"/>
+      <c r="LL7"/>
+      <c r="LM7"/>
+      <c r="LN7"/>
+      <c r="LO7"/>
+      <c r="LP7"/>
+      <c r="LQ7"/>
+      <c r="LR7"/>
+      <c r="LS7"/>
+      <c r="LT7"/>
+      <c r="LU7"/>
+      <c r="LV7"/>
+      <c r="LW7"/>
+      <c r="LX7"/>
+      <c r="LY7"/>
+      <c r="LZ7"/>
+      <c r="MA7"/>
+      <c r="MB7"/>
+      <c r="MC7"/>
+      <c r="MD7"/>
+      <c r="ME7"/>
+      <c r="MF7"/>
+      <c r="MG7"/>
+      <c r="MH7"/>
+      <c r="MI7"/>
+      <c r="MJ7"/>
+      <c r="MK7"/>
+      <c r="ML7"/>
+      <c r="MM7"/>
+      <c r="MN7"/>
+      <c r="MO7"/>
+      <c r="MP7"/>
+      <c r="MQ7"/>
+      <c r="MR7"/>
+      <c r="MS7"/>
+      <c r="MT7"/>
+      <c r="MU7"/>
+      <c r="MV7"/>
+      <c r="MW7"/>
+      <c r="MX7"/>
+      <c r="MY7"/>
+      <c r="MZ7"/>
+      <c r="NA7"/>
+      <c r="NB7"/>
+      <c r="NC7"/>
+      <c r="ND7"/>
+      <c r="NE7"/>
+      <c r="NF7"/>
+      <c r="NG7"/>
+      <c r="NH7"/>
+      <c r="NI7"/>
+      <c r="NJ7"/>
+      <c r="NK7"/>
+      <c r="NL7"/>
+      <c r="NM7"/>
+      <c r="NN7"/>
+      <c r="NO7"/>
+      <c r="NP7"/>
+      <c r="NQ7"/>
+      <c r="NR7"/>
+      <c r="NS7"/>
+      <c r="NT7"/>
+      <c r="NU7"/>
+      <c r="NV7"/>
+      <c r="NW7"/>
+      <c r="NX7"/>
+      <c r="NY7"/>
+      <c r="NZ7"/>
+      <c r="OA7"/>
+      <c r="OB7"/>
+      <c r="OC7"/>
+      <c r="OD7"/>
+      <c r="OE7"/>
+      <c r="OF7"/>
+      <c r="OG7"/>
+      <c r="OH7"/>
+      <c r="OI7"/>
+      <c r="OJ7"/>
+      <c r="OK7"/>
+      <c r="OL7"/>
+      <c r="OM7"/>
+      <c r="ON7"/>
+      <c r="OO7"/>
+      <c r="OP7"/>
+      <c r="OQ7"/>
+      <c r="OR7"/>
+      <c r="OS7"/>
+      <c r="OT7"/>
+      <c r="OU7"/>
+      <c r="OV7"/>
+      <c r="OW7"/>
+      <c r="OX7"/>
+      <c r="OY7"/>
+      <c r="OZ7"/>
+      <c r="PA7"/>
+      <c r="PB7"/>
+      <c r="PC7"/>
+      <c r="PD7"/>
+      <c r="PE7"/>
+      <c r="PF7"/>
+      <c r="PG7"/>
+      <c r="PH7"/>
+      <c r="PI7"/>
+      <c r="PJ7"/>
+      <c r="PK7"/>
+      <c r="PL7"/>
+      <c r="PM7"/>
+      <c r="PN7"/>
+      <c r="PO7"/>
+      <c r="PP7"/>
+      <c r="PQ7"/>
+      <c r="PR7"/>
+      <c r="PS7"/>
+      <c r="PT7"/>
+      <c r="PU7"/>
+      <c r="PV7"/>
+      <c r="PW7"/>
+      <c r="PX7"/>
+      <c r="PY7"/>
+      <c r="PZ7"/>
+      <c r="QA7"/>
+      <c r="QB7"/>
+      <c r="QC7"/>
+      <c r="QD7"/>
+      <c r="QE7"/>
+      <c r="QF7"/>
+      <c r="QG7"/>
+      <c r="QH7"/>
+      <c r="QI7"/>
+      <c r="QJ7"/>
+      <c r="QK7"/>
+      <c r="QL7"/>
+      <c r="QM7"/>
+      <c r="QN7"/>
+      <c r="QO7"/>
+      <c r="QP7"/>
+      <c r="QQ7"/>
+      <c r="QR7"/>
+      <c r="QS7"/>
+      <c r="QT7"/>
+      <c r="QU7"/>
+      <c r="QV7"/>
+      <c r="QW7"/>
+      <c r="QX7"/>
+      <c r="QY7"/>
+      <c r="QZ7"/>
+      <c r="RA7"/>
+      <c r="RB7"/>
+      <c r="RC7"/>
+      <c r="RD7"/>
+      <c r="RE7"/>
+      <c r="RF7"/>
+      <c r="RG7"/>
+      <c r="RH7"/>
+      <c r="RI7"/>
+      <c r="RJ7"/>
+      <c r="RK7"/>
+      <c r="RL7"/>
+      <c r="RM7"/>
+      <c r="RN7"/>
+      <c r="RO7"/>
+      <c r="RP7"/>
+      <c r="RQ7"/>
+      <c r="RR7"/>
+      <c r="RS7"/>
+      <c r="RT7"/>
+      <c r="RU7"/>
+      <c r="RV7"/>
+      <c r="RW7"/>
+      <c r="RX7"/>
+      <c r="RY7"/>
+      <c r="RZ7"/>
+      <c r="SA7"/>
+      <c r="SB7"/>
+      <c r="SC7"/>
+      <c r="SD7"/>
+      <c r="SE7"/>
+      <c r="SF7"/>
+      <c r="SG7"/>
+      <c r="SH7"/>
+      <c r="SI7"/>
+      <c r="SJ7"/>
+      <c r="SK7"/>
+      <c r="SL7"/>
+      <c r="SM7"/>
+      <c r="SN7"/>
+      <c r="SO7"/>
+      <c r="SP7"/>
+      <c r="SQ7"/>
+      <c r="SR7"/>
+      <c r="SS7"/>
+      <c r="ST7"/>
+      <c r="SU7"/>
+      <c r="SV7"/>
+      <c r="SW7"/>
+      <c r="SX7"/>
+      <c r="SY7"/>
+      <c r="SZ7"/>
+      <c r="TA7"/>
+      <c r="TB7"/>
+      <c r="TC7"/>
+      <c r="TD7"/>
+      <c r="TE7"/>
+      <c r="TF7"/>
+      <c r="TG7"/>
+      <c r="TH7"/>
+      <c r="TI7"/>
+      <c r="TJ7"/>
+      <c r="TK7"/>
+      <c r="TL7"/>
+      <c r="TM7"/>
+      <c r="TN7"/>
+      <c r="TO7"/>
+      <c r="TP7"/>
+      <c r="TQ7"/>
+      <c r="TR7"/>
+      <c r="TS7"/>
+      <c r="TT7"/>
+      <c r="TU7"/>
+      <c r="TV7"/>
+      <c r="TW7"/>
+      <c r="TX7"/>
+      <c r="TY7"/>
+      <c r="TZ7"/>
+      <c r="UA7"/>
+      <c r="UB7"/>
+      <c r="UC7"/>
+      <c r="UD7"/>
+      <c r="UE7"/>
+      <c r="UF7"/>
+      <c r="UG7"/>
+      <c r="UH7"/>
+      <c r="UI7"/>
+      <c r="UJ7"/>
+      <c r="UK7"/>
+      <c r="UL7"/>
+      <c r="UM7"/>
+      <c r="UN7"/>
+      <c r="UO7"/>
+      <c r="UP7"/>
+      <c r="UQ7"/>
+      <c r="UR7"/>
+      <c r="US7"/>
+      <c r="UT7"/>
+      <c r="UU7"/>
+      <c r="UV7"/>
+      <c r="UW7"/>
+      <c r="UX7"/>
+      <c r="UY7"/>
+      <c r="UZ7"/>
+      <c r="VA7"/>
+      <c r="VB7"/>
+      <c r="VC7"/>
+      <c r="VD7"/>
+      <c r="VE7"/>
+      <c r="VF7"/>
+      <c r="VG7"/>
+      <c r="VH7"/>
+      <c r="VI7"/>
+      <c r="VJ7"/>
+      <c r="VK7"/>
+      <c r="VL7"/>
+      <c r="VM7"/>
+      <c r="VN7"/>
+      <c r="VO7"/>
+      <c r="VP7"/>
+      <c r="VQ7"/>
+      <c r="VR7"/>
+      <c r="VS7"/>
+      <c r="VT7"/>
+      <c r="VU7"/>
+      <c r="VV7"/>
+      <c r="VW7"/>
+      <c r="VX7"/>
+      <c r="VY7"/>
+      <c r="VZ7"/>
+      <c r="WA7"/>
+      <c r="WB7"/>
+      <c r="WC7"/>
+      <c r="WD7"/>
+      <c r="WE7"/>
+      <c r="WF7"/>
+      <c r="WG7"/>
+      <c r="WH7"/>
+      <c r="WI7"/>
+      <c r="WJ7"/>
+      <c r="WK7"/>
+      <c r="WL7"/>
+      <c r="WM7"/>
+      <c r="WN7"/>
+      <c r="WO7"/>
+      <c r="WP7"/>
+      <c r="WQ7"/>
+      <c r="WR7"/>
+      <c r="WS7"/>
+      <c r="WT7"/>
+      <c r="WU7"/>
+      <c r="WV7"/>
+      <c r="WW7"/>
+      <c r="WX7"/>
+      <c r="WY7"/>
+      <c r="WZ7"/>
+      <c r="XA7"/>
+      <c r="XB7"/>
+      <c r="XC7"/>
+      <c r="XD7"/>
+      <c r="XE7"/>
+      <c r="XF7"/>
+      <c r="XG7"/>
+      <c r="XH7"/>
+      <c r="XI7"/>
+      <c r="XJ7"/>
+      <c r="XK7"/>
+      <c r="XL7"/>
+      <c r="XM7"/>
+      <c r="XN7"/>
+      <c r="XO7"/>
+      <c r="XP7"/>
+      <c r="XQ7"/>
+      <c r="XR7"/>
+      <c r="XS7"/>
+      <c r="XT7"/>
+      <c r="XU7"/>
+      <c r="XV7"/>
+      <c r="XW7"/>
+      <c r="XX7"/>
+      <c r="XY7"/>
+      <c r="XZ7"/>
+      <c r="YA7"/>
+      <c r="YB7"/>
+      <c r="YC7"/>
+      <c r="YD7"/>
+      <c r="YE7"/>
+      <c r="YF7"/>
+      <c r="YG7"/>
+      <c r="YH7"/>
+      <c r="YI7"/>
+      <c r="YJ7"/>
+      <c r="YK7"/>
+      <c r="YL7"/>
+      <c r="YM7"/>
+      <c r="YN7"/>
+      <c r="YO7"/>
+      <c r="YP7"/>
+      <c r="YQ7"/>
+      <c r="YR7"/>
+      <c r="YS7"/>
+      <c r="YT7"/>
+      <c r="YU7"/>
+      <c r="YV7"/>
+      <c r="YW7"/>
+      <c r="YX7"/>
+      <c r="YY7"/>
+      <c r="YZ7"/>
+      <c r="ZA7"/>
+      <c r="ZB7"/>
+      <c r="ZC7"/>
+      <c r="ZD7"/>
+      <c r="ZE7"/>
+      <c r="ZF7"/>
+      <c r="ZG7"/>
+      <c r="ZH7"/>
+      <c r="ZI7"/>
+      <c r="ZJ7"/>
+      <c r="ZK7"/>
+      <c r="ZL7"/>
+      <c r="ZM7"/>
+      <c r="ZN7"/>
+      <c r="ZO7"/>
+      <c r="ZP7"/>
+      <c r="ZQ7"/>
+      <c r="ZR7"/>
+      <c r="ZS7"/>
+      <c r="ZT7"/>
+      <c r="ZU7"/>
+      <c r="ZV7"/>
+      <c r="ZW7"/>
+      <c r="ZX7"/>
+      <c r="ZY7"/>
+      <c r="ZZ7"/>
+      <c r="AAA7"/>
+      <c r="AAB7"/>
+      <c r="AAC7"/>
+      <c r="AAD7"/>
+      <c r="AAE7"/>
+      <c r="AAF7"/>
+      <c r="AAG7"/>
+      <c r="AAH7"/>
+      <c r="AAI7"/>
+      <c r="AAJ7"/>
+      <c r="AAK7"/>
+      <c r="AAL7"/>
+      <c r="AAM7"/>
+      <c r="AAN7"/>
+      <c r="AAO7"/>
+      <c r="AAP7"/>
+      <c r="AAQ7"/>
+      <c r="AAR7"/>
+      <c r="AAS7"/>
+      <c r="AAT7"/>
+      <c r="AAU7"/>
+      <c r="AAV7"/>
+      <c r="AAW7"/>
+      <c r="AAX7"/>
+      <c r="AAY7"/>
+      <c r="AAZ7"/>
+      <c r="ABA7"/>
+      <c r="ABB7"/>
+      <c r="ABC7"/>
+      <c r="ABD7"/>
+      <c r="ABE7"/>
+      <c r="ABF7"/>
+      <c r="ABG7"/>
+      <c r="ABH7"/>
+      <c r="ABI7"/>
+      <c r="ABJ7"/>
+      <c r="ABK7"/>
+      <c r="ABL7"/>
+      <c r="ABM7"/>
+      <c r="ABN7"/>
+      <c r="ABO7"/>
+      <c r="ABP7"/>
+      <c r="ABQ7"/>
+      <c r="ABR7"/>
+      <c r="ABS7"/>
+      <c r="ABT7"/>
+      <c r="ABU7"/>
+      <c r="ABV7"/>
+      <c r="ABW7"/>
+      <c r="ABX7"/>
+      <c r="ABY7"/>
+      <c r="ABZ7"/>
+      <c r="ACA7"/>
+      <c r="ACB7"/>
+      <c r="ACC7"/>
+      <c r="ACD7"/>
+      <c r="ACE7"/>
+      <c r="ACF7"/>
+      <c r="ACG7"/>
+      <c r="ACH7"/>
+      <c r="ACI7"/>
+      <c r="ACJ7"/>
+      <c r="ACK7"/>
+      <c r="ACL7"/>
+      <c r="ACM7"/>
+      <c r="ACN7"/>
+      <c r="ACO7"/>
+      <c r="ACP7"/>
+      <c r="ACQ7"/>
+      <c r="ACR7"/>
+      <c r="ACS7"/>
+      <c r="ACT7"/>
+      <c r="ACU7"/>
+      <c r="ACV7"/>
+      <c r="ACW7"/>
+      <c r="ACX7"/>
+      <c r="ACY7"/>
+      <c r="ACZ7"/>
+      <c r="ADA7"/>
+      <c r="ADB7"/>
+      <c r="ADC7"/>
+      <c r="ADD7"/>
+      <c r="ADE7"/>
+      <c r="ADF7"/>
+      <c r="ADG7"/>
+      <c r="ADH7"/>
+      <c r="ADI7"/>
+      <c r="ADJ7"/>
+      <c r="ADK7"/>
+      <c r="ADL7"/>
+      <c r="ADM7"/>
+      <c r="ADN7"/>
+      <c r="ADO7"/>
+      <c r="ADP7"/>
+      <c r="ADQ7"/>
+      <c r="ADR7"/>
+      <c r="ADS7"/>
+      <c r="ADT7"/>
+      <c r="ADU7"/>
+      <c r="ADV7"/>
+      <c r="ADW7"/>
+      <c r="ADX7"/>
+      <c r="ADY7"/>
+      <c r="ADZ7"/>
+      <c r="AEA7"/>
+      <c r="AEB7"/>
+      <c r="AEC7"/>
+      <c r="AED7"/>
+      <c r="AEE7"/>
+      <c r="AEF7"/>
+      <c r="AEG7"/>
+      <c r="AEH7"/>
+      <c r="AEI7"/>
+      <c r="AEJ7"/>
+      <c r="AEK7"/>
+      <c r="AEL7"/>
+      <c r="AEM7"/>
+      <c r="AEN7"/>
+      <c r="AEO7"/>
+      <c r="AEP7"/>
+      <c r="AEQ7"/>
+      <c r="AER7"/>
+      <c r="AES7"/>
+      <c r="AET7"/>
+      <c r="AEU7"/>
+      <c r="AEV7"/>
+      <c r="AEW7"/>
+      <c r="AEX7"/>
+      <c r="AEY7"/>
+      <c r="AEZ7"/>
+      <c r="AFA7"/>
+      <c r="AFB7"/>
+      <c r="AFC7"/>
+      <c r="AFD7"/>
+      <c r="AFE7"/>
+      <c r="AFF7"/>
+      <c r="AFG7"/>
+      <c r="AFH7"/>
+      <c r="AFI7"/>
+      <c r="AFJ7"/>
+      <c r="AFK7"/>
+      <c r="AFL7"/>
+      <c r="AFM7"/>
+      <c r="AFN7"/>
+      <c r="AFO7"/>
+      <c r="AFP7"/>
+      <c r="AFQ7"/>
+      <c r="AFR7"/>
+      <c r="AFS7"/>
+      <c r="AFT7"/>
+      <c r="AFU7"/>
+      <c r="AFV7"/>
+      <c r="AFW7"/>
+      <c r="AFX7"/>
+      <c r="AFY7"/>
+      <c r="AFZ7"/>
+      <c r="AGA7"/>
+      <c r="AGB7"/>
+      <c r="AGC7"/>
+      <c r="AGD7"/>
+      <c r="AGE7"/>
+      <c r="AGF7"/>
+      <c r="AGG7"/>
+      <c r="AGH7"/>
+      <c r="AGI7"/>
+      <c r="AGJ7"/>
+      <c r="AGK7"/>
+      <c r="AGL7"/>
+      <c r="AGM7"/>
+      <c r="AGN7"/>
+      <c r="AGO7"/>
+      <c r="AGP7"/>
+      <c r="AGQ7"/>
+      <c r="AGR7"/>
+      <c r="AGS7"/>
+      <c r="AGT7"/>
+      <c r="AGU7"/>
+      <c r="AGV7"/>
+      <c r="AGW7"/>
+      <c r="AGX7"/>
+      <c r="AGY7"/>
+      <c r="AGZ7"/>
+      <c r="AHA7"/>
+      <c r="AHB7"/>
+      <c r="AHC7"/>
+      <c r="AHD7"/>
+      <c r="AHE7"/>
+      <c r="AHF7"/>
+      <c r="AHG7"/>
+      <c r="AHH7"/>
+      <c r="AHI7"/>
+      <c r="AHJ7"/>
+      <c r="AHK7"/>
+      <c r="AHL7"/>
+      <c r="AHM7"/>
+      <c r="AHN7"/>
+      <c r="AHO7"/>
+      <c r="AHP7"/>
+      <c r="AHQ7"/>
+      <c r="AHR7"/>
+      <c r="AHS7"/>
+      <c r="AHT7"/>
+      <c r="AHU7"/>
+      <c r="AHV7"/>
+      <c r="AHW7"/>
+      <c r="AHX7"/>
+      <c r="AHY7"/>
+      <c r="AHZ7"/>
+      <c r="AIA7"/>
+      <c r="AIB7"/>
+      <c r="AIC7"/>
+      <c r="AID7"/>
+      <c r="AIE7"/>
+      <c r="AIF7"/>
+      <c r="AIG7"/>
+      <c r="AIH7"/>
+      <c r="AII7"/>
+      <c r="AIJ7"/>
+      <c r="AIK7"/>
+      <c r="AIL7"/>
+      <c r="AIM7"/>
+      <c r="AIN7"/>
+      <c r="AIO7"/>
+      <c r="AIP7"/>
+      <c r="AIQ7"/>
+      <c r="AIR7"/>
+      <c r="AIS7"/>
+      <c r="AIT7"/>
+      <c r="AIU7"/>
+      <c r="AIV7"/>
+      <c r="AIW7"/>
+      <c r="AIX7"/>
+      <c r="AIY7"/>
+      <c r="AIZ7"/>
+      <c r="AJA7"/>
+      <c r="AJB7"/>
+      <c r="AJC7"/>
+      <c r="AJD7"/>
+      <c r="AJE7"/>
+      <c r="AJF7"/>
+      <c r="AJG7"/>
+      <c r="AJH7"/>
+      <c r="AJI7"/>
+      <c r="AJJ7"/>
+      <c r="AJK7"/>
+      <c r="AJL7"/>
+      <c r="AJM7"/>
+      <c r="AJN7"/>
+      <c r="AJO7"/>
+      <c r="AJP7"/>
+      <c r="AJQ7"/>
+      <c r="AJR7"/>
+      <c r="AJS7"/>
+      <c r="AJT7"/>
+      <c r="AJU7"/>
+      <c r="AJV7"/>
+      <c r="AJW7"/>
+      <c r="AJX7"/>
+      <c r="AJY7"/>
+      <c r="AJZ7"/>
+      <c r="AKA7"/>
+      <c r="AKB7"/>
+      <c r="AKC7"/>
+      <c r="AKD7"/>
+      <c r="AKE7"/>
+      <c r="AKF7"/>
+      <c r="AKG7"/>
+      <c r="AKH7"/>
+      <c r="AKI7"/>
+      <c r="AKJ7"/>
+      <c r="AKK7"/>
+      <c r="AKL7"/>
+      <c r="AKM7"/>
+      <c r="AKN7"/>
+      <c r="AKO7"/>
+      <c r="AKP7"/>
+      <c r="AKQ7"/>
+      <c r="AKR7"/>
+      <c r="AKS7"/>
+      <c r="AKT7"/>
+      <c r="AKU7"/>
+      <c r="AKV7"/>
+      <c r="AKW7"/>
+      <c r="AKX7"/>
+      <c r="AKY7"/>
+      <c r="AKZ7"/>
+      <c r="ALA7"/>
+      <c r="ALB7"/>
+      <c r="ALC7"/>
+      <c r="ALD7"/>
+      <c r="ALE7"/>
+      <c r="ALF7"/>
+      <c r="ALG7"/>
+      <c r="ALH7"/>
+      <c r="ALI7"/>
+      <c r="ALJ7"/>
+      <c r="ALK7"/>
+      <c r="ALL7"/>
+      <c r="ALM7"/>
+      <c r="ALN7"/>
+      <c r="ALO7"/>
+      <c r="ALP7"/>
+      <c r="ALQ7"/>
+      <c r="ALR7"/>
+      <c r="ALS7"/>
+      <c r="ALT7"/>
+      <c r="ALU7"/>
+      <c r="ALV7"/>
+      <c r="ALW7"/>
+      <c r="ALX7"/>
+      <c r="ALY7"/>
+      <c r="ALZ7"/>
+      <c r="AMA7"/>
+      <c r="AMB7"/>
+      <c r="AMC7"/>
+      <c r="AMD7"/>
+      <c r="AME7"/>
+      <c r="AMF7"/>
+      <c r="AMG7"/>
+      <c r="AMH7"/>
+      <c r="AMI7"/>
+      <c r="AMJ7"/>
+      <c r="AMK7"/>
+      <c r="AML7"/>
+      <c r="AMM7"/>
+      <c r="AMN7"/>
+      <c r="AMO7"/>
+      <c r="AMP7"/>
+      <c r="AMQ7"/>
+      <c r="AMR7"/>
+      <c r="AMS7"/>
+      <c r="AMT7"/>
+      <c r="AMU7"/>
+      <c r="AMV7"/>
+      <c r="AMW7"/>
+      <c r="AMX7"/>
+      <c r="AMY7"/>
+      <c r="AMZ7"/>
+      <c r="ANA7"/>
+      <c r="ANB7"/>
+      <c r="ANC7"/>
+      <c r="AND7"/>
+      <c r="ANE7"/>
+      <c r="ANF7"/>
+      <c r="ANG7"/>
+      <c r="ANH7"/>
+      <c r="ANI7"/>
+      <c r="ANJ7"/>
+      <c r="ANK7"/>
+      <c r="ANL7"/>
+      <c r="ANM7"/>
+      <c r="ANN7"/>
+      <c r="ANO7"/>
+      <c r="ANP7"/>
+      <c r="ANQ7"/>
+      <c r="ANR7"/>
+      <c r="ANS7"/>
+      <c r="ANT7"/>
+      <c r="ANU7"/>
+      <c r="ANV7"/>
+      <c r="ANW7"/>
+      <c r="ANX7"/>
+      <c r="ANY7"/>
+      <c r="ANZ7"/>
+      <c r="AOA7"/>
+      <c r="AOB7"/>
+      <c r="AOC7"/>
+      <c r="AOD7"/>
+      <c r="AOE7"/>
+      <c r="AOF7"/>
+      <c r="AOG7"/>
+      <c r="AOH7"/>
+      <c r="AOI7"/>
+      <c r="AOJ7"/>
+      <c r="AOK7"/>
+      <c r="AOL7"/>
+      <c r="AOM7"/>
+      <c r="AON7"/>
+      <c r="AOO7"/>
+      <c r="AOP7"/>
+      <c r="AOQ7"/>
+      <c r="AOR7"/>
+      <c r="AOS7"/>
+      <c r="AOT7"/>
+      <c r="AOU7"/>
+      <c r="AOV7"/>
+      <c r="AOW7"/>
+      <c r="AOX7"/>
+      <c r="AOY7"/>
+      <c r="AOZ7"/>
+      <c r="APA7"/>
+      <c r="APB7"/>
+      <c r="APC7"/>
+      <c r="APD7"/>
+      <c r="APE7"/>
+      <c r="APF7"/>
+      <c r="APG7"/>
+      <c r="APH7"/>
+      <c r="API7"/>
+      <c r="APJ7"/>
+      <c r="APK7"/>
+      <c r="APL7"/>
+      <c r="APM7"/>
+      <c r="APN7"/>
+      <c r="APO7"/>
+      <c r="APP7"/>
+      <c r="APQ7"/>
+      <c r="APR7"/>
+      <c r="APS7"/>
+      <c r="APT7"/>
+      <c r="APU7"/>
+      <c r="APV7"/>
+      <c r="APW7"/>
+      <c r="APX7"/>
+      <c r="APY7"/>
+      <c r="APZ7"/>
+      <c r="AQA7"/>
+      <c r="AQB7"/>
+      <c r="AQC7"/>
+      <c r="AQD7"/>
+      <c r="AQE7"/>
+      <c r="AQF7"/>
+      <c r="AQG7"/>
+      <c r="AQH7"/>
+      <c r="AQI7"/>
+      <c r="AQJ7"/>
+      <c r="AQK7"/>
+      <c r="AQL7"/>
+      <c r="AQM7"/>
+      <c r="AQN7"/>
+      <c r="AQO7"/>
+      <c r="AQP7"/>
+      <c r="AQQ7"/>
+      <c r="AQR7"/>
+      <c r="AQS7"/>
+      <c r="AQT7"/>
+      <c r="AQU7"/>
+      <c r="AQV7"/>
+      <c r="AQW7"/>
+      <c r="AQX7"/>
+      <c r="AQY7"/>
+      <c r="AQZ7"/>
+      <c r="ARA7"/>
+      <c r="ARB7"/>
+      <c r="ARC7"/>
+      <c r="ARD7"/>
+      <c r="ARE7"/>
+      <c r="ARF7"/>
+      <c r="ARG7"/>
+      <c r="ARH7"/>
+      <c r="ARI7"/>
+      <c r="ARJ7"/>
+      <c r="ARK7"/>
+      <c r="ARL7"/>
+      <c r="ARM7"/>
+      <c r="ARN7"/>
+      <c r="ARO7"/>
+      <c r="ARP7"/>
+      <c r="ARQ7"/>
+      <c r="ARR7"/>
+      <c r="ARS7"/>
+      <c r="ART7"/>
+      <c r="ARU7"/>
+      <c r="ARV7"/>
+      <c r="ARW7"/>
+      <c r="ARX7"/>
+      <c r="ARY7"/>
+      <c r="ARZ7"/>
+      <c r="ASA7"/>
+      <c r="ASB7"/>
+      <c r="ASC7"/>
+      <c r="ASD7"/>
+      <c r="ASE7"/>
+      <c r="ASF7"/>
+      <c r="ASG7"/>
+      <c r="ASH7"/>
+      <c r="ASI7"/>
+      <c r="ASJ7"/>
+      <c r="ASK7"/>
+      <c r="ASL7"/>
+      <c r="ASM7"/>
+      <c r="ASN7"/>
+      <c r="ASO7"/>
+      <c r="ASP7"/>
+      <c r="ASQ7"/>
+      <c r="ASR7"/>
+      <c r="ASS7"/>
+      <c r="AST7"/>
+      <c r="ASU7"/>
+      <c r="ASV7"/>
+      <c r="ASW7"/>
+      <c r="ASX7"/>
+      <c r="ASY7"/>
+      <c r="ASZ7"/>
+      <c r="ATA7"/>
+      <c r="ATB7"/>
+      <c r="ATC7"/>
+      <c r="ATD7"/>
+      <c r="ATE7"/>
+      <c r="ATF7"/>
+      <c r="ATG7"/>
+      <c r="ATH7"/>
+      <c r="ATI7"/>
+      <c r="ATJ7"/>
+      <c r="ATK7"/>
+      <c r="ATL7"/>
+      <c r="ATM7"/>
+      <c r="ATN7"/>
+      <c r="ATO7"/>
+      <c r="ATP7"/>
+      <c r="ATQ7"/>
+      <c r="ATR7"/>
+      <c r="ATS7"/>
+      <c r="ATT7"/>
+      <c r="ATU7"/>
+      <c r="ATV7"/>
+      <c r="ATW7"/>
+      <c r="ATX7"/>
+      <c r="ATY7"/>
+      <c r="ATZ7"/>
+      <c r="AUA7"/>
+      <c r="AUB7"/>
+      <c r="AUC7"/>
+      <c r="AUD7"/>
+      <c r="AUE7"/>
+      <c r="AUF7"/>
+      <c r="AUG7"/>
+      <c r="AUH7"/>
+      <c r="AUI7"/>
+      <c r="AUJ7"/>
+      <c r="AUK7"/>
+      <c r="AUL7"/>
+      <c r="AUM7"/>
+      <c r="AUN7"/>
+      <c r="AUO7"/>
+      <c r="AUP7"/>
+      <c r="AUQ7"/>
+      <c r="AUR7"/>
+      <c r="AUS7"/>
+      <c r="AUT7"/>
+      <c r="AUU7"/>
+      <c r="AUV7"/>
+      <c r="AUW7"/>
+      <c r="AUX7"/>
+      <c r="AUY7"/>
+      <c r="AUZ7"/>
+      <c r="AVA7"/>
+      <c r="AVB7"/>
+      <c r="AVC7"/>
+      <c r="AVD7"/>
+      <c r="AVE7"/>
+      <c r="AVF7"/>
+      <c r="AVG7"/>
+      <c r="AVH7"/>
+      <c r="AVI7"/>
+      <c r="AVJ7"/>
+      <c r="AVK7"/>
+      <c r="AVL7"/>
+      <c r="AVM7"/>
+      <c r="AVN7"/>
+      <c r="AVO7"/>
+      <c r="AVP7"/>
+      <c r="AVQ7"/>
+      <c r="AVR7"/>
+      <c r="AVS7"/>
+      <c r="AVT7"/>
+      <c r="AVU7"/>
+      <c r="AVV7"/>
+      <c r="AVW7"/>
+      <c r="AVX7"/>
+      <c r="AVY7"/>
+      <c r="AVZ7"/>
+      <c r="AWA7"/>
+      <c r="AWB7"/>
+      <c r="AWC7"/>
+      <c r="AWD7"/>
+      <c r="AWE7"/>
+      <c r="AWF7"/>
+      <c r="AWG7"/>
+      <c r="AWH7"/>
+      <c r="AWI7"/>
+      <c r="AWJ7"/>
+      <c r="AWK7"/>
+      <c r="AWL7"/>
+      <c r="AWM7"/>
+      <c r="AWN7"/>
+      <c r="AWO7"/>
+      <c r="AWP7"/>
+      <c r="AWQ7"/>
+      <c r="AWR7"/>
+      <c r="AWS7"/>
+      <c r="AWT7"/>
+      <c r="AWU7"/>
+      <c r="AWV7"/>
+      <c r="AWW7"/>
+      <c r="AWX7"/>
+      <c r="AWY7"/>
+      <c r="AWZ7"/>
+      <c r="AXA7"/>
+      <c r="AXB7"/>
+      <c r="AXC7"/>
+      <c r="AXD7"/>
+      <c r="AXE7"/>
+      <c r="AXF7"/>
+      <c r="AXG7"/>
+      <c r="AXH7"/>
+      <c r="AXI7"/>
+      <c r="AXJ7"/>
+      <c r="AXK7"/>
+      <c r="AXL7"/>
+      <c r="AXM7"/>
+      <c r="AXN7"/>
+      <c r="AXO7"/>
+      <c r="AXP7"/>
+      <c r="AXQ7"/>
+      <c r="AXR7"/>
+      <c r="AXS7"/>
+      <c r="AXT7"/>
+      <c r="AXU7"/>
+      <c r="AXV7"/>
+      <c r="AXW7"/>
+      <c r="AXX7"/>
+      <c r="AXY7"/>
+      <c r="AXZ7"/>
+      <c r="AYA7"/>
+      <c r="AYB7"/>
+      <c r="AYC7"/>
+      <c r="AYD7"/>
+      <c r="AYE7"/>
+      <c r="AYF7"/>
+      <c r="AYG7"/>
+      <c r="AYH7"/>
+      <c r="AYI7"/>
+      <c r="AYJ7"/>
+      <c r="AYK7"/>
+      <c r="AYL7"/>
+      <c r="AYM7"/>
+      <c r="AYN7"/>
+      <c r="AYO7"/>
+      <c r="AYP7"/>
+      <c r="AYQ7"/>
+      <c r="AYR7"/>
+      <c r="AYS7"/>
+      <c r="AYT7"/>
+      <c r="AYU7"/>
+      <c r="AYV7"/>
+      <c r="AYW7"/>
+      <c r="AYX7"/>
+      <c r="AYY7"/>
+      <c r="AYZ7"/>
+      <c r="AZA7"/>
+      <c r="AZB7"/>
+      <c r="AZC7"/>
+      <c r="AZD7"/>
+      <c r="AZE7"/>
+      <c r="AZF7"/>
+      <c r="AZG7"/>
+      <c r="AZH7"/>
+      <c r="AZI7"/>
+      <c r="AZJ7"/>
+      <c r="AZK7"/>
+      <c r="AZL7"/>
+      <c r="AZM7"/>
+      <c r="AZN7"/>
+      <c r="AZO7"/>
+      <c r="AZP7"/>
+      <c r="AZQ7"/>
+      <c r="AZR7"/>
+      <c r="AZS7"/>
+      <c r="AZT7"/>
+      <c r="AZU7"/>
+      <c r="AZV7"/>
+      <c r="AZW7"/>
+      <c r="AZX7"/>
+      <c r="AZY7"/>
+      <c r="AZZ7"/>
+      <c r="BAA7"/>
+      <c r="BAB7"/>
+      <c r="BAC7"/>
+      <c r="BAD7"/>
+      <c r="BAE7"/>
+      <c r="BAF7"/>
+      <c r="BAG7"/>
+      <c r="BAH7"/>
+      <c r="BAI7"/>
+      <c r="BAJ7"/>
+      <c r="BAK7"/>
+      <c r="BAL7"/>
+      <c r="BAM7"/>
+      <c r="BAN7"/>
+      <c r="BAO7"/>
+      <c r="BAP7"/>
+      <c r="BAQ7"/>
+      <c r="BAR7"/>
+      <c r="BAS7"/>
+      <c r="BAT7"/>
+      <c r="BAU7"/>
+      <c r="BAV7"/>
+      <c r="BAW7"/>
+      <c r="BAX7"/>
+      <c r="BAY7"/>
+      <c r="BAZ7"/>
+      <c r="BBA7"/>
+      <c r="BBB7"/>
+      <c r="BBC7"/>
+      <c r="BBD7"/>
+      <c r="BBE7"/>
+      <c r="BBF7"/>
+      <c r="BBG7"/>
+      <c r="BBH7"/>
+      <c r="BBI7"/>
+      <c r="BBJ7"/>
+      <c r="BBK7"/>
+      <c r="BBL7"/>
+      <c r="BBM7"/>
+      <c r="BBN7"/>
+      <c r="BBO7"/>
+      <c r="BBP7"/>
+      <c r="BBQ7"/>
+      <c r="BBR7"/>
+      <c r="BBS7"/>
+      <c r="BBT7"/>
+      <c r="BBU7"/>
+      <c r="BBV7"/>
+      <c r="BBW7"/>
+      <c r="BBX7"/>
+      <c r="BBY7"/>
+      <c r="BBZ7"/>
+      <c r="BCA7"/>
+      <c r="BCB7"/>
+      <c r="BCC7"/>
+      <c r="BCD7"/>
+      <c r="BCE7"/>
+      <c r="BCF7"/>
+      <c r="BCG7"/>
+      <c r="BCH7"/>
+      <c r="BCI7"/>
+      <c r="BCJ7"/>
+      <c r="BCK7"/>
+      <c r="BCL7"/>
+      <c r="BCM7"/>
+      <c r="BCN7"/>
+      <c r="BCO7"/>
+      <c r="BCP7"/>
+      <c r="BCQ7"/>
+      <c r="BCR7"/>
+      <c r="BCS7"/>
+      <c r="BCT7"/>
+      <c r="BCU7"/>
+      <c r="BCV7"/>
+      <c r="BCW7"/>
+      <c r="BCX7"/>
+      <c r="BCY7"/>
+      <c r="BCZ7"/>
+      <c r="BDA7"/>
+      <c r="BDB7"/>
+      <c r="BDC7"/>
+      <c r="BDD7"/>
+      <c r="BDE7"/>
+      <c r="BDF7"/>
+      <c r="BDG7"/>
+      <c r="BDH7"/>
+      <c r="BDI7"/>
+      <c r="BDJ7"/>
+      <c r="BDK7"/>
+      <c r="BDL7"/>
+      <c r="BDM7"/>
+      <c r="BDN7"/>
+      <c r="BDO7"/>
+      <c r="BDP7"/>
+      <c r="BDQ7"/>
+      <c r="BDR7"/>
+      <c r="BDS7"/>
+      <c r="BDT7"/>
+      <c r="BDU7"/>
+      <c r="BDV7"/>
+      <c r="BDW7"/>
+      <c r="BDX7"/>
+      <c r="BDY7"/>
+      <c r="BDZ7"/>
+      <c r="BEA7"/>
+      <c r="BEB7"/>
+      <c r="BEC7"/>
+      <c r="BED7"/>
+      <c r="BEE7"/>
+      <c r="BEF7"/>
+      <c r="BEG7"/>
+      <c r="BEH7"/>
+      <c r="BEI7"/>
+      <c r="BEJ7"/>
+      <c r="BEK7"/>
+      <c r="BEL7"/>
+      <c r="BEM7"/>
+      <c r="BEN7"/>
+      <c r="BEO7"/>
+      <c r="BEP7"/>
+      <c r="BEQ7"/>
+      <c r="BER7"/>
+      <c r="BES7"/>
+      <c r="BET7"/>
+      <c r="BEU7"/>
+      <c r="BEV7"/>
+      <c r="BEW7"/>
+      <c r="BEX7"/>
+      <c r="BEY7"/>
+      <c r="BEZ7"/>
+      <c r="BFA7"/>
+      <c r="BFB7"/>
+      <c r="BFC7"/>
+      <c r="BFD7"/>
+      <c r="BFE7"/>
+      <c r="BFF7"/>
+      <c r="BFG7"/>
+      <c r="BFH7"/>
+      <c r="BFI7"/>
+      <c r="BFJ7"/>
+      <c r="BFK7"/>
+      <c r="BFL7"/>
+      <c r="BFM7"/>
+      <c r="BFN7"/>
+      <c r="BFO7"/>
+      <c r="BFP7"/>
+      <c r="BFQ7"/>
+      <c r="BFR7"/>
+      <c r="BFS7"/>
+      <c r="BFT7"/>
+      <c r="BFU7"/>
+      <c r="BFV7"/>
+      <c r="BFW7"/>
+      <c r="BFX7"/>
+      <c r="BFY7"/>
+      <c r="BFZ7"/>
+      <c r="BGA7"/>
+      <c r="BGB7"/>
+      <c r="BGC7"/>
+      <c r="BGD7"/>
+      <c r="BGE7"/>
+      <c r="BGF7"/>
+      <c r="BGG7"/>
+      <c r="BGH7"/>
+      <c r="BGI7"/>
+      <c r="BGJ7"/>
+      <c r="BGK7"/>
+      <c r="BGL7"/>
+      <c r="BGM7"/>
+      <c r="BGN7"/>
+      <c r="BGO7"/>
+      <c r="BGP7"/>
+      <c r="BGQ7"/>
+      <c r="BGR7"/>
+      <c r="BGS7"/>
+      <c r="BGT7"/>
+      <c r="BGU7"/>
+      <c r="BGV7"/>
+      <c r="BGW7"/>
+      <c r="BGX7"/>
+      <c r="BGY7"/>
+      <c r="BGZ7"/>
+      <c r="BHA7"/>
+      <c r="BHB7"/>
+      <c r="BHC7"/>
+      <c r="BHD7"/>
+      <c r="BHE7"/>
+      <c r="BHF7"/>
+      <c r="BHG7"/>
+      <c r="BHH7"/>
+      <c r="BHI7"/>
+      <c r="BHJ7"/>
+      <c r="BHK7"/>
+      <c r="BHL7"/>
+      <c r="BHM7"/>
+      <c r="BHN7"/>
+      <c r="BHO7"/>
+      <c r="BHP7"/>
+      <c r="BHQ7"/>
+      <c r="BHR7"/>
+      <c r="BHS7"/>
+      <c r="BHT7"/>
+      <c r="BHU7"/>
+      <c r="BHV7"/>
+      <c r="BHW7"/>
+      <c r="BHX7"/>
+      <c r="BHY7"/>
+      <c r="BHZ7"/>
+      <c r="BIA7"/>
+      <c r="BIB7"/>
+      <c r="BIC7"/>
+      <c r="BID7"/>
+      <c r="BIE7"/>
+      <c r="BIF7"/>
+      <c r="BIG7"/>
+      <c r="BIH7"/>
+      <c r="BII7"/>
+      <c r="BIJ7"/>
+      <c r="BIK7"/>
+      <c r="BIL7"/>
+      <c r="BIM7"/>
+      <c r="BIN7"/>
+      <c r="BIO7"/>
+      <c r="BIP7"/>
+      <c r="BIQ7"/>
+      <c r="BIR7"/>
+      <c r="BIS7"/>
+      <c r="BIT7"/>
+      <c r="BIU7"/>
+      <c r="BIV7"/>
+      <c r="BIW7"/>
+      <c r="BIX7"/>
+      <c r="BIY7"/>
+      <c r="BIZ7"/>
+      <c r="BJA7"/>
+      <c r="BJB7"/>
+      <c r="BJC7"/>
+      <c r="BJD7"/>
+      <c r="BJE7"/>
+      <c r="BJF7"/>
+      <c r="BJG7"/>
+      <c r="BJH7"/>
+      <c r="BJI7"/>
+      <c r="BJJ7"/>
+      <c r="BJK7"/>
+      <c r="BJL7"/>
+      <c r="BJM7"/>
+      <c r="BJN7"/>
+      <c r="BJO7"/>
+      <c r="BJP7"/>
+      <c r="BJQ7"/>
+      <c r="BJR7"/>
+      <c r="BJS7"/>
+      <c r="BJT7"/>
+      <c r="BJU7"/>
+      <c r="BJV7"/>
+      <c r="BJW7"/>
+      <c r="BJX7"/>
+      <c r="BJY7"/>
+      <c r="BJZ7"/>
+      <c r="BKA7"/>
+      <c r="BKB7"/>
+      <c r="BKC7"/>
+      <c r="BKD7"/>
+      <c r="BKE7"/>
+      <c r="BKF7"/>
+      <c r="BKG7"/>
+      <c r="BKH7"/>
+      <c r="BKI7"/>
+      <c r="BKJ7"/>
+      <c r="BKK7"/>
+      <c r="BKL7"/>
+      <c r="BKM7"/>
+      <c r="BKN7"/>
+      <c r="BKO7"/>
+      <c r="BKP7"/>
+      <c r="BKQ7"/>
+      <c r="BKR7"/>
+      <c r="BKS7"/>
+      <c r="BKT7"/>
+      <c r="BKU7"/>
+      <c r="BKV7"/>
+      <c r="BKW7"/>
+      <c r="BKX7"/>
+      <c r="BKY7"/>
+      <c r="BKZ7"/>
+      <c r="BLA7"/>
+      <c r="BLB7"/>
+      <c r="BLC7"/>
+      <c r="BLD7"/>
+      <c r="BLE7"/>
+      <c r="BLF7"/>
+      <c r="BLG7"/>
+      <c r="BLH7"/>
+      <c r="BLI7"/>
+      <c r="BLJ7"/>
+      <c r="BLK7"/>
+      <c r="BLL7"/>
+      <c r="BLM7"/>
+      <c r="BLN7"/>
+      <c r="BLO7"/>
+      <c r="BLP7"/>
+      <c r="BLQ7"/>
+      <c r="BLR7"/>
+      <c r="BLS7"/>
+      <c r="BLT7"/>
+      <c r="BLU7"/>
+      <c r="BLV7"/>
+      <c r="BLW7"/>
+      <c r="BLX7"/>
+      <c r="BLY7"/>
+      <c r="BLZ7"/>
+      <c r="BMA7"/>
+      <c r="BMB7"/>
+      <c r="BMC7"/>
+      <c r="BMD7"/>
+      <c r="BME7"/>
+      <c r="BMF7"/>
+      <c r="BMG7"/>
+      <c r="BMH7"/>
+      <c r="BMI7"/>
+      <c r="BMJ7"/>
+      <c r="BMK7"/>
+      <c r="BML7"/>
+      <c r="BMM7"/>
+      <c r="BMN7"/>
+      <c r="BMO7"/>
+      <c r="BMP7"/>
+      <c r="BMQ7"/>
+      <c r="BMR7"/>
+      <c r="BMS7"/>
+      <c r="BMT7"/>
+      <c r="BMU7"/>
+      <c r="BMV7"/>
+      <c r="BMW7"/>
+      <c r="BMX7"/>
+      <c r="BMY7"/>
+      <c r="BMZ7"/>
+      <c r="BNA7"/>
+      <c r="BNB7"/>
+      <c r="BNC7"/>
+      <c r="BND7"/>
+      <c r="BNE7"/>
+      <c r="BNF7"/>
+      <c r="BNG7"/>
+      <c r="BNH7"/>
+      <c r="BNI7"/>
+      <c r="BNJ7"/>
+      <c r="BNK7"/>
+      <c r="BNL7"/>
+      <c r="BNM7"/>
+      <c r="BNN7"/>
+      <c r="BNO7"/>
+      <c r="BNP7"/>
+      <c r="BNQ7"/>
+      <c r="BNR7"/>
+      <c r="BNS7"/>
+      <c r="BNT7"/>
+      <c r="BNU7"/>
+      <c r="BNV7"/>
+      <c r="BNW7"/>
+      <c r="BNX7"/>
+      <c r="BNY7"/>
+      <c r="BNZ7"/>
+      <c r="BOA7"/>
+      <c r="BOB7"/>
+      <c r="BOC7"/>
+      <c r="BOD7"/>
+      <c r="BOE7"/>
+      <c r="BOF7"/>
+      <c r="BOG7"/>
+      <c r="BOH7"/>
+      <c r="BOI7"/>
+      <c r="BOJ7"/>
+      <c r="BOK7"/>
+      <c r="BOL7"/>
+      <c r="BOM7"/>
+      <c r="BON7"/>
+      <c r="BOO7"/>
+      <c r="BOP7"/>
+      <c r="BOQ7"/>
+      <c r="BOR7"/>
+      <c r="BOS7"/>
+      <c r="BOT7"/>
+      <c r="BOU7"/>
+      <c r="BOV7"/>
+      <c r="BOW7"/>
+      <c r="BOX7"/>
+      <c r="BOY7"/>
+      <c r="BOZ7"/>
+      <c r="BPA7"/>
+      <c r="BPB7"/>
+      <c r="BPC7"/>
+      <c r="BPD7"/>
+      <c r="BPE7"/>
+      <c r="BPF7"/>
+      <c r="BPG7"/>
+      <c r="BPH7"/>
+      <c r="BPI7"/>
+      <c r="BPJ7"/>
+      <c r="BPK7"/>
+      <c r="BPL7"/>
+      <c r="BPM7"/>
+      <c r="BPN7"/>
+      <c r="BPO7"/>
+      <c r="BPP7"/>
+      <c r="BPQ7"/>
+      <c r="BPR7"/>
+      <c r="BPS7"/>
+      <c r="BPT7"/>
+      <c r="BPU7"/>
+      <c r="BPV7"/>
+      <c r="BPW7"/>
+      <c r="BPX7"/>
+      <c r="BPY7"/>
+      <c r="BPZ7"/>
+      <c r="BQA7"/>
+      <c r="BQB7"/>
+      <c r="BQC7"/>
+      <c r="BQD7"/>
+      <c r="BQE7"/>
+      <c r="BQF7"/>
+      <c r="BQG7"/>
+      <c r="BQH7"/>
+      <c r="BQI7"/>
+      <c r="BQJ7"/>
+      <c r="BQK7"/>
+      <c r="BQL7"/>
+      <c r="BQM7"/>
+      <c r="BQN7"/>
+      <c r="BQO7"/>
+      <c r="BQP7"/>
+      <c r="BQQ7"/>
+      <c r="BQR7"/>
+      <c r="BQS7"/>
+      <c r="BQT7"/>
+      <c r="BQU7"/>
+      <c r="BQV7"/>
+      <c r="BQW7"/>
+      <c r="BQX7"/>
+      <c r="BQY7"/>
+      <c r="BQZ7"/>
+      <c r="BRA7"/>
+      <c r="BRB7"/>
+      <c r="BRC7"/>
+      <c r="BRD7"/>
+      <c r="BRE7"/>
+      <c r="BRF7"/>
+      <c r="BRG7"/>
+      <c r="BRH7"/>
+      <c r="BRI7"/>
+      <c r="BRJ7"/>
+      <c r="BRK7"/>
+      <c r="BRL7"/>
+      <c r="BRM7"/>
+      <c r="BRN7"/>
+      <c r="BRO7"/>
+      <c r="BRP7"/>
+      <c r="BRQ7"/>
+      <c r="BRR7"/>
+      <c r="BRS7"/>
+      <c r="BRT7"/>
+      <c r="BRU7"/>
+      <c r="BRV7"/>
+      <c r="BRW7"/>
+      <c r="BRX7"/>
+      <c r="BRY7"/>
+      <c r="BRZ7"/>
+      <c r="BSA7"/>
+      <c r="BSB7"/>
+      <c r="BSC7"/>
+      <c r="BSD7"/>
+      <c r="BSE7"/>
+      <c r="BSF7"/>
+      <c r="BSG7"/>
+      <c r="BSH7"/>
+      <c r="BSI7"/>
+      <c r="BSJ7"/>
+      <c r="BSK7"/>
+      <c r="BSL7"/>
+      <c r="BSM7"/>
+      <c r="BSN7"/>
+      <c r="BSO7"/>
+      <c r="BSP7"/>
+      <c r="BSQ7"/>
+      <c r="BSR7"/>
+      <c r="BSS7"/>
+      <c r="BST7"/>
+      <c r="BSU7"/>
+      <c r="BSV7"/>
+      <c r="BSW7"/>
+      <c r="BSX7"/>
+      <c r="BSY7"/>
+      <c r="BSZ7"/>
+      <c r="BTA7"/>
+      <c r="BTB7"/>
+      <c r="BTC7"/>
+      <c r="BTD7"/>
+      <c r="BTE7"/>
+      <c r="BTF7"/>
+      <c r="BTG7"/>
+      <c r="BTH7"/>
+      <c r="BTI7"/>
+      <c r="BTJ7"/>
+      <c r="BTK7"/>
+      <c r="BTL7"/>
+      <c r="BTM7"/>
+      <c r="BTN7"/>
+      <c r="BTO7"/>
+      <c r="BTP7"/>
+      <c r="BTQ7"/>
+      <c r="BTR7"/>
+      <c r="BTS7"/>
+      <c r="BTT7"/>
+      <c r="BTU7"/>
+      <c r="BTV7"/>
+      <c r="BTW7"/>
+      <c r="BTX7"/>
+      <c r="BTY7"/>
+      <c r="BTZ7"/>
+      <c r="BUA7"/>
+      <c r="BUB7"/>
+      <c r="BUC7"/>
+      <c r="BUD7"/>
+      <c r="BUE7"/>
+      <c r="BUF7"/>
+      <c r="BUG7"/>
+      <c r="BUH7"/>
+      <c r="BUI7"/>
+      <c r="BUJ7"/>
+      <c r="BUK7"/>
+      <c r="BUL7"/>
+      <c r="BUM7"/>
+      <c r="BUN7"/>
+      <c r="BUO7"/>
+      <c r="BUP7"/>
+      <c r="BUQ7"/>
+      <c r="BUR7"/>
+      <c r="BUS7"/>
+      <c r="BUT7"/>
+      <c r="BUU7"/>
+      <c r="BUV7"/>
+      <c r="BUW7"/>
+      <c r="BUX7"/>
+      <c r="BUY7"/>
+      <c r="BUZ7"/>
+      <c r="BVA7"/>
+      <c r="BVB7"/>
+      <c r="BVC7"/>
+      <c r="BVD7"/>
+      <c r="BVE7"/>
+      <c r="BVF7"/>
+      <c r="BVG7"/>
+      <c r="BVH7"/>
+      <c r="BVI7"/>
+      <c r="BVJ7"/>
+      <c r="BVK7"/>
+      <c r="BVL7"/>
+      <c r="BVM7"/>
+      <c r="BVN7"/>
+      <c r="BVO7"/>
+      <c r="BVP7"/>
+      <c r="BVQ7"/>
+      <c r="BVR7"/>
+      <c r="BVS7"/>
+      <c r="BVT7"/>
+      <c r="BVU7"/>
+      <c r="BVV7"/>
+      <c r="BVW7"/>
+      <c r="BVX7"/>
+      <c r="BVY7"/>
+      <c r="BVZ7"/>
+      <c r="BWA7"/>
+      <c r="BWB7"/>
+      <c r="BWC7"/>
+      <c r="BWD7"/>
+      <c r="BWE7"/>
+      <c r="BWF7"/>
+      <c r="BWG7"/>
+      <c r="BWH7"/>
+      <c r="BWI7"/>
+      <c r="BWJ7"/>
+      <c r="BWK7"/>
+      <c r="BWL7"/>
+      <c r="BWM7"/>
+      <c r="BWN7"/>
+      <c r="BWO7"/>
+      <c r="BWP7"/>
+      <c r="BWQ7"/>
+      <c r="BWR7"/>
+      <c r="BWS7"/>
+      <c r="BWT7"/>
+      <c r="BWU7"/>
+      <c r="BWV7"/>
+      <c r="BWW7"/>
+      <c r="BWX7"/>
+      <c r="BWY7"/>
+      <c r="BWZ7"/>
+      <c r="BXA7"/>
+      <c r="BXB7"/>
+      <c r="BXC7"/>
+      <c r="BXD7"/>
+      <c r="BXE7"/>
+      <c r="BXF7"/>
+      <c r="BXG7"/>
+      <c r="BXH7"/>
+      <c r="BXI7"/>
+      <c r="BXJ7"/>
+      <c r="BXK7"/>
+      <c r="BXL7"/>
+      <c r="BXM7"/>
+      <c r="BXN7"/>
+      <c r="BXO7"/>
+      <c r="BXP7"/>
+      <c r="BXQ7"/>
+      <c r="BXR7"/>
+      <c r="BXS7"/>
+      <c r="BXT7"/>
+      <c r="BXU7"/>
+      <c r="BXV7"/>
+      <c r="BXW7"/>
+      <c r="BXX7"/>
+      <c r="BXY7"/>
+      <c r="BXZ7"/>
+      <c r="BYA7"/>
+      <c r="BYB7"/>
+      <c r="BYC7"/>
+      <c r="BYD7"/>
+      <c r="BYE7"/>
+      <c r="BYF7"/>
+      <c r="BYG7"/>
+      <c r="BYH7"/>
+      <c r="BYI7"/>
+      <c r="BYJ7"/>
+      <c r="BYK7"/>
+      <c r="BYL7"/>
+      <c r="BYM7"/>
+      <c r="BYN7"/>
+      <c r="BYO7"/>
+      <c r="BYP7"/>
+      <c r="BYQ7"/>
+      <c r="BYR7"/>
+      <c r="BYS7"/>
+      <c r="BYT7"/>
+      <c r="BYU7"/>
+      <c r="BYV7"/>
+      <c r="BYW7"/>
+      <c r="BYX7"/>
+      <c r="BYY7"/>
+      <c r="BYZ7"/>
+      <c r="BZA7"/>
+      <c r="BZB7"/>
+      <c r="BZC7"/>
+      <c r="BZD7"/>
+      <c r="BZE7"/>
+      <c r="BZF7"/>
+      <c r="BZG7"/>
+      <c r="BZH7"/>
+      <c r="BZI7"/>
+      <c r="BZJ7"/>
+      <c r="BZK7"/>
+      <c r="BZL7"/>
+      <c r="BZM7"/>
+      <c r="BZN7"/>
+      <c r="BZO7"/>
+      <c r="BZP7"/>
+      <c r="BZQ7"/>
+      <c r="BZR7"/>
+      <c r="BZS7"/>
+      <c r="BZT7"/>
+      <c r="BZU7"/>
+      <c r="BZV7"/>
+      <c r="BZW7"/>
+      <c r="BZX7"/>
+      <c r="BZY7"/>
+      <c r="BZZ7"/>
+      <c r="CAA7"/>
+      <c r="CAB7"/>
+      <c r="CAC7"/>
+      <c r="CAD7"/>
+      <c r="CAE7"/>
+      <c r="CAF7"/>
+      <c r="CAG7"/>
+      <c r="CAH7"/>
+      <c r="CAI7"/>
+      <c r="CAJ7"/>
+      <c r="CAK7"/>
+      <c r="CAL7"/>
+      <c r="CAM7"/>
+      <c r="CAN7"/>
+      <c r="CAO7"/>
+      <c r="CAP7"/>
+      <c r="CAQ7"/>
+      <c r="CAR7"/>
+      <c r="CAS7"/>
+      <c r="CAT7"/>
+      <c r="CAU7"/>
+      <c r="CAV7"/>
+      <c r="CAW7"/>
+      <c r="CAX7"/>
+      <c r="CAY7"/>
+      <c r="CAZ7"/>
+      <c r="CBA7"/>
+      <c r="CBB7"/>
+      <c r="CBC7"/>
+      <c r="CBD7"/>
+      <c r="CBE7"/>
+      <c r="CBF7"/>
+      <c r="CBG7"/>
+      <c r="CBH7"/>
+      <c r="CBI7"/>
+      <c r="CBJ7"/>
+      <c r="CBK7"/>
+      <c r="CBL7"/>
+      <c r="CBM7"/>
+      <c r="CBN7"/>
+      <c r="CBO7"/>
+      <c r="CBP7"/>
+      <c r="CBQ7"/>
+      <c r="CBR7"/>
+      <c r="CBS7"/>
+      <c r="CBT7"/>
+      <c r="CBU7"/>
+      <c r="CBV7"/>
+      <c r="CBW7"/>
+      <c r="CBX7"/>
+      <c r="CBY7"/>
+      <c r="CBZ7"/>
+      <c r="CCA7"/>
+      <c r="CCB7"/>
+      <c r="CCC7"/>
+      <c r="CCD7"/>
+      <c r="CCE7"/>
+      <c r="CCF7"/>
+      <c r="CCG7"/>
+      <c r="CCH7"/>
+      <c r="CCI7"/>
+      <c r="CCJ7"/>
+      <c r="CCK7"/>
+      <c r="CCL7"/>
+      <c r="CCM7"/>
+      <c r="CCN7"/>
+      <c r="CCO7"/>
+      <c r="CCP7"/>
+      <c r="CCQ7"/>
+      <c r="CCR7"/>
+      <c r="CCS7"/>
+      <c r="CCT7"/>
+      <c r="CCU7"/>
+      <c r="CCV7"/>
+      <c r="CCW7"/>
+      <c r="CCX7"/>
+      <c r="CCY7"/>
+      <c r="CCZ7"/>
+      <c r="CDA7"/>
+      <c r="CDB7"/>
+      <c r="CDC7"/>
+      <c r="CDD7"/>
+      <c r="CDE7"/>
+      <c r="CDF7"/>
+      <c r="CDG7"/>
+      <c r="CDH7"/>
+      <c r="CDI7"/>
+      <c r="CDJ7"/>
+      <c r="CDK7"/>
+      <c r="CDL7"/>
+      <c r="CDM7"/>
+      <c r="CDN7"/>
+      <c r="CDO7"/>
+      <c r="CDP7"/>
+      <c r="CDQ7"/>
+      <c r="CDR7"/>
+      <c r="CDS7"/>
+      <c r="CDT7"/>
+      <c r="CDU7"/>
+      <c r="CDV7"/>
+      <c r="CDW7"/>
+      <c r="CDX7"/>
+      <c r="CDY7"/>
+      <c r="CDZ7"/>
+      <c r="CEA7"/>
+      <c r="CEB7"/>
+      <c r="CEC7"/>
+      <c r="CED7"/>
+      <c r="CEE7"/>
+      <c r="CEF7"/>
+      <c r="CEG7"/>
+      <c r="CEH7"/>
+      <c r="CEI7"/>
+      <c r="CEJ7"/>
+      <c r="CEK7"/>
+      <c r="CEL7"/>
+      <c r="CEM7"/>
+      <c r="CEN7"/>
+      <c r="CEO7"/>
+      <c r="CEP7"/>
+      <c r="CEQ7"/>
+      <c r="CER7"/>
+      <c r="CES7"/>
+      <c r="CET7"/>
+      <c r="CEU7"/>
+      <c r="CEV7"/>
+      <c r="CEW7"/>
+      <c r="CEX7"/>
+      <c r="CEY7"/>
+      <c r="CEZ7"/>
+      <c r="CFA7"/>
+      <c r="CFB7"/>
+      <c r="CFC7"/>
+      <c r="CFD7"/>
+      <c r="CFE7"/>
+      <c r="CFF7"/>
+      <c r="CFG7"/>
+      <c r="CFH7"/>
+      <c r="CFI7"/>
+      <c r="CFJ7"/>
+      <c r="CFK7"/>
+      <c r="CFL7"/>
+      <c r="CFM7"/>
+      <c r="CFN7"/>
+      <c r="CFO7"/>
+      <c r="CFP7"/>
+      <c r="CFQ7"/>
+      <c r="CFR7"/>
+      <c r="CFS7"/>
+      <c r="CFT7"/>
+      <c r="CFU7"/>
+      <c r="CFV7"/>
+      <c r="CFW7"/>
+      <c r="CFX7"/>
+      <c r="CFY7"/>
+      <c r="CFZ7"/>
+      <c r="CGA7"/>
+      <c r="CGB7"/>
+      <c r="CGC7"/>
+      <c r="CGD7"/>
+      <c r="CGE7"/>
+      <c r="CGF7"/>
+      <c r="CGG7"/>
+      <c r="CGH7"/>
+      <c r="CGI7"/>
+      <c r="CGJ7"/>
+      <c r="CGK7"/>
+      <c r="CGL7"/>
+      <c r="CGM7"/>
+      <c r="CGN7"/>
+      <c r="CGO7"/>
+      <c r="CGP7"/>
+      <c r="CGQ7"/>
+      <c r="CGR7"/>
+      <c r="CGS7"/>
+      <c r="CGT7"/>
+      <c r="CGU7"/>
+      <c r="CGV7"/>
+      <c r="CGW7"/>
+      <c r="CGX7"/>
+      <c r="CGY7"/>
+      <c r="CGZ7"/>
+      <c r="CHA7"/>
+      <c r="CHB7"/>
+      <c r="CHC7"/>
+      <c r="CHD7"/>
+      <c r="CHE7"/>
+      <c r="CHF7"/>
+      <c r="CHG7"/>
+      <c r="CHH7"/>
+      <c r="CHI7"/>
+      <c r="CHJ7"/>
+      <c r="CHK7"/>
+      <c r="CHL7"/>
+      <c r="CHM7"/>
+      <c r="CHN7"/>
+      <c r="CHO7"/>
+      <c r="CHP7"/>
+      <c r="CHQ7"/>
+      <c r="CHR7"/>
+      <c r="CHS7"/>
+      <c r="CHT7"/>
+      <c r="CHU7"/>
+      <c r="CHV7"/>
+      <c r="CHW7"/>
+      <c r="CHX7"/>
+      <c r="CHY7"/>
+      <c r="CHZ7"/>
+      <c r="CIA7"/>
+      <c r="CIB7"/>
+      <c r="CIC7"/>
+      <c r="CID7"/>
+      <c r="CIE7"/>
+      <c r="CIF7"/>
+      <c r="CIG7"/>
+      <c r="CIH7"/>
+      <c r="CII7"/>
+      <c r="CIJ7"/>
+      <c r="CIK7"/>
+      <c r="CIL7"/>
+      <c r="CIM7"/>
+      <c r="CIN7"/>
+      <c r="CIO7"/>
+      <c r="CIP7"/>
+      <c r="CIQ7"/>
+      <c r="CIR7"/>
+      <c r="CIS7"/>
+      <c r="CIT7"/>
+      <c r="CIU7"/>
+      <c r="CIV7"/>
+      <c r="CIW7"/>
+      <c r="CIX7"/>
+      <c r="CIY7"/>
+      <c r="CIZ7"/>
+      <c r="CJA7"/>
+      <c r="CJB7"/>
+      <c r="CJC7"/>
+      <c r="CJD7"/>
+      <c r="CJE7"/>
+      <c r="CJF7"/>
+      <c r="CJG7"/>
+      <c r="CJH7"/>
+      <c r="CJI7"/>
+      <c r="CJJ7"/>
+      <c r="CJK7"/>
+      <c r="CJL7"/>
+      <c r="CJM7"/>
+      <c r="CJN7"/>
+      <c r="CJO7"/>
+      <c r="CJP7"/>
+      <c r="CJQ7"/>
+      <c r="CJR7"/>
+      <c r="CJS7"/>
+      <c r="CJT7"/>
+      <c r="CJU7"/>
+      <c r="CJV7"/>
+      <c r="CJW7"/>
+      <c r="CJX7"/>
+      <c r="CJY7"/>
+      <c r="CJZ7"/>
+      <c r="CKA7"/>
+      <c r="CKB7"/>
+      <c r="CKC7"/>
+      <c r="CKD7"/>
+      <c r="CKE7"/>
+      <c r="CKF7"/>
+      <c r="CKG7"/>
+      <c r="CKH7"/>
+      <c r="CKI7"/>
+      <c r="CKJ7"/>
+      <c r="CKK7"/>
+      <c r="CKL7"/>
+      <c r="CKM7"/>
+      <c r="CKN7"/>
+      <c r="CKO7"/>
+      <c r="CKP7"/>
+      <c r="CKQ7"/>
+      <c r="CKR7"/>
+      <c r="CKS7"/>
+      <c r="CKT7"/>
+      <c r="CKU7"/>
+      <c r="CKV7"/>
+      <c r="CKW7"/>
+      <c r="CKX7"/>
+      <c r="CKY7"/>
+      <c r="CKZ7"/>
+      <c r="CLA7"/>
+      <c r="CLB7"/>
+      <c r="CLC7"/>
+      <c r="CLD7"/>
+      <c r="CLE7"/>
+      <c r="CLF7"/>
+      <c r="CLG7"/>
+      <c r="CLH7"/>
+      <c r="CLI7"/>
+      <c r="CLJ7"/>
+      <c r="CLK7"/>
+      <c r="CLL7"/>
+      <c r="CLM7"/>
+      <c r="CLN7"/>
+      <c r="CLO7"/>
+      <c r="CLP7"/>
+      <c r="CLQ7"/>
+      <c r="CLR7"/>
+      <c r="CLS7"/>
+      <c r="CLT7"/>
+      <c r="CLU7"/>
+      <c r="CLV7"/>
+      <c r="CLW7"/>
+      <c r="CLX7"/>
+      <c r="CLY7"/>
+      <c r="CLZ7"/>
+      <c r="CMA7"/>
+      <c r="CMB7"/>
+      <c r="CMC7"/>
+      <c r="CMD7"/>
+      <c r="CME7"/>
+      <c r="CMF7"/>
+      <c r="CMG7"/>
+      <c r="CMH7"/>
+      <c r="CMI7"/>
+      <c r="CMJ7"/>
+      <c r="CMK7"/>
+      <c r="CML7"/>
+      <c r="CMM7"/>
+      <c r="CMN7"/>
+      <c r="CMO7"/>
+      <c r="CMP7"/>
+      <c r="CMQ7"/>
+      <c r="CMR7"/>
+      <c r="CMS7"/>
+      <c r="CMT7"/>
+      <c r="CMU7"/>
+      <c r="CMV7"/>
+      <c r="CMW7"/>
+      <c r="CMX7"/>
+      <c r="CMY7"/>
+      <c r="CMZ7"/>
+      <c r="CNA7"/>
+      <c r="CNB7"/>
+      <c r="CNC7"/>
+      <c r="CND7"/>
+      <c r="CNE7"/>
+      <c r="CNF7"/>
+      <c r="CNG7"/>
+      <c r="CNH7"/>
+      <c r="CNI7"/>
+      <c r="CNJ7"/>
+      <c r="CNK7"/>
+      <c r="CNL7"/>
+      <c r="CNM7"/>
+      <c r="CNN7"/>
+      <c r="CNO7"/>
+      <c r="CNP7"/>
+      <c r="CNQ7"/>
+      <c r="CNR7"/>
+      <c r="CNS7"/>
+      <c r="CNT7"/>
+      <c r="CNU7"/>
+      <c r="CNV7"/>
+      <c r="CNW7"/>
+      <c r="CNX7"/>
+      <c r="CNY7"/>
+      <c r="CNZ7"/>
+      <c r="COA7"/>
+      <c r="COB7"/>
+      <c r="COC7"/>
+      <c r="COD7"/>
+      <c r="COE7"/>
+      <c r="COF7"/>
+      <c r="COG7"/>
+      <c r="COH7"/>
+      <c r="COI7"/>
+      <c r="COJ7"/>
+      <c r="COK7"/>
+      <c r="COL7"/>
+      <c r="COM7"/>
+      <c r="CON7"/>
+      <c r="COO7"/>
+      <c r="COP7"/>
+      <c r="COQ7"/>
+      <c r="COR7"/>
+      <c r="COS7"/>
+      <c r="COT7"/>
+      <c r="COU7"/>
+      <c r="COV7"/>
+      <c r="COW7"/>
+      <c r="COX7"/>
+      <c r="COY7"/>
+      <c r="COZ7"/>
+      <c r="CPA7"/>
+      <c r="CPB7"/>
+      <c r="CPC7"/>
+      <c r="CPD7"/>
+      <c r="CPE7"/>
+      <c r="CPF7"/>
+      <c r="CPG7"/>
+      <c r="CPH7"/>
+      <c r="CPI7"/>
+      <c r="CPJ7"/>
+      <c r="CPK7"/>
+      <c r="CPL7"/>
+      <c r="CPM7"/>
+      <c r="CPN7"/>
+      <c r="CPO7"/>
+      <c r="CPP7"/>
+      <c r="CPQ7"/>
+      <c r="CPR7"/>
+      <c r="CPS7"/>
+      <c r="CPT7"/>
+      <c r="CPU7"/>
+      <c r="CPV7"/>
+      <c r="CPW7"/>
+      <c r="CPX7"/>
+      <c r="CPY7"/>
+      <c r="CPZ7"/>
+      <c r="CQA7"/>
+      <c r="CQB7"/>
+      <c r="CQC7"/>
+      <c r="CQD7"/>
+      <c r="CQE7"/>
+      <c r="CQF7"/>
+      <c r="CQG7"/>
+      <c r="CQH7"/>
+      <c r="CQI7"/>
+      <c r="CQJ7"/>
+      <c r="CQK7"/>
+      <c r="CQL7"/>
+      <c r="CQM7"/>
+      <c r="CQN7"/>
+      <c r="CQO7"/>
+      <c r="CQP7"/>
+      <c r="CQQ7"/>
+      <c r="CQR7"/>
+      <c r="CQS7"/>
+      <c r="CQT7"/>
+      <c r="CQU7"/>
+      <c r="CQV7"/>
+      <c r="CQW7"/>
+      <c r="CQX7"/>
+      <c r="CQY7"/>
+      <c r="CQZ7"/>
+      <c r="CRA7"/>
+      <c r="CRB7"/>
+      <c r="CRC7"/>
+      <c r="CRD7"/>
+      <c r="CRE7"/>
+      <c r="CRF7"/>
+      <c r="CRG7"/>
+      <c r="CRH7"/>
+      <c r="CRI7"/>
+      <c r="CRJ7"/>
+      <c r="CRK7"/>
+      <c r="CRL7"/>
+      <c r="CRM7"/>
+      <c r="CRN7"/>
+      <c r="CRO7"/>
+      <c r="CRP7"/>
+      <c r="CRQ7"/>
+      <c r="CRR7"/>
+      <c r="CRS7"/>
+      <c r="CRT7"/>
+      <c r="CRU7"/>
+      <c r="CRV7"/>
+      <c r="CRW7"/>
+      <c r="CRX7"/>
+      <c r="CRY7"/>
+      <c r="CRZ7"/>
+      <c r="CSA7"/>
+      <c r="CSB7"/>
+      <c r="CSC7"/>
+      <c r="CSD7"/>
+      <c r="CSE7"/>
+      <c r="CSF7"/>
+      <c r="CSG7"/>
+      <c r="CSH7"/>
+      <c r="CSI7"/>
+      <c r="CSJ7"/>
+      <c r="CSK7"/>
+      <c r="CSL7"/>
+      <c r="CSM7"/>
+      <c r="CSN7"/>
+      <c r="CSO7"/>
+      <c r="CSP7"/>
+      <c r="CSQ7"/>
+      <c r="CSR7"/>
+      <c r="CSS7"/>
+      <c r="CST7"/>
+      <c r="CSU7"/>
+      <c r="CSV7"/>
+      <c r="CSW7"/>
+      <c r="CSX7"/>
+      <c r="CSY7"/>
     </row>
-    <row r="8" spans="1:1024" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2547" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>1072</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="13" t="s">
         <v>11</v>
       </c>
       <c r="D8" s="7">
@@ -994,21 +8596,21 @@
       <c r="I8" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="J8" s="13" t="s">
+      <c r="J8" s="12" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:1024" x14ac:dyDescent="0.2">
-      <c r="A10" s="15"/>
+    <row r="10" spans="1:2547" x14ac:dyDescent="0.2">
+      <c r="A10" s="14"/>
     </row>
-    <row r="13" spans="1:1024" x14ac:dyDescent="0.2">
-      <c r="A13" s="15"/>
+    <row r="13" spans="1:2547" x14ac:dyDescent="0.2">
+      <c r="A13" s="14"/>
     </row>
-    <row r="14" spans="1:1024" x14ac:dyDescent="0.2">
-      <c r="A14" s="15"/>
+    <row r="14" spans="1:2547" x14ac:dyDescent="0.2">
+      <c r="A14" s="14"/>
     </row>
-    <row r="15" spans="1:1024" x14ac:dyDescent="0.2">
-      <c r="A15" s="15"/>
+    <row r="15" spans="1:2547" x14ac:dyDescent="0.2">
+      <c r="A15" s="14"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/PROYECTO MR/cuentas_vuce_certi.xlsx
+++ b/PROYECTO MR/cuentas_vuce_certi.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VUCE\DocumentoVuce\PROYECTO MR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VUCE\DocumentoVuce\PROYECTO MR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B47DF3BB-2EEC-4BDB-8201-471ABB69D49F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C7A6E80-4BF6-4278-A255-1083D86C2CE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -150,7 +150,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -160,13 +160,6 @@
     <font>
       <b/>
       <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -237,9 +230,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -252,9 +245,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -280,17 +270,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -304,7 +294,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -319,7 +309,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -328,7 +318,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -715,7 +705,7 @@
   <dimension ref="A1:CSY15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -769,31 +759,31 @@
       <c r="A2" s="4">
         <v>1066</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="6">
         <v>1088</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="5" t="s">
         <v>15</v>
       </c>
     </row>
@@ -801,63 +791,63 @@
       <c r="A3" s="4">
         <v>1063</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="6">
         <v>1051</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:2547" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="17">
+    <row r="4" spans="1:2547" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="16">
         <v>1064</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="20">
+      <c r="D4" s="19">
         <v>1085</v>
       </c>
-      <c r="E4" s="21" t="s">
+      <c r="E4" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="21" t="s">
+      <c r="F4" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="21" t="s">
+      <c r="G4" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="21" t="s">
+      <c r="H4" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="21" t="s">
+      <c r="I4" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="19" t="s">
+      <c r="J4" s="18" t="s">
         <v>15</v>
       </c>
       <c r="K4"/>
@@ -3402,63 +3392,63 @@
       <c r="A5" s="4">
         <v>1070</v>
       </c>
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="6">
         <v>1092</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="H5" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="10" t="s">
+      <c r="I5" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="J5" s="11" t="s">
+      <c r="J5" s="10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:2547" s="22" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A6" s="17">
+    <row r="6" spans="1:2547" s="21" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A6" s="16">
         <v>1071</v>
       </c>
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="20">
+      <c r="D6" s="19">
         <v>1093</v>
       </c>
-      <c r="E6" s="21" t="s">
+      <c r="E6" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="21" t="s">
+      <c r="F6" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="21" t="s">
+      <c r="G6" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="21" t="s">
+      <c r="H6" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="I6" s="30" t="s">
+      <c r="I6" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="J6" s="31" t="s">
+      <c r="J6" s="30" t="s">
         <v>23</v>
       </c>
       <c r="K6"/>
@@ -5999,35 +5989,35 @@
       <c r="CSX6"/>
       <c r="CSY6"/>
     </row>
-    <row r="7" spans="1:2547" s="28" customFormat="1" ht="114.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="23">
+    <row r="7" spans="1:2547" s="27" customFormat="1" ht="114.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="22">
         <v>1065</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="23">
+      <c r="D7" s="22">
         <v>1086</v>
       </c>
-      <c r="E7" s="26" t="s">
+      <c r="E7" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="26" t="s">
+      <c r="F7" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="26" t="s">
+      <c r="G7" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="26" t="s">
+      <c r="H7" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="I7" s="26" t="s">
+      <c r="I7" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="J7" s="27" t="s">
+      <c r="J7" s="26" t="s">
         <v>30</v>
       </c>
       <c r="K7"/>
@@ -8572,45 +8562,45 @@
       <c r="A8" s="4">
         <v>1072</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="6">
         <v>1094</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="G8" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="H8" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="I8" s="8" t="s">
+      <c r="I8" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="J8" s="12" t="s">
+      <c r="J8" s="11" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:2547" x14ac:dyDescent="0.2">
-      <c r="A10" s="14"/>
+      <c r="A10" s="13"/>
     </row>
     <row r="13" spans="1:2547" x14ac:dyDescent="0.2">
-      <c r="A13" s="14"/>
+      <c r="A13" s="13"/>
     </row>
     <row r="14" spans="1:2547" x14ac:dyDescent="0.2">
-      <c r="A14" s="14"/>
+      <c r="A14" s="13"/>
     </row>
     <row r="15" spans="1:2547" x14ac:dyDescent="0.2">
-      <c r="A15" s="14"/>
+      <c r="A15" s="13"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/PROYECTO MR/cuentas_vuce_certi.xlsx
+++ b/PROYECTO MR/cuentas_vuce_certi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VUCE\DocumentoVuce\PROYECTO MR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C7A6E80-4BF6-4278-A255-1083D86C2CE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57DC9DA4-618E-4D1C-B9C9-C4128D8E8A3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -704,8 +704,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CSY15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F24" sqref="F23:F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/PROYECTO MR/cuentas_vuce_certi.xlsx
+++ b/PROYECTO MR/cuentas_vuce_certi.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VUCE\DocumentoVuce\PROYECTO MR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VUCE\DocumentoVuce\PROYECTO MR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57DC9DA4-618E-4D1C-B9C9-C4128D8E8A3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{047752F6-AADC-41E6-AD00-2E0E1FFD8541}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -705,7 +705,7 @@
   <dimension ref="A1:CSY15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F24" sqref="F23:F24"/>
+      <selection activeCell="J25" sqref="J24:J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/PROYECTO MR/cuentas_vuce_certi.xlsx
+++ b/PROYECTO MR/cuentas_vuce_certi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VUCE\DocumentoVuce\PROYECTO MR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{047752F6-AADC-41E6-AD00-2E0E1FFD8541}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19F9A1F1-58C2-49A2-B821-515905E89E9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -705,7 +705,7 @@
   <dimension ref="A1:CSY15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J25" sqref="J24:J25"/>
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/PROYECTO MR/cuentas_vuce_certi.xlsx
+++ b/PROYECTO MR/cuentas_vuce_certi.xlsx
@@ -5,16 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VUCE\DocumentoVuce\PROYECTO MR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VUCE\DocumentoVuce\PROYECTO MR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19F9A1F1-58C2-49A2-B821-515905E89E9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A9D4B47-398E-4499-AEF6-234094BCFFD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$CSY$8</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -705,7 +708,7 @@
   <dimension ref="A1:CSY15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8603,6 +8606,7 @@
       <c r="A15" s="13"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:CSY8" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="B4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>

--- a/PROYECTO MR/cuentas_vuce_certi.xlsx
+++ b/PROYECTO MR/cuentas_vuce_certi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VUCE\DocumentoVuce\PROYECTO MR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A9D4B47-398E-4499-AEF6-234094BCFFD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F87A1BC4-E6DB-484C-8B38-94D48DDBF71A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="37">
   <si>
     <t>Cuenta Vuce Id</t>
   </si>
@@ -148,6 +148,9 @@
   <si>
     <t>MR.USUARIO.TRAMITADOR</t>
   </si>
+  <si>
+    <t>error</t>
+  </si>
 </sst>
 </file>
 
@@ -181,7 +184,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -206,8 +209,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -230,12 +239,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -322,6 +342,9 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -708,7 +731,7 @@
   <dimension ref="A1:CSY15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3454,7 +3477,9 @@
       <c r="J6" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="K6"/>
+      <c r="K6" s="32" t="s">
+        <v>36</v>
+      </c>
       <c r="L6"/>
       <c r="M6"/>
       <c r="N6"/>

--- a/PROYECTO MR/cuentas_vuce_certi.xlsx
+++ b/PROYECTO MR/cuentas_vuce_certi.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VUCE\DocumentoVuce\PROYECTO MR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VUCE\DocumentoVuce\PROYECTO MR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F87A1BC4-E6DB-484C-8B38-94D48DDBF71A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C286316-4CBB-4233-AF4F-D0300D5D97D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,8 +18,17 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$CSY$8</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
     </ext>
@@ -28,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="36">
   <si>
     <t>Cuenta Vuce Id</t>
   </si>
@@ -108,9 +117,6 @@
     <t>anllelo.carreazo@hotmail.com</t>
   </si>
   <si>
-    <t>cp@gmail.com</t>
-  </si>
-  <si>
     <t>FUNCIONARIO</t>
   </si>
   <si>
@@ -184,7 +190,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -212,6 +218,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -255,7 +267,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -279,9 +291,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -303,7 +312,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -345,6 +353,25 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -731,7 +758,7 @@
   <dimension ref="A1:CSY15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -785,7 +812,7 @@
       <c r="A2" s="4">
         <v>1066</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="13" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="5" t="s">
@@ -814,66 +841,66 @@
       </c>
     </row>
     <row r="3" spans="1:2547" x14ac:dyDescent="0.2">
-      <c r="A3" s="4">
+      <c r="A3" s="31">
         <v>1063</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="34">
         <v>1051</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="36" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:2547" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="16">
+    <row r="4" spans="1:2547" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="31">
         <v>1064</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="19">
+      <c r="D4" s="34">
         <v>1085</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="20" t="s">
+      <c r="F4" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="20" t="s">
+      <c r="G4" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="20" t="s">
+      <c r="H4" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="20" t="s">
+      <c r="I4" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="18" t="s">
+      <c r="J4" s="36" t="s">
         <v>15</v>
       </c>
       <c r="K4"/>
@@ -3418,7 +3445,7 @@
       <c r="A5" s="4">
         <v>1070</v>
       </c>
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="29" t="s">
         <v>20</v>
       </c>
       <c r="C5" s="5" t="s">
@@ -3427,58 +3454,58 @@
       <c r="D5" s="6">
         <v>1092</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="I5" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="J5" s="10" t="s">
+      <c r="J5" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:2547" s="21" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A6" s="16">
+    <row r="6" spans="1:2547" s="19" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A6" s="15">
         <v>1071</v>
       </c>
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="19">
+      <c r="D6" s="17">
         <v>1093</v>
       </c>
-      <c r="E6" s="20" t="s">
+      <c r="E6" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="20" t="s">
+      <c r="F6" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="20" t="s">
+      <c r="G6" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="20" t="s">
+      <c r="H6" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="I6" s="29" t="s">
+      <c r="I6" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="J6" s="30" t="s">
+      <c r="J6" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="K6" s="32" t="s">
-        <v>36</v>
+      <c r="K6" s="30" t="s">
+        <v>35</v>
       </c>
       <c r="L6"/>
       <c r="M6"/>
@@ -6017,36 +6044,36 @@
       <c r="CSX6"/>
       <c r="CSY6"/>
     </row>
-    <row r="7" spans="1:2547" s="27" customFormat="1" ht="114.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="22">
+    <row r="7" spans="1:2547" s="25" customFormat="1" ht="114.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="20">
         <v>1065</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="20">
+        <v>1086</v>
+      </c>
+      <c r="E7" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="22">
-        <v>1086</v>
-      </c>
-      <c r="E7" s="25" t="s">
+      <c r="F7" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="25" t="s">
+      <c r="G7" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="H7" s="25" t="s">
+      <c r="I7" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="I7" s="25" t="s">
+      <c r="J7" s="24" t="s">
         <v>29</v>
-      </c>
-      <c r="J7" s="26" t="s">
-        <v>30</v>
       </c>
       <c r="K7"/>
       <c r="L7"/>
@@ -8590,10 +8617,10 @@
       <c r="A8" s="4">
         <v>1072</v>
       </c>
-      <c r="B8" s="15" t="s">
-        <v>31</v>
+      <c r="B8" s="14" t="s">
+        <v>30</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="11" t="s">
         <v>11</v>
       </c>
       <c r="D8" s="6">
@@ -8603,32 +8630,32 @@
         <v>12</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I8" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="I8" s="7" t="s">
+      <c r="J8" s="10" t="s">
         <v>34</v>
-      </c>
-      <c r="J8" s="11" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:2547" x14ac:dyDescent="0.2">
-      <c r="A10" s="13"/>
+      <c r="A10" s="12"/>
     </row>
     <row r="13" spans="1:2547" x14ac:dyDescent="0.2">
-      <c r="A13" s="13"/>
+      <c r="A13" s="12"/>
     </row>
     <row r="14" spans="1:2547" x14ac:dyDescent="0.2">
-      <c r="A14" s="13"/>
+      <c r="A14" s="12"/>
     </row>
     <row r="15" spans="1:2547" x14ac:dyDescent="0.2">
-      <c r="A15" s="13"/>
+      <c r="A15" s="12"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:CSY8" xr:uid="{00000000-0001-0000-0000-000000000000}"/>

--- a/PROYECTO MR/cuentas_vuce_certi.xlsx
+++ b/PROYECTO MR/cuentas_vuce_certi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VUCE\DocumentoVuce\PROYECTO MR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C286316-4CBB-4233-AF4F-D0300D5D97D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A86B77E-C6BF-464F-AE8B-5CC107F78F83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -758,7 +758,7 @@
   <dimension ref="A1:CSY15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/PROYECTO MR/cuentas_vuce_certi.xlsx
+++ b/PROYECTO MR/cuentas_vuce_certi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VUCE\DocumentoVuce\PROYECTO MR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A86B77E-C6BF-464F-AE8B-5CC107F78F83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5084B745-A2CE-48FC-B999-FAE2BBBF1891}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -757,8 +757,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CSY15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/PROYECTO MR/cuentas_vuce_certi.xlsx
+++ b/PROYECTO MR/cuentas_vuce_certi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VUCE\DocumentoVuce\PROYECTO MR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A32D9BF-4366-4498-BE6F-319976BED32A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87C3BA14-07EC-438F-B2F3-5912CEED7458}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -689,7 +689,7 @@
   <dimension ref="A1:AMJ15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -743,7 +743,7 @@
       <c r="A2" s="4">
         <v>1066</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="16" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="5" t="s">
@@ -996,6 +996,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="9f8772a7-fa38-4be3-8f6b-d40e0755735f" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="328335c8-173a-4c26-85d0-3846c13a1e29">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <Fehca xmlns="328335c8-173a-4c26-85d0-3846c13a1e29" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CBC7F57751F3F343A56393DD202D817F" ma:contentTypeVersion="20" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="39c6f7f9cec71677675bb2863d384c02">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9f8772a7-fa38-4be3-8f6b-d40e0755735f" xmlns:ns3="328335c8-173a-4c26-85d0-3846c13a1e29" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b0daab8a5ec0935cc933c650856a513a" ns2:_="" ns3:_="">
     <xsd:import namespace="9f8772a7-fa38-4be3-8f6b-d40e0755735f"/>
@@ -1256,7 +1268,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -1265,19 +1277,18 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="9f8772a7-fa38-4be3-8f6b-d40e0755735f" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="328335c8-173a-4c26-85d0-3846c13a1e29">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <Fehca xmlns="328335c8-173a-4c26-85d0-3846c13a1e29" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{29ED5AEF-6667-474A-9377-27193A33D44B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="9f8772a7-fa38-4be3-8f6b-d40e0755735f"/>
+    <ds:schemaRef ds:uri="328335c8-173a-4c26-85d0-3846c13a1e29"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{93E84B74-339F-4989-8D17-B87ED93A9251}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1296,21 +1307,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{442570E0-D9B1-4719-89C3-C6ABF642B3F9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{29ED5AEF-6667-474A-9377-27193A33D44B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="9f8772a7-fa38-4be3-8f6b-d40e0755735f"/>
-    <ds:schemaRef ds:uri="328335c8-173a-4c26-85d0-3846c13a1e29"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/PROYECTO MR/cuentas_vuce_certi.xlsx
+++ b/PROYECTO MR/cuentas_vuce_certi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VUCE\DocumentoVuce\PROYECTO MR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87C3BA14-07EC-438F-B2F3-5912CEED7458}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5A1503A-4E19-4693-8BBF-9EDDE8F40783}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -279,9 +279,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -302,6 +299,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
@@ -689,7 +689,7 @@
   <dimension ref="A1:AMJ15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -743,7 +743,7 @@
       <c r="A2" s="4">
         <v>1066</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="5" t="s">
@@ -775,7 +775,7 @@
       <c r="A3" s="4">
         <v>1063</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="14" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="7" t="s">
@@ -839,7 +839,7 @@
       <c r="A5" s="4">
         <v>1070</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="19" t="s">
         <v>20</v>
       </c>
       <c r="C5" s="5" t="s">
@@ -863,7 +863,7 @@
       <c r="I5" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="J5" s="17" t="s">
+      <c r="J5" s="16" t="s">
         <v>23</v>
       </c>
     </row>
@@ -871,7 +871,7 @@
       <c r="A6" s="4">
         <v>1071</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="18" t="s">
         <v>24</v>
       </c>
       <c r="C6" s="5" t="s">
@@ -895,7 +895,7 @@
       <c r="I6" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="J6" s="18" t="s">
+      <c r="J6" s="17" t="s">
         <v>23</v>
       </c>
     </row>
@@ -903,7 +903,7 @@
       <c r="A7" s="6">
         <v>1065</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="15" t="s">
         <v>25</v>
       </c>
       <c r="C7" s="7" t="s">
@@ -936,10 +936,10 @@
       <c r="A8" s="4">
         <v>1072</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D8" s="6">
@@ -965,16 +965,16 @@
       </c>
     </row>
     <row r="10" spans="1:1024" x14ac:dyDescent="0.2">
-      <c r="A10" s="14"/>
+      <c r="A10" s="13"/>
     </row>
     <row r="13" spans="1:1024" x14ac:dyDescent="0.2">
-      <c r="A13" s="14"/>
+      <c r="A13" s="13"/>
     </row>
     <row r="14" spans="1:1024" x14ac:dyDescent="0.2">
-      <c r="A14" s="14"/>
+      <c r="A14" s="13"/>
     </row>
     <row r="15" spans="1:1024" x14ac:dyDescent="0.2">
-      <c r="A15" s="14"/>
+      <c r="A15" s="13"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/PROYECTO MR/cuentas_vuce_certi.xlsx
+++ b/PROYECTO MR/cuentas_vuce_certi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VUCE\DocumentoVuce\PROYECTO MR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5A1503A-4E19-4693-8BBF-9EDDE8F40783}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61E8A0BE-3269-4765-8FC8-CA22D3C8F674}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -689,7 +689,7 @@
   <dimension ref="A1:AMJ15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -996,15 +996,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="9f8772a7-fa38-4be3-8f6b-d40e0755735f" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="328335c8-173a-4c26-85d0-3846c13a1e29">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <Fehca xmlns="328335c8-173a-4c26-85d0-3846c13a1e29" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1269,21 +1266,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="9f8772a7-fa38-4be3-8f6b-d40e0755735f" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="328335c8-173a-4c26-85d0-3846c13a1e29">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <Fehca xmlns="328335c8-173a-4c26-85d0-3846c13a1e29" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{29ED5AEF-6667-474A-9377-27193A33D44B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{442570E0-D9B1-4719-89C3-C6ABF642B3F9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="9f8772a7-fa38-4be3-8f6b-d40e0755735f"/>
-    <ds:schemaRef ds:uri="328335c8-173a-4c26-85d0-3846c13a1e29"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1308,9 +1305,12 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{442570E0-D9B1-4719-89C3-C6ABF642B3F9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{29ED5AEF-6667-474A-9377-27193A33D44B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="9f8772a7-fa38-4be3-8f6b-d40e0755735f"/>
+    <ds:schemaRef ds:uri="328335c8-173a-4c26-85d0-3846c13a1e29"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/PROYECTO MR/cuentas_vuce_certi.xlsx
+++ b/PROYECTO MR/cuentas_vuce_certi.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VUCE\DocumentoVuce\PROYECTO MR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VUCE\DocumentoVuce\PROYECTO MR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61E8A0BE-3269-4765-8FC8-CA22D3C8F674}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CE9E252-7CA0-4C3F-9B26-AD84B3758CF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -689,7 +689,7 @@
   <dimension ref="A1:AMJ15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -996,15 +996,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CBC7F57751F3F343A56393DD202D817F" ma:contentTypeVersion="20" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="39c6f7f9cec71677675bb2863d384c02">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9f8772a7-fa38-4be3-8f6b-d40e0755735f" xmlns:ns3="328335c8-173a-4c26-85d0-3846c13a1e29" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b0daab8a5ec0935cc933c650856a513a" ns2:_="" ns3:_="">
     <xsd:import namespace="9f8772a7-fa38-4be3-8f6b-d40e0755735f"/>
@@ -1265,6 +1256,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -1278,14 +1278,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{442570E0-D9B1-4719-89C3-C6ABF642B3F9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{93E84B74-339F-4989-8D17-B87ED93A9251}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1304,6 +1296,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{442570E0-D9B1-4719-89C3-C6ABF642B3F9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{29ED5AEF-6667-474A-9377-27193A33D44B}">
   <ds:schemaRefs>

--- a/PROYECTO MR/cuentas_vuce_certi.xlsx
+++ b/PROYECTO MR/cuentas_vuce_certi.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VUCE\DocumentoVuce\PROYECTO MR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VUCE\DocumentoVuce\PROYECTO MR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CE9E252-7CA0-4C3F-9B26-AD84B3758CF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{502EE512-3112-4DA2-A93C-8A6DDD959F2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -689,7 +689,7 @@
   <dimension ref="A1:AMJ15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -996,6 +996,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CBC7F57751F3F343A56393DD202D817F" ma:contentTypeVersion="20" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="39c6f7f9cec71677675bb2863d384c02">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9f8772a7-fa38-4be3-8f6b-d40e0755735f" xmlns:ns3="328335c8-173a-4c26-85d0-3846c13a1e29" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b0daab8a5ec0935cc933c650856a513a" ns2:_="" ns3:_="">
     <xsd:import namespace="9f8772a7-fa38-4be3-8f6b-d40e0755735f"/>
@@ -1256,15 +1265,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -1278,6 +1278,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{442570E0-D9B1-4719-89C3-C6ABF642B3F9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{93E84B74-339F-4989-8D17-B87ED93A9251}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1296,14 +1304,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{442570E0-D9B1-4719-89C3-C6ABF642B3F9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{29ED5AEF-6667-474A-9377-27193A33D44B}">
   <ds:schemaRefs>

--- a/PROYECTO MR/cuentas_vuce_certi.xlsx
+++ b/PROYECTO MR/cuentas_vuce_certi.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VUCE\DocumentoVuce\PROYECTO MR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VUCE\DocumentoVuce\PROYECTO MR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{502EE512-3112-4DA2-A93C-8A6DDD959F2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{163E6A78-D7EE-4BEC-A01D-DE39CE4193A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -689,7 +689,7 @@
   <dimension ref="A1:AMJ15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/PROYECTO MR/cuentas_vuce_certi.xlsx
+++ b/PROYECTO MR/cuentas_vuce_certi.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VUCE\DocumentoVuce\PROYECTO MR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VUCE\DocumentoVuce\PROYECTO MR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{163E6A78-D7EE-4BEC-A01D-DE39CE4193A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{551A57A2-F4BF-473E-AF64-A22873F178EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -390,9 +390,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -430,7 +430,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -536,7 +536,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -678,7 +678,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -689,7 +689,7 @@
   <dimension ref="A1:AMJ15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -996,15 +996,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CBC7F57751F3F343A56393DD202D817F" ma:contentTypeVersion="20" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="39c6f7f9cec71677675bb2863d384c02">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9f8772a7-fa38-4be3-8f6b-d40e0755735f" xmlns:ns3="328335c8-173a-4c26-85d0-3846c13a1e29" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b0daab8a5ec0935cc933c650856a513a" ns2:_="" ns3:_="">
     <xsd:import namespace="9f8772a7-fa38-4be3-8f6b-d40e0755735f"/>
@@ -1265,6 +1256,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -1278,14 +1278,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{442570E0-D9B1-4719-89C3-C6ABF642B3F9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{93E84B74-339F-4989-8D17-B87ED93A9251}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1304,6 +1296,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{442570E0-D9B1-4719-89C3-C6ABF642B3F9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{29ED5AEF-6667-474A-9377-27193A33D44B}">
   <ds:schemaRefs>

--- a/PROYECTO MR/cuentas_vuce_certi.xlsx
+++ b/PROYECTO MR/cuentas_vuce_certi.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VUCE\DocumentoVuce\PROYECTO MR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VUCE\DocumentoVuce\PROYECTO MR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{551A57A2-F4BF-473E-AF64-A22873F178EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC648CBF-FC01-48D7-A8FD-2462982F0BEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -390,9 +390,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -430,7 +430,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -536,7 +536,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -678,7 +678,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -689,7 +689,7 @@
   <dimension ref="A1:AMJ15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -996,6 +996,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CBC7F57751F3F343A56393DD202D817F" ma:contentTypeVersion="20" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="39c6f7f9cec71677675bb2863d384c02">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9f8772a7-fa38-4be3-8f6b-d40e0755735f" xmlns:ns3="328335c8-173a-4c26-85d0-3846c13a1e29" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b0daab8a5ec0935cc933c650856a513a" ns2:_="" ns3:_="">
     <xsd:import namespace="9f8772a7-fa38-4be3-8f6b-d40e0755735f"/>
@@ -1256,15 +1265,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -1278,6 +1278,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{442570E0-D9B1-4719-89C3-C6ABF642B3F9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{93E84B74-339F-4989-8D17-B87ED93A9251}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1296,14 +1304,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{442570E0-D9B1-4719-89C3-C6ABF642B3F9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{29ED5AEF-6667-474A-9377-27193A33D44B}">
   <ds:schemaRefs>

--- a/PROYECTO MR/cuentas_vuce_certi.xlsx
+++ b/PROYECTO MR/cuentas_vuce_certi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VUCE\DocumentoVuce\PROYECTO MR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC648CBF-FC01-48D7-A8FD-2462982F0BEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C3B818A-79DD-4FB4-9A26-EA9844099B28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -689,7 +689,7 @@
   <dimension ref="A1:AMJ15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1005,6 +1005,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="9f8772a7-fa38-4be3-8f6b-d40e0755735f" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="328335c8-173a-4c26-85d0-3846c13a1e29">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <Fehca xmlns="328335c8-173a-4c26-85d0-3846c13a1e29" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CBC7F57751F3F343A56393DD202D817F" ma:contentTypeVersion="20" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="39c6f7f9cec71677675bb2863d384c02">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9f8772a7-fa38-4be3-8f6b-d40e0755735f" xmlns:ns3="328335c8-173a-4c26-85d0-3846c13a1e29" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b0daab8a5ec0935cc933c650856a513a" ns2:_="" ns3:_="">
     <xsd:import namespace="9f8772a7-fa38-4be3-8f6b-d40e0755735f"/>
@@ -1265,18 +1277,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="9f8772a7-fa38-4be3-8f6b-d40e0755735f" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="328335c8-173a-4c26-85d0-3846c13a1e29">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <Fehca xmlns="328335c8-173a-4c26-85d0-3846c13a1e29" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{442570E0-D9B1-4719-89C3-C6ABF642B3F9}">
   <ds:schemaRefs>
@@ -1286,6 +1286,17 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{29ED5AEF-6667-474A-9377-27193A33D44B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="9f8772a7-fa38-4be3-8f6b-d40e0755735f"/>
+    <ds:schemaRef ds:uri="328335c8-173a-4c26-85d0-3846c13a1e29"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{93E84B74-339F-4989-8D17-B87ED93A9251}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1302,15 +1313,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{29ED5AEF-6667-474A-9377-27193A33D44B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="9f8772a7-fa38-4be3-8f6b-d40e0755735f"/>
-    <ds:schemaRef ds:uri="328335c8-173a-4c26-85d0-3846c13a1e29"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/PROYECTO MR/cuentas_vuce_certi.xlsx
+++ b/PROYECTO MR/cuentas_vuce_certi.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VUCE\DocumentoVuce\PROYECTO MR\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C3B818A-79DD-4FB4-9A26-EA9844099B28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -161,8 +155,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -305,7 +299,7 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
-    <cellStyle name="Hyperlink" xfId="1" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
+    <cellStyle name="Hyperlink" xfId="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -432,7 +426,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -484,7 +478,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -678,21 +672,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AMJ15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.7109375" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="14.42578125" customWidth="1"/>
     <col min="2" max="2" width="29.28515625" customWidth="1"/>
@@ -707,7 +701,7 @@
     <col min="1024" max="1024" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1024" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1024">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -739,7 +733,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:1024" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1024">
       <c r="A2" s="4">
         <v>1066</v>
       </c>
@@ -771,7 +765,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:1024" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1024">
       <c r="A3" s="4">
         <v>1063</v>
       </c>
@@ -803,7 +797,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:1024" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1024">
       <c r="A4" s="4">
         <v>1064</v>
       </c>
@@ -835,7 +829,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:1024" ht="51.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1024" ht="51.4" customHeight="1">
       <c r="A5" s="4">
         <v>1070</v>
       </c>
@@ -867,7 +861,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:1024" ht="51" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1024" ht="51">
       <c r="A6" s="4">
         <v>1071</v>
       </c>
@@ -899,7 +893,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:1024" s="11" customFormat="1" ht="114.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1024" s="11" customFormat="1" ht="114.4" customHeight="1">
       <c r="A7" s="6">
         <v>1065</v>
       </c>
@@ -932,7 +926,7 @@
       </c>
       <c r="AMJ7"/>
     </row>
-    <row r="8" spans="1:1024" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1024">
       <c r="A8" s="4">
         <v>1072</v>
       </c>
@@ -964,27 +958,27 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:1024" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:1024">
       <c r="A10" s="13"/>
     </row>
-    <row r="13" spans="1:1024" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:1024">
       <c r="A13" s="13"/>
     </row>
-    <row r="14" spans="1:1024" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:1024">
       <c r="A14" s="13"/>
     </row>
-    <row r="15" spans="1:1024" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:1024">
       <c r="A15" s="13"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="B5" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="B6" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="B7" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="B8" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="B3" r:id="rId7" xr:uid="{E5168534-9EC1-4A48-BD0C-666613DDE117}"/>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B4" r:id="rId2"/>
+    <hyperlink ref="B5" r:id="rId3"/>
+    <hyperlink ref="B6" r:id="rId4"/>
+    <hyperlink ref="B7" r:id="rId5"/>
+    <hyperlink ref="B8" r:id="rId6"/>
+    <hyperlink ref="B3" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
@@ -996,27 +990,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="9f8772a7-fa38-4be3-8f6b-d40e0755735f" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="328335c8-173a-4c26-85d0-3846c13a1e29">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <Fehca xmlns="328335c8-173a-4c26-85d0-3846c13a1e29" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CBC7F57751F3F343A56393DD202D817F" ma:contentTypeVersion="20" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="39c6f7f9cec71677675bb2863d384c02">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9f8772a7-fa38-4be3-8f6b-d40e0755735f" xmlns:ns3="328335c8-173a-4c26-85d0-3846c13a1e29" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b0daab8a5ec0935cc933c650856a513a" ns2:_="" ns3:_="">
     <xsd:import namespace="9f8772a7-fa38-4be3-8f6b-d40e0755735f"/>
@@ -1277,10 +1250,42 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="9f8772a7-fa38-4be3-8f6b-d40e0755735f" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="328335c8-173a-4c26-85d0-3846c13a1e29">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <Fehca xmlns="328335c8-173a-4c26-85d0-3846c13a1e29" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{442570E0-D9B1-4719-89C3-C6ABF642B3F9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{93E84B74-339F-4989-8D17-B87ED93A9251}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="9f8772a7-fa38-4be3-8f6b-d40e0755735f"/>
+    <ds:schemaRef ds:uri="328335c8-173a-4c26-85d0-3846c13a1e29"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1297,20 +1302,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{93E84B74-339F-4989-8D17-B87ED93A9251}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{442570E0-D9B1-4719-89C3-C6ABF642B3F9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="9f8772a7-fa38-4be3-8f6b-d40e0755735f"/>
-    <ds:schemaRef ds:uri="328335c8-173a-4c26-85d0-3846c13a1e29"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>